--- a/trunk/1. Project management/AS_PM_MasterPlan.xlsx
+++ b/trunk/1. Project management/AS_PM_MasterPlan.xlsx
@@ -1086,49 +1086,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1213,6 +1171,48 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1566,11 +1566,11 @@
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="88"/>
     </row>
     <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
@@ -1682,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,23 +1693,23 @@
     <col min="4" max="4" width="50.85546875" customWidth="1"/>
     <col min="5" max="5" width="24.140625" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="75" customWidth="1"/>
-    <col min="8" max="8" width="29.7109375" style="86" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="61" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" style="72" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="67"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="97"/>
     </row>
     <row r="3" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="46" t="s">
@@ -1741,7 +1741,7 @@
       <c r="B4" s="34">
         <v>1</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="89" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="35" t="s">
@@ -1753,21 +1753,21 @@
       <c r="F4" s="49">
         <v>41466</v>
       </c>
-      <c r="G4" s="76">
+      <c r="G4" s="62">
         <v>41466</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="73" t="s">
         <v>69</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="2:9" s="68" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" s="56" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="37">
         <v>2</v>
       </c>
-      <c r="C5" s="60"/>
+      <c r="C5" s="90"/>
       <c r="D5" s="38" t="s">
         <v>26</v>
       </c>
@@ -1780,7 +1780,7 @@
       <c r="G5" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="H5" s="88" t="s">
+      <c r="H5" s="74" t="s">
         <v>73</v>
       </c>
       <c r="I5" s="22" t="s">
@@ -1791,7 +1791,7 @@
       <c r="B6" s="37">
         <v>3</v>
       </c>
-      <c r="C6" s="60"/>
+      <c r="C6" s="90"/>
       <c r="D6" s="38" t="s">
         <v>27</v>
       </c>
@@ -1802,10 +1802,10 @@
         <v>81</v>
       </c>
       <c r="G6" s="39"/>
-      <c r="H6" s="88" t="s">
+      <c r="H6" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="98" t="s">
+      <c r="I6" s="84" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       <c r="B7" s="37">
         <v>4</v>
       </c>
-      <c r="C7" s="60"/>
+      <c r="C7" s="90"/>
       <c r="D7" s="38" t="s">
         <v>79</v>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="G7" s="51">
         <v>41466</v>
       </c>
-      <c r="H7" s="88" t="s">
+      <c r="H7" s="74" t="s">
         <v>69</v>
       </c>
       <c r="I7" s="22" t="s">
@@ -1835,7 +1835,7 @@
     </row>
     <row r="8" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="37"/>
-      <c r="C8" s="60"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="38" t="s">
         <v>80</v>
       </c>
@@ -1848,7 +1848,7 @@
       <c r="G8" s="51">
         <v>41497</v>
       </c>
-      <c r="H8" s="88" t="s">
+      <c r="H8" s="74" t="s">
         <v>69</v>
       </c>
       <c r="I8" s="22" t="s">
@@ -1859,7 +1859,7 @@
       <c r="B9" s="37">
         <v>5</v>
       </c>
-      <c r="C9" s="60"/>
+      <c r="C9" s="90"/>
       <c r="D9" s="38" t="s">
         <v>28</v>
       </c>
@@ -1872,7 +1872,7 @@
       <c r="G9" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="88" t="s">
+      <c r="H9" s="74" t="s">
         <v>16</v>
       </c>
       <c r="I9" s="22" t="s">
@@ -1883,7 +1883,7 @@
       <c r="B10" s="37">
         <v>6</v>
       </c>
-      <c r="C10" s="60"/>
+      <c r="C10" s="90"/>
       <c r="D10" s="38" t="s">
         <v>29</v>
       </c>
@@ -1896,7 +1896,7 @@
       <c r="G10" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="H10" s="88" t="s">
+      <c r="H10" s="74" t="s">
         <v>70</v>
       </c>
       <c r="I10" s="22" t="s">
@@ -1907,7 +1907,7 @@
       <c r="B11" s="37">
         <v>7</v>
       </c>
-      <c r="C11" s="60"/>
+      <c r="C11" s="90"/>
       <c r="D11" s="38" t="s">
         <v>30</v>
       </c>
@@ -1920,7 +1920,7 @@
       <c r="G11" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="88" t="s">
+      <c r="H11" s="74" t="s">
         <v>71</v>
       </c>
       <c r="I11" s="22" t="s">
@@ -1931,7 +1931,7 @@
       <c r="B12" s="37">
         <v>8</v>
       </c>
-      <c r="C12" s="60"/>
+      <c r="C12" s="90"/>
       <c r="D12" s="38" t="s">
         <v>31</v>
       </c>
@@ -1944,7 +1944,7 @@
       <c r="G12" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="88" t="s">
+      <c r="H12" s="74" t="s">
         <v>73</v>
       </c>
       <c r="I12" s="22" t="s">
@@ -1955,7 +1955,7 @@
       <c r="B13" s="37">
         <v>9</v>
       </c>
-      <c r="C13" s="60"/>
+      <c r="C13" s="90"/>
       <c r="D13" s="38" t="s">
         <v>32</v>
       </c>
@@ -1968,7 +1968,7 @@
       <c r="G13" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="88" t="s">
+      <c r="H13" s="74" t="s">
         <v>78</v>
       </c>
       <c r="I13" s="22" t="s">
@@ -1979,7 +1979,7 @@
       <c r="B14" s="37">
         <v>10</v>
       </c>
-      <c r="C14" s="60"/>
+      <c r="C14" s="90"/>
       <c r="D14" s="38" t="s">
         <v>66</v>
       </c>
@@ -1992,7 +1992,7 @@
       <c r="G14" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="88" t="s">
+      <c r="H14" s="74" t="s">
         <v>72</v>
       </c>
       <c r="I14" s="22" t="s">
@@ -2003,7 +2003,7 @@
       <c r="B15" s="37">
         <v>11</v>
       </c>
-      <c r="C15" s="60"/>
+      <c r="C15" s="90"/>
       <c r="D15" s="38" t="s">
         <v>67</v>
       </c>
@@ -2016,7 +2016,7 @@
       <c r="G15" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="88" t="s">
+      <c r="H15" s="74" t="s">
         <v>73</v>
       </c>
       <c r="I15" s="22" t="s">
@@ -2027,7 +2027,7 @@
       <c r="B16" s="40">
         <v>12</v>
       </c>
-      <c r="C16" s="61"/>
+      <c r="C16" s="91"/>
       <c r="D16" s="41" t="s">
         <v>68</v>
       </c>
@@ -2040,7 +2040,7 @@
       <c r="G16" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="H16" s="89" t="s">
+      <c r="H16" s="75" t="s">
         <v>73</v>
       </c>
       <c r="I16" s="22" t="s">
@@ -2051,7 +2051,7 @@
       <c r="B17" s="20">
         <v>13</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="92" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="21" t="s">
@@ -2066,7 +2066,7 @@
       <c r="G17" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="90" t="s">
+      <c r="H17" s="76" t="s">
         <v>72</v>
       </c>
       <c r="I17" s="22" t="s">
@@ -2077,7 +2077,7 @@
       <c r="B18" s="23">
         <v>14</v>
       </c>
-      <c r="C18" s="63"/>
+      <c r="C18" s="93"/>
       <c r="D18" s="14" t="s">
         <v>35</v>
       </c>
@@ -2090,7 +2090,7 @@
       <c r="G18" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="90" t="s">
+      <c r="H18" s="76" t="s">
         <v>69</v>
       </c>
       <c r="I18" s="22" t="s">
@@ -2101,7 +2101,7 @@
       <c r="B19" s="23">
         <v>15</v>
       </c>
-      <c r="C19" s="63"/>
+      <c r="C19" s="93"/>
       <c r="D19" s="14" t="s">
         <v>36</v>
       </c>
@@ -2114,7 +2114,7 @@
       <c r="G19" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="H19" s="90" t="s">
+      <c r="H19" s="76" t="s">
         <v>69</v>
       </c>
       <c r="I19" s="22" t="s">
@@ -2125,7 +2125,7 @@
       <c r="B20" s="23">
         <v>16</v>
       </c>
-      <c r="C20" s="63"/>
+      <c r="C20" s="93"/>
       <c r="D20" s="14" t="s">
         <v>37</v>
       </c>
@@ -2138,7 +2138,7 @@
       <c r="G20" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="90" t="s">
+      <c r="H20" s="76" t="s">
         <v>72</v>
       </c>
       <c r="I20" s="22" t="s">
@@ -2149,7 +2149,7 @@
       <c r="B21" s="23">
         <v>17</v>
       </c>
-      <c r="C21" s="63"/>
+      <c r="C21" s="93"/>
       <c r="D21" s="14" t="s">
         <v>38</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>95</v>
       </c>
       <c r="G21" s="17"/>
-      <c r="H21" s="90" t="s">
+      <c r="H21" s="76" t="s">
         <v>72</v>
       </c>
       <c r="I21" s="24"/>
@@ -2169,7 +2169,7 @@
       <c r="B22" s="23">
         <v>18</v>
       </c>
-      <c r="C22" s="63"/>
+      <c r="C22" s="93"/>
       <c r="D22" s="14" t="s">
         <v>39</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>95</v>
       </c>
       <c r="G22" s="17"/>
-      <c r="H22" s="90" t="s">
+      <c r="H22" s="76" t="s">
         <v>72</v>
       </c>
       <c r="I22" s="24"/>
@@ -2189,7 +2189,7 @@
       <c r="B23" s="23">
         <v>19</v>
       </c>
-      <c r="C23" s="63"/>
+      <c r="C23" s="93"/>
       <c r="D23" s="14" t="s">
         <v>41</v>
       </c>
@@ -2200,10 +2200,10 @@
         <v>90</v>
       </c>
       <c r="G23" s="17"/>
-      <c r="H23" s="90" t="s">
+      <c r="H23" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="I23" s="99" t="s">
+      <c r="I23" s="85" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       <c r="B24" s="23">
         <v>20</v>
       </c>
-      <c r="C24" s="63"/>
+      <c r="C24" s="93"/>
       <c r="D24" s="14" t="s">
         <v>96</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>41376</v>
       </c>
       <c r="G24" s="17"/>
-      <c r="H24" s="90" t="s">
+      <c r="H24" s="76" t="s">
         <v>69</v>
       </c>
       <c r="I24" s="24"/>
@@ -2231,7 +2231,7 @@
       <c r="B25" s="23">
         <v>21</v>
       </c>
-      <c r="C25" s="63"/>
+      <c r="C25" s="93"/>
       <c r="D25" s="14" t="s">
         <v>43</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>41376</v>
       </c>
       <c r="G25" s="17"/>
-      <c r="H25" s="90" t="s">
+      <c r="H25" s="76" t="s">
         <v>69</v>
       </c>
       <c r="I25" s="24"/>
@@ -2251,7 +2251,7 @@
       <c r="B26" s="23">
         <v>22</v>
       </c>
-      <c r="C26" s="63"/>
+      <c r="C26" s="93"/>
       <c r="D26" s="14" t="s">
         <v>44</v>
       </c>
@@ -2259,10 +2259,10 @@
         <v>75</v>
       </c>
       <c r="F26" s="30">
-        <v>41377</v>
+        <v>41376</v>
       </c>
       <c r="G26" s="17"/>
-      <c r="H26" s="90" t="s">
+      <c r="H26" s="76" t="s">
         <v>69</v>
       </c>
       <c r="I26" s="24"/>
@@ -2271,7 +2271,7 @@
       <c r="B27" s="23">
         <v>23</v>
       </c>
-      <c r="C27" s="63"/>
+      <c r="C27" s="93"/>
       <c r="D27" s="14" t="s">
         <v>45</v>
       </c>
@@ -2279,10 +2279,10 @@
         <v>41406</v>
       </c>
       <c r="F27" s="30">
-        <v>41437</v>
+        <v>41590</v>
       </c>
       <c r="G27" s="17"/>
-      <c r="H27" s="90" t="s">
+      <c r="H27" s="76" t="s">
         <v>69</v>
       </c>
       <c r="I27" s="24"/>
@@ -2291,7 +2291,7 @@
       <c r="B28" s="23">
         <v>24</v>
       </c>
-      <c r="C28" s="63"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="14" t="s">
         <v>46</v>
       </c>
@@ -2299,10 +2299,10 @@
         <v>41406</v>
       </c>
       <c r="F28" s="30">
-        <v>41437</v>
+        <v>41590</v>
       </c>
       <c r="G28" s="17"/>
-      <c r="H28" s="90" t="s">
+      <c r="H28" s="76" t="s">
         <v>69</v>
       </c>
       <c r="I28" s="24"/>
@@ -2311,7 +2311,7 @@
       <c r="B29" s="23">
         <v>25</v>
       </c>
-      <c r="C29" s="63"/>
+      <c r="C29" s="93"/>
       <c r="D29" s="14" t="s">
         <v>47</v>
       </c>
@@ -2319,10 +2319,10 @@
         <v>41406</v>
       </c>
       <c r="F29" s="30">
-        <v>41437</v>
+        <v>41590</v>
       </c>
       <c r="G29" s="17"/>
-      <c r="H29" s="90" t="s">
+      <c r="H29" s="76" t="s">
         <v>69</v>
       </c>
       <c r="I29" s="24"/>
@@ -2331,7 +2331,7 @@
       <c r="B30" s="23">
         <v>26</v>
       </c>
-      <c r="C30" s="63"/>
+      <c r="C30" s="93"/>
       <c r="D30" s="14" t="s">
         <v>48</v>
       </c>
@@ -2339,10 +2339,10 @@
         <v>41406</v>
       </c>
       <c r="F30" s="30">
-        <v>41437</v>
+        <v>41590</v>
       </c>
       <c r="G30" s="17"/>
-      <c r="H30" s="90" t="s">
+      <c r="H30" s="76" t="s">
         <v>69</v>
       </c>
       <c r="I30" s="24"/>
@@ -2351,7 +2351,7 @@
       <c r="B31" s="23">
         <v>27</v>
       </c>
-      <c r="C31" s="63"/>
+      <c r="C31" s="93"/>
       <c r="D31" s="14" t="s">
         <v>42</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>41620</v>
       </c>
       <c r="G31" s="17"/>
-      <c r="H31" s="90" t="s">
+      <c r="H31" s="76" t="s">
         <v>69</v>
       </c>
       <c r="I31" s="24"/>
@@ -2371,14 +2371,14 @@
       <c r="B32" s="23">
         <v>28</v>
       </c>
-      <c r="C32" s="63"/>
+      <c r="C32" s="93"/>
       <c r="D32" s="52" t="s">
         <v>49</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="90" t="s">
+      <c r="H32" s="76" t="s">
         <v>69</v>
       </c>
       <c r="I32" s="24"/>
@@ -2387,14 +2387,14 @@
       <c r="B33" s="23">
         <v>29</v>
       </c>
-      <c r="C33" s="63"/>
+      <c r="C33" s="93"/>
       <c r="D33" s="52" t="s">
         <v>50</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="90" t="s">
+      <c r="H33" s="76" t="s">
         <v>69</v>
       </c>
       <c r="I33" s="24"/>
@@ -2403,14 +2403,14 @@
       <c r="B34" s="23">
         <v>30</v>
       </c>
-      <c r="C34" s="63"/>
+      <c r="C34" s="93"/>
       <c r="D34" s="52" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
-      <c r="H34" s="90" t="s">
+      <c r="H34" s="76" t="s">
         <v>69</v>
       </c>
       <c r="I34" s="24"/>
@@ -2419,14 +2419,14 @@
       <c r="B35" s="23">
         <v>31</v>
       </c>
-      <c r="C35" s="63"/>
+      <c r="C35" s="93"/>
       <c r="D35" s="52" t="s">
         <v>52</v>
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
-      <c r="H35" s="90" t="s">
+      <c r="H35" s="76" t="s">
         <v>69</v>
       </c>
       <c r="I35" s="24"/>
@@ -2435,7 +2435,7 @@
       <c r="B36" s="23">
         <v>32</v>
       </c>
-      <c r="C36" s="64"/>
+      <c r="C36" s="94"/>
       <c r="D36" s="26" t="s">
         <v>53</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>83</v>
       </c>
       <c r="G36" s="32"/>
-      <c r="H36" s="90" t="s">
+      <c r="H36" s="76" t="s">
         <v>69</v>
       </c>
       <c r="I36" s="27"/>
@@ -2455,13 +2455,13 @@
       <c r="B37" s="23">
         <v>33</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="89" t="s">
         <v>54</v>
       </c>
       <c r="D37" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="84" t="s">
+      <c r="E37" s="70" t="s">
         <v>82</v>
       </c>
       <c r="F37" s="36" t="s">
@@ -2470,7 +2470,7 @@
       <c r="G37" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="H37" s="87" t="s">
+      <c r="H37" s="73" t="s">
         <v>78</v>
       </c>
       <c r="I37" s="43"/>
@@ -2479,28 +2479,28 @@
       <c r="B38" s="23">
         <v>34</v>
       </c>
-      <c r="C38" s="60"/>
+      <c r="C38" s="90"/>
       <c r="D38" s="38" t="s">
         <v>86</v>
       </c>
       <c r="E38" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="F38" s="82" t="s">
+      <c r="F38" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="G38" s="82"/>
-      <c r="H38" s="91" t="s">
+      <c r="G38" s="68"/>
+      <c r="H38" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="I38" s="83"/>
+      <c r="I38" s="69"/>
     </row>
     <row r="39" spans="2:10" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B39" s="23">
         <v>35</v>
       </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="81" t="s">
+      <c r="C39" s="90"/>
+      <c r="D39" s="67" t="s">
         <v>57</v>
       </c>
       <c r="E39" s="51">
@@ -2510,14 +2510,14 @@
         <v>41365</v>
       </c>
       <c r="G39" s="39"/>
-      <c r="H39" s="88"/>
+      <c r="H39" s="74"/>
       <c r="I39" s="44"/>
     </row>
     <row r="40" spans="2:10" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B40" s="23">
         <v>36</v>
       </c>
-      <c r="C40" s="60"/>
+      <c r="C40" s="90"/>
       <c r="D40" s="38" t="s">
         <v>58</v>
       </c>
@@ -2528,14 +2528,14 @@
         <v>41365</v>
       </c>
       <c r="G40" s="39"/>
-      <c r="H40" s="88"/>
+      <c r="H40" s="74"/>
       <c r="I40" s="44"/>
     </row>
     <row r="41" spans="2:10" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B41" s="23">
         <v>37</v>
       </c>
-      <c r="C41" s="60"/>
+      <c r="C41" s="90"/>
       <c r="D41" s="38" t="s">
         <v>59</v>
       </c>
@@ -2546,14 +2546,14 @@
         <v>41365</v>
       </c>
       <c r="G41" s="39"/>
-      <c r="H41" s="88"/>
+      <c r="H41" s="74"/>
       <c r="I41" s="44"/>
     </row>
     <row r="42" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="23">
         <v>38</v>
       </c>
-      <c r="C42" s="60"/>
+      <c r="C42" s="90"/>
       <c r="D42" s="38" t="s">
         <v>87</v>
       </c>
@@ -2564,14 +2564,14 @@
         <v>41518</v>
       </c>
       <c r="G42" s="39"/>
-      <c r="H42" s="88"/>
+      <c r="H42" s="74"/>
       <c r="I42" s="44"/>
     </row>
     <row r="43" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="23">
         <v>39</v>
       </c>
-      <c r="C43" s="60"/>
+      <c r="C43" s="90"/>
       <c r="D43" s="38" t="s">
         <v>88</v>
       </c>
@@ -2582,32 +2582,32 @@
         <v>41518</v>
       </c>
       <c r="G43" s="39"/>
-      <c r="H43" s="88"/>
+      <c r="H43" s="74"/>
       <c r="I43" s="44"/>
     </row>
     <row r="44" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="23">
         <v>40</v>
       </c>
-      <c r="C44" s="69"/>
+      <c r="C44" s="98"/>
       <c r="D44" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="E44" s="85">
+      <c r="E44" s="71">
         <v>41913</v>
       </c>
-      <c r="F44" s="85">
+      <c r="F44" s="71">
         <v>41944</v>
       </c>
       <c r="G44" s="54"/>
-      <c r="H44" s="88"/>
+      <c r="H44" s="74"/>
       <c r="I44" s="55"/>
     </row>
     <row r="45" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="23">
         <v>41</v>
       </c>
-      <c r="C45" s="69"/>
+      <c r="C45" s="98"/>
       <c r="D45" s="38" t="s">
         <v>55</v>
       </c>
@@ -2618,17 +2618,17 @@
         <v>97</v>
       </c>
       <c r="G45" s="39"/>
-      <c r="H45" s="91" t="s">
+      <c r="H45" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="I45" s="71"/>
-      <c r="J45" s="72"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="58"/>
     </row>
     <row r="46" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="23">
         <v>42</v>
       </c>
-      <c r="C46" s="69"/>
+      <c r="C46" s="98"/>
       <c r="D46" s="53" t="s">
         <v>56</v>
       </c>
@@ -2639,17 +2639,17 @@
         <v>99</v>
       </c>
       <c r="G46" s="39"/>
-      <c r="H46" s="91" t="s">
+      <c r="H46" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="I46" s="71"/>
-      <c r="J46" s="72"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="58"/>
     </row>
     <row r="47" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="23">
         <v>43</v>
       </c>
-      <c r="C47" s="70"/>
+      <c r="C47" s="99"/>
       <c r="D47" s="38" t="s">
         <v>60</v>
       </c>
@@ -2660,17 +2660,17 @@
         <v>101</v>
       </c>
       <c r="G47" s="54"/>
-      <c r="H47" s="89" t="s">
+      <c r="H47" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="I47" s="73"/>
-      <c r="J47" s="72"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="58"/>
     </row>
     <row r="48" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="23">
         <v>44</v>
       </c>
-      <c r="C48" s="62" t="s">
+      <c r="C48" s="92" t="s">
         <v>102</v>
       </c>
       <c r="D48" s="21" t="s">
@@ -2681,345 +2681,345 @@
       </c>
       <c r="F48" s="31"/>
       <c r="G48" s="31"/>
-      <c r="H48" s="92"/>
+      <c r="H48" s="78"/>
       <c r="I48" s="28"/>
     </row>
     <row r="49" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="23">
         <v>45</v>
       </c>
-      <c r="C49" s="63"/>
+      <c r="C49" s="93"/>
       <c r="D49" s="14" t="s">
         <v>62</v>
       </c>
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
-      <c r="H49" s="90"/>
+      <c r="H49" s="76"/>
       <c r="I49" s="24"/>
     </row>
     <row r="50" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="23">
         <v>46</v>
       </c>
-      <c r="C50" s="63"/>
+      <c r="C50" s="93"/>
       <c r="D50" s="14" t="s">
         <v>104</v>
       </c>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
-      <c r="H50" s="90"/>
+      <c r="H50" s="76"/>
       <c r="I50" s="24"/>
     </row>
     <row r="51" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="23">
         <v>47</v>
       </c>
-      <c r="C51" s="63"/>
+      <c r="C51" s="93"/>
       <c r="D51" s="14" t="s">
         <v>63</v>
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
-      <c r="H51" s="90"/>
+      <c r="H51" s="76"/>
       <c r="I51" s="24"/>
     </row>
     <row r="52" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="23">
         <v>48</v>
       </c>
-      <c r="C52" s="63"/>
+      <c r="C52" s="93"/>
       <c r="D52" s="14" t="s">
         <v>89</v>
       </c>
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
-      <c r="H52" s="90"/>
+      <c r="H52" s="76"/>
       <c r="I52" s="24"/>
     </row>
     <row r="53" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="23">
         <v>49</v>
       </c>
-      <c r="C53" s="63"/>
+      <c r="C53" s="93"/>
       <c r="D53" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E53" s="78"/>
-      <c r="F53" s="78"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="64"/>
       <c r="G53" s="17"/>
-      <c r="H53" s="93"/>
-      <c r="I53" s="79"/>
+      <c r="H53" s="79"/>
+      <c r="I53" s="65"/>
     </row>
     <row r="54" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="23">
         <v>50</v>
       </c>
-      <c r="C54" s="63"/>
-      <c r="D54" s="77" t="s">
+      <c r="C54" s="93"/>
+      <c r="D54" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="E54" s="80"/>
+      <c r="E54" s="66"/>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
-      <c r="H54" s="94"/>
-      <c r="I54" s="79"/>
+      <c r="H54" s="80"/>
+      <c r="I54" s="65"/>
     </row>
     <row r="55" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="23">
         <v>51</v>
       </c>
-      <c r="C55" s="64"/>
+      <c r="C55" s="94"/>
       <c r="D55" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
       <c r="G55" s="32"/>
-      <c r="H55" s="95"/>
+      <c r="H55" s="81"/>
       <c r="I55" s="27"/>
     </row>
     <row r="56" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B56" s="34"/>
-      <c r="C56" s="59"/>
+      <c r="C56" s="89"/>
       <c r="D56" s="35"/>
       <c r="E56" s="36"/>
       <c r="F56" s="36"/>
       <c r="G56" s="36"/>
-      <c r="H56" s="87"/>
+      <c r="H56" s="73"/>
       <c r="I56" s="43"/>
     </row>
     <row r="57" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="37"/>
-      <c r="C57" s="60"/>
+      <c r="C57" s="90"/>
       <c r="D57" s="38"/>
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
       <c r="G57" s="39"/>
-      <c r="H57" s="88"/>
+      <c r="H57" s="74"/>
       <c r="I57" s="44"/>
     </row>
     <row r="58" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B58" s="37"/>
-      <c r="C58" s="60"/>
+      <c r="C58" s="90"/>
       <c r="D58" s="38"/>
       <c r="E58" s="39"/>
       <c r="F58" s="39"/>
       <c r="G58" s="39"/>
-      <c r="H58" s="88"/>
+      <c r="H58" s="74"/>
       <c r="I58" s="44"/>
     </row>
     <row r="59" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B59" s="37"/>
-      <c r="C59" s="60"/>
+      <c r="C59" s="90"/>
       <c r="D59" s="38"/>
       <c r="E59" s="39"/>
       <c r="F59" s="39"/>
       <c r="G59" s="39"/>
-      <c r="H59" s="88"/>
+      <c r="H59" s="74"/>
       <c r="I59" s="44"/>
     </row>
     <row r="60" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B60" s="37"/>
-      <c r="C60" s="60"/>
+      <c r="C60" s="90"/>
       <c r="D60" s="38"/>
       <c r="E60" s="39"/>
       <c r="F60" s="39"/>
       <c r="G60" s="39"/>
-      <c r="H60" s="88"/>
+      <c r="H60" s="74"/>
       <c r="I60" s="44"/>
     </row>
     <row r="61" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B61" s="37"/>
-      <c r="C61" s="60"/>
+      <c r="C61" s="90"/>
       <c r="D61" s="38"/>
       <c r="E61" s="39"/>
       <c r="F61" s="39"/>
       <c r="G61" s="39"/>
-      <c r="H61" s="88"/>
+      <c r="H61" s="74"/>
       <c r="I61" s="44"/>
     </row>
     <row r="62" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B62" s="37"/>
-      <c r="C62" s="60"/>
+      <c r="C62" s="90"/>
       <c r="D62" s="38"/>
       <c r="E62" s="39"/>
       <c r="F62" s="39"/>
       <c r="G62" s="39"/>
-      <c r="H62" s="88"/>
+      <c r="H62" s="74"/>
       <c r="I62" s="44"/>
     </row>
     <row r="63" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63" s="40"/>
-      <c r="C63" s="61"/>
+      <c r="C63" s="91"/>
       <c r="D63" s="41"/>
       <c r="E63" s="42"/>
       <c r="F63" s="42"/>
       <c r="G63" s="42"/>
-      <c r="H63" s="89"/>
+      <c r="H63" s="75"/>
       <c r="I63" s="45"/>
     </row>
     <row r="64" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B64" s="20"/>
-      <c r="C64" s="62"/>
+      <c r="C64" s="92"/>
       <c r="D64" s="21"/>
       <c r="E64" s="31"/>
       <c r="F64" s="31"/>
       <c r="G64" s="31"/>
-      <c r="H64" s="96"/>
+      <c r="H64" s="82"/>
       <c r="I64" s="28"/>
     </row>
     <row r="65" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B65" s="23"/>
-      <c r="C65" s="63"/>
+      <c r="C65" s="93"/>
       <c r="D65" s="14"/>
       <c r="E65" s="17"/>
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
-      <c r="H65" s="90"/>
+      <c r="H65" s="76"/>
       <c r="I65" s="24"/>
     </row>
     <row r="66" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B66" s="23"/>
-      <c r="C66" s="63"/>
+      <c r="C66" s="93"/>
       <c r="D66" s="14"/>
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
-      <c r="H66" s="90"/>
+      <c r="H66" s="76"/>
       <c r="I66" s="24"/>
     </row>
     <row r="67" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B67" s="23"/>
-      <c r="C67" s="63"/>
+      <c r="C67" s="93"/>
       <c r="D67" s="14"/>
       <c r="E67" s="17"/>
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
-      <c r="H67" s="90"/>
+      <c r="H67" s="76"/>
       <c r="I67" s="24"/>
     </row>
     <row r="68" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B68" s="23"/>
-      <c r="C68" s="63"/>
+      <c r="C68" s="93"/>
       <c r="D68" s="14"/>
       <c r="E68" s="17"/>
       <c r="F68" s="17"/>
       <c r="G68" s="17"/>
-      <c r="H68" s="90"/>
+      <c r="H68" s="76"/>
       <c r="I68" s="24"/>
     </row>
     <row r="69" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B69" s="23"/>
-      <c r="C69" s="63"/>
+      <c r="C69" s="93"/>
       <c r="D69" s="14"/>
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
       <c r="G69" s="17"/>
-      <c r="H69" s="90"/>
+      <c r="H69" s="76"/>
       <c r="I69" s="24"/>
     </row>
     <row r="70" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B70" s="23"/>
-      <c r="C70" s="63"/>
+      <c r="C70" s="93"/>
       <c r="D70" s="14"/>
       <c r="E70" s="17"/>
       <c r="F70" s="17"/>
       <c r="G70" s="17"/>
-      <c r="H70" s="90"/>
+      <c r="H70" s="76"/>
       <c r="I70" s="24"/>
     </row>
     <row r="71" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B71" s="25"/>
-      <c r="C71" s="64"/>
+      <c r="C71" s="94"/>
       <c r="D71" s="26"/>
       <c r="E71" s="32"/>
       <c r="F71" s="32"/>
       <c r="G71" s="32"/>
-      <c r="H71" s="95"/>
+      <c r="H71" s="81"/>
       <c r="I71" s="27"/>
     </row>
     <row r="72" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B72" s="34"/>
-      <c r="C72" s="59"/>
+      <c r="C72" s="89"/>
       <c r="D72" s="35"/>
       <c r="E72" s="36"/>
       <c r="F72" s="36"/>
       <c r="G72" s="36"/>
-      <c r="H72" s="87"/>
+      <c r="H72" s="73"/>
       <c r="I72" s="43"/>
     </row>
     <row r="73" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B73" s="37"/>
-      <c r="C73" s="60"/>
+      <c r="C73" s="90"/>
       <c r="D73" s="38"/>
       <c r="E73" s="39"/>
       <c r="F73" s="39"/>
       <c r="G73" s="39"/>
-      <c r="H73" s="88"/>
+      <c r="H73" s="74"/>
       <c r="I73" s="44"/>
     </row>
     <row r="74" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B74" s="37"/>
-      <c r="C74" s="60"/>
+      <c r="C74" s="90"/>
       <c r="D74" s="38"/>
       <c r="E74" s="39"/>
       <c r="F74" s="39"/>
       <c r="G74" s="39"/>
-      <c r="H74" s="88"/>
+      <c r="H74" s="74"/>
       <c r="I74" s="44"/>
     </row>
     <row r="75" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B75" s="37"/>
-      <c r="C75" s="60"/>
+      <c r="C75" s="90"/>
       <c r="D75" s="38"/>
       <c r="E75" s="39"/>
       <c r="F75" s="39"/>
       <c r="G75" s="39"/>
-      <c r="H75" s="88"/>
+      <c r="H75" s="74"/>
       <c r="I75" s="44"/>
     </row>
     <row r="76" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B76" s="37"/>
-      <c r="C76" s="60"/>
+      <c r="C76" s="90"/>
       <c r="D76" s="38"/>
       <c r="E76" s="39"/>
       <c r="F76" s="39"/>
       <c r="G76" s="39"/>
-      <c r="H76" s="88"/>
+      <c r="H76" s="74"/>
       <c r="I76" s="44"/>
     </row>
     <row r="77" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B77" s="37"/>
-      <c r="C77" s="60"/>
+      <c r="C77" s="90"/>
       <c r="D77" s="38"/>
       <c r="E77" s="39"/>
       <c r="F77" s="39"/>
       <c r="G77" s="39"/>
-      <c r="H77" s="88"/>
+      <c r="H77" s="74"/>
       <c r="I77" s="44"/>
     </row>
     <row r="78" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B78" s="37"/>
-      <c r="C78" s="60"/>
+      <c r="C78" s="90"/>
       <c r="D78" s="38"/>
       <c r="E78" s="39"/>
       <c r="F78" s="39"/>
       <c r="G78" s="39"/>
-      <c r="H78" s="88"/>
+      <c r="H78" s="74"/>
       <c r="I78" s="44"/>
     </row>
     <row r="79" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B79" s="40"/>
-      <c r="C79" s="61"/>
+      <c r="C79" s="91"/>
       <c r="D79" s="41"/>
       <c r="E79" s="42"/>
       <c r="F79" s="42"/>
       <c r="G79" s="42"/>
-      <c r="H79" s="89"/>
+      <c r="H79" s="75"/>
       <c r="I79" s="45"/>
     </row>
     <row r="80" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3029,7 +3029,7 @@
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
-      <c r="H80" s="92"/>
+      <c r="H80" s="78"/>
       <c r="I80" s="19"/>
     </row>
     <row r="81" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3039,7 +3039,7 @@
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="17"/>
-      <c r="H81" s="90"/>
+      <c r="H81" s="76"/>
       <c r="I81" s="17"/>
     </row>
     <row r="82" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3049,7 +3049,7 @@
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="17"/>
-      <c r="H82" s="90"/>
+      <c r="H82" s="76"/>
       <c r="I82" s="17"/>
     </row>
     <row r="83" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3059,7 +3059,7 @@
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="17"/>
-      <c r="H83" s="90"/>
+      <c r="H83" s="76"/>
       <c r="I83" s="17"/>
     </row>
     <row r="84" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3069,7 +3069,7 @@
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="17"/>
-      <c r="H84" s="90"/>
+      <c r="H84" s="76"/>
       <c r="I84" s="17"/>
     </row>
     <row r="85" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3079,7 +3079,7 @@
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17"/>
-      <c r="H85" s="90"/>
+      <c r="H85" s="76"/>
       <c r="I85" s="17"/>
     </row>
     <row r="86" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3089,7 +3089,7 @@
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="17"/>
-      <c r="H86" s="90"/>
+      <c r="H86" s="76"/>
       <c r="I86" s="17"/>
     </row>
     <row r="87" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3099,7 +3099,7 @@
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="17"/>
-      <c r="H87" s="90"/>
+      <c r="H87" s="76"/>
       <c r="I87" s="17"/>
     </row>
     <row r="88" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3109,7 +3109,7 @@
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="17"/>
-      <c r="H88" s="90"/>
+      <c r="H88" s="76"/>
       <c r="I88" s="17"/>
     </row>
     <row r="89" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3119,7 +3119,7 @@
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="17"/>
-      <c r="H89" s="90"/>
+      <c r="H89" s="76"/>
       <c r="I89" s="17"/>
     </row>
     <row r="90" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3129,7 +3129,7 @@
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="17"/>
-      <c r="H90" s="90"/>
+      <c r="H90" s="76"/>
       <c r="I90" s="17"/>
     </row>
     <row r="91" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3139,7 +3139,7 @@
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
       <c r="G91" s="17"/>
-      <c r="H91" s="90"/>
+      <c r="H91" s="76"/>
       <c r="I91" s="17"/>
     </row>
     <row r="92" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3149,7 +3149,7 @@
       <c r="E92" s="17"/>
       <c r="F92" s="17"/>
       <c r="G92" s="17"/>
-      <c r="H92" s="90"/>
+      <c r="H92" s="76"/>
       <c r="I92" s="17"/>
     </row>
     <row r="93" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3159,7 +3159,7 @@
       <c r="E93" s="17"/>
       <c r="F93" s="17"/>
       <c r="G93" s="17"/>
-      <c r="H93" s="90"/>
+      <c r="H93" s="76"/>
       <c r="I93" s="17"/>
     </row>
     <row r="94" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3169,7 +3169,7 @@
       <c r="E94" s="17"/>
       <c r="F94" s="17"/>
       <c r="G94" s="17"/>
-      <c r="H94" s="90"/>
+      <c r="H94" s="76"/>
       <c r="I94" s="17"/>
     </row>
     <row r="95" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3179,7 +3179,7 @@
       <c r="E95" s="17"/>
       <c r="F95" s="17"/>
       <c r="G95" s="17"/>
-      <c r="H95" s="90"/>
+      <c r="H95" s="76"/>
       <c r="I95" s="17"/>
     </row>
     <row r="96" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3189,7 +3189,7 @@
       <c r="E96" s="17"/>
       <c r="F96" s="17"/>
       <c r="G96" s="17"/>
-      <c r="H96" s="90"/>
+      <c r="H96" s="76"/>
       <c r="I96" s="17"/>
     </row>
     <row r="97" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3199,7 +3199,7 @@
       <c r="E97" s="17"/>
       <c r="F97" s="17"/>
       <c r="G97" s="17"/>
-      <c r="H97" s="90"/>
+      <c r="H97" s="76"/>
       <c r="I97" s="17"/>
     </row>
     <row r="98" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3209,7 +3209,7 @@
       <c r="E98" s="17"/>
       <c r="F98" s="17"/>
       <c r="G98" s="17"/>
-      <c r="H98" s="90"/>
+      <c r="H98" s="76"/>
       <c r="I98" s="17"/>
     </row>
     <row r="99" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3219,7 +3219,7 @@
       <c r="E99" s="17"/>
       <c r="F99" s="17"/>
       <c r="G99" s="17"/>
-      <c r="H99" s="90"/>
+      <c r="H99" s="76"/>
       <c r="I99" s="17"/>
     </row>
     <row r="100" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3229,7 +3229,7 @@
       <c r="E100" s="17"/>
       <c r="F100" s="17"/>
       <c r="G100" s="17"/>
-      <c r="H100" s="90"/>
+      <c r="H100" s="76"/>
       <c r="I100" s="17"/>
     </row>
     <row r="101" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3239,7 +3239,7 @@
       <c r="E101" s="17"/>
       <c r="F101" s="17"/>
       <c r="G101" s="17"/>
-      <c r="H101" s="90"/>
+      <c r="H101" s="76"/>
       <c r="I101" s="14"/>
     </row>
     <row r="102" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3249,7 +3249,7 @@
       <c r="E102" s="17"/>
       <c r="F102" s="17"/>
       <c r="G102" s="17"/>
-      <c r="H102" s="90"/>
+      <c r="H102" s="76"/>
       <c r="I102" s="14"/>
     </row>
     <row r="103" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3259,7 +3259,7 @@
       <c r="E103" s="17"/>
       <c r="F103" s="17"/>
       <c r="G103" s="17"/>
-      <c r="H103" s="90"/>
+      <c r="H103" s="76"/>
       <c r="I103" s="14"/>
     </row>
     <row r="104" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3269,7 +3269,7 @@
       <c r="E104" s="17"/>
       <c r="F104" s="17"/>
       <c r="G104" s="17"/>
-      <c r="H104" s="90"/>
+      <c r="H104" s="76"/>
       <c r="I104" s="14"/>
     </row>
     <row r="105" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3279,7 +3279,7 @@
       <c r="E105" s="17"/>
       <c r="F105" s="17"/>
       <c r="G105" s="17"/>
-      <c r="H105" s="90"/>
+      <c r="H105" s="76"/>
       <c r="I105" s="14"/>
     </row>
     <row r="106" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3289,7 +3289,7 @@
       <c r="E106" s="17"/>
       <c r="F106" s="17"/>
       <c r="G106" s="17"/>
-      <c r="H106" s="90"/>
+      <c r="H106" s="76"/>
       <c r="I106" s="14"/>
     </row>
     <row r="107" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3299,7 +3299,7 @@
       <c r="E107" s="17"/>
       <c r="F107" s="17"/>
       <c r="G107" s="17"/>
-      <c r="H107" s="90"/>
+      <c r="H107" s="76"/>
       <c r="I107" s="14"/>
     </row>
     <row r="108" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3309,7 +3309,7 @@
       <c r="E108" s="17"/>
       <c r="F108" s="17"/>
       <c r="G108" s="17"/>
-      <c r="H108" s="90"/>
+      <c r="H108" s="76"/>
       <c r="I108" s="14"/>
     </row>
     <row r="109" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3319,7 +3319,7 @@
       <c r="E109" s="17"/>
       <c r="F109" s="17"/>
       <c r="G109" s="17"/>
-      <c r="H109" s="90"/>
+      <c r="H109" s="76"/>
       <c r="I109" s="14"/>
     </row>
     <row r="110" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3329,7 +3329,7 @@
       <c r="E110" s="17"/>
       <c r="F110" s="17"/>
       <c r="G110" s="17"/>
-      <c r="H110" s="90"/>
+      <c r="H110" s="76"/>
       <c r="I110" s="14"/>
     </row>
     <row r="111" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3339,7 +3339,7 @@
       <c r="E111" s="17"/>
       <c r="F111" s="17"/>
       <c r="G111" s="17"/>
-      <c r="H111" s="90"/>
+      <c r="H111" s="76"/>
       <c r="I111" s="14"/>
     </row>
     <row r="112" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3349,7 +3349,7 @@
       <c r="E112" s="17"/>
       <c r="F112" s="17"/>
       <c r="G112" s="17"/>
-      <c r="H112" s="90"/>
+      <c r="H112" s="76"/>
       <c r="I112" s="14"/>
     </row>
     <row r="113" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3359,7 +3359,7 @@
       <c r="E113" s="17"/>
       <c r="F113" s="17"/>
       <c r="G113" s="17"/>
-      <c r="H113" s="90"/>
+      <c r="H113" s="76"/>
       <c r="I113" s="14"/>
     </row>
     <row r="114" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3369,7 +3369,7 @@
       <c r="E114" s="17"/>
       <c r="F114" s="17"/>
       <c r="G114" s="17"/>
-      <c r="H114" s="90"/>
+      <c r="H114" s="76"/>
       <c r="I114" s="14"/>
     </row>
     <row r="115" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3379,7 +3379,7 @@
       <c r="E115" s="17"/>
       <c r="F115" s="17"/>
       <c r="G115" s="17"/>
-      <c r="H115" s="90"/>
+      <c r="H115" s="76"/>
       <c r="I115" s="14"/>
     </row>
     <row r="116" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3389,7 +3389,7 @@
       <c r="E116" s="17"/>
       <c r="F116" s="17"/>
       <c r="G116" s="17"/>
-      <c r="H116" s="90"/>
+      <c r="H116" s="76"/>
       <c r="I116" s="14"/>
     </row>
     <row r="117" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3399,7 +3399,7 @@
       <c r="E117" s="17"/>
       <c r="F117" s="14"/>
       <c r="G117" s="17"/>
-      <c r="H117" s="90"/>
+      <c r="H117" s="76"/>
       <c r="I117" s="14"/>
     </row>
     <row r="118" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3409,7 +3409,7 @@
       <c r="E118" s="17"/>
       <c r="F118" s="14"/>
       <c r="G118" s="17"/>
-      <c r="H118" s="90"/>
+      <c r="H118" s="76"/>
       <c r="I118" s="14"/>
     </row>
     <row r="119" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3419,7 +3419,7 @@
       <c r="E119" s="17"/>
       <c r="F119" s="14"/>
       <c r="G119" s="17"/>
-      <c r="H119" s="90"/>
+      <c r="H119" s="76"/>
       <c r="I119" s="14"/>
     </row>
     <row r="120" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3429,7 +3429,7 @@
       <c r="E120" s="17"/>
       <c r="F120" s="14"/>
       <c r="G120" s="17"/>
-      <c r="H120" s="90"/>
+      <c r="H120" s="76"/>
       <c r="I120" s="14"/>
     </row>
     <row r="121" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3439,7 +3439,7 @@
       <c r="E121" s="17"/>
       <c r="F121" s="14"/>
       <c r="G121" s="17"/>
-      <c r="H121" s="90"/>
+      <c r="H121" s="76"/>
       <c r="I121" s="14"/>
     </row>
     <row r="122" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3449,7 +3449,7 @@
       <c r="E122" s="17"/>
       <c r="F122" s="14"/>
       <c r="G122" s="17"/>
-      <c r="H122" s="90"/>
+      <c r="H122" s="76"/>
       <c r="I122" s="14"/>
     </row>
     <row r="123" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3459,7 +3459,7 @@
       <c r="E123" s="17"/>
       <c r="F123" s="14"/>
       <c r="G123" s="17"/>
-      <c r="H123" s="90"/>
+      <c r="H123" s="76"/>
       <c r="I123" s="14"/>
     </row>
     <row r="124" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3469,7 +3469,7 @@
       <c r="E124" s="17"/>
       <c r="F124" s="14"/>
       <c r="G124" s="17"/>
-      <c r="H124" s="90"/>
+      <c r="H124" s="76"/>
       <c r="I124" s="14"/>
     </row>
     <row r="125" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3479,7 +3479,7 @@
       <c r="E125" s="17"/>
       <c r="F125" s="14"/>
       <c r="G125" s="17"/>
-      <c r="H125" s="90"/>
+      <c r="H125" s="76"/>
       <c r="I125" s="14"/>
     </row>
     <row r="126" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3489,7 +3489,7 @@
       <c r="E126" s="17"/>
       <c r="F126" s="14"/>
       <c r="G126" s="17"/>
-      <c r="H126" s="90"/>
+      <c r="H126" s="76"/>
       <c r="I126" s="14"/>
     </row>
     <row r="127" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3499,7 +3499,7 @@
       <c r="E127" s="17"/>
       <c r="F127" s="14"/>
       <c r="G127" s="17"/>
-      <c r="H127" s="90"/>
+      <c r="H127" s="76"/>
       <c r="I127" s="14"/>
     </row>
     <row r="128" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3509,7 +3509,7 @@
       <c r="E128" s="17"/>
       <c r="F128" s="14"/>
       <c r="G128" s="17"/>
-      <c r="H128" s="90"/>
+      <c r="H128" s="76"/>
       <c r="I128" s="14"/>
     </row>
     <row r="129" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3519,7 +3519,7 @@
       <c r="E129" s="17"/>
       <c r="F129" s="14"/>
       <c r="G129" s="17"/>
-      <c r="H129" s="90"/>
+      <c r="H129" s="76"/>
       <c r="I129" s="14"/>
     </row>
     <row r="130" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3529,7 +3529,7 @@
       <c r="E130" s="17"/>
       <c r="F130" s="14"/>
       <c r="G130" s="17"/>
-      <c r="H130" s="90"/>
+      <c r="H130" s="76"/>
       <c r="I130" s="14"/>
     </row>
     <row r="131" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3539,7 +3539,7 @@
       <c r="E131" s="17"/>
       <c r="F131" s="14"/>
       <c r="G131" s="17"/>
-      <c r="H131" s="90"/>
+      <c r="H131" s="76"/>
       <c r="I131" s="14"/>
     </row>
     <row r="132" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3549,7 +3549,7 @@
       <c r="E132" s="17"/>
       <c r="F132" s="14"/>
       <c r="G132" s="17"/>
-      <c r="H132" s="90"/>
+      <c r="H132" s="76"/>
       <c r="I132" s="14"/>
     </row>
     <row r="133" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3559,7 +3559,7 @@
       <c r="E133" s="17"/>
       <c r="F133" s="14"/>
       <c r="G133" s="17"/>
-      <c r="H133" s="90"/>
+      <c r="H133" s="76"/>
       <c r="I133" s="14"/>
     </row>
     <row r="134" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3569,7 +3569,7 @@
       <c r="E134" s="17"/>
       <c r="F134" s="14"/>
       <c r="G134" s="17"/>
-      <c r="H134" s="90"/>
+      <c r="H134" s="76"/>
       <c r="I134" s="14"/>
     </row>
     <row r="135" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3579,7 +3579,7 @@
       <c r="E135" s="17"/>
       <c r="F135" s="14"/>
       <c r="G135" s="17"/>
-      <c r="H135" s="90"/>
+      <c r="H135" s="76"/>
       <c r="I135" s="14"/>
     </row>
     <row r="136" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3589,7 +3589,7 @@
       <c r="E136" s="17"/>
       <c r="F136" s="14"/>
       <c r="G136" s="17"/>
-      <c r="H136" s="90"/>
+      <c r="H136" s="76"/>
       <c r="I136" s="14"/>
     </row>
     <row r="137" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3599,7 +3599,7 @@
       <c r="E137" s="17"/>
       <c r="F137" s="14"/>
       <c r="G137" s="17"/>
-      <c r="H137" s="90"/>
+      <c r="H137" s="76"/>
       <c r="I137" s="14"/>
     </row>
     <row r="138" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3609,7 +3609,7 @@
       <c r="E138" s="17"/>
       <c r="F138" s="14"/>
       <c r="G138" s="17"/>
-      <c r="H138" s="90"/>
+      <c r="H138" s="76"/>
       <c r="I138" s="14"/>
     </row>
     <row r="139" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3619,7 +3619,7 @@
       <c r="E139" s="17"/>
       <c r="F139" s="14"/>
       <c r="G139" s="17"/>
-      <c r="H139" s="90"/>
+      <c r="H139" s="76"/>
       <c r="I139" s="14"/>
     </row>
     <row r="140" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3629,7 +3629,7 @@
       <c r="E140" s="17"/>
       <c r="F140" s="14"/>
       <c r="G140" s="17"/>
-      <c r="H140" s="90"/>
+      <c r="H140" s="76"/>
       <c r="I140" s="14"/>
     </row>
     <row r="141" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3639,7 +3639,7 @@
       <c r="E141" s="17"/>
       <c r="F141" s="14"/>
       <c r="G141" s="17"/>
-      <c r="H141" s="90"/>
+      <c r="H141" s="76"/>
       <c r="I141" s="14"/>
     </row>
     <row r="142" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3649,7 +3649,7 @@
       <c r="E142" s="17"/>
       <c r="F142" s="14"/>
       <c r="G142" s="17"/>
-      <c r="H142" s="90"/>
+      <c r="H142" s="76"/>
       <c r="I142" s="14"/>
     </row>
     <row r="143" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3659,7 +3659,7 @@
       <c r="E143" s="17"/>
       <c r="F143" s="14"/>
       <c r="G143" s="17"/>
-      <c r="H143" s="90"/>
+      <c r="H143" s="76"/>
       <c r="I143" s="14"/>
     </row>
     <row r="144" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3669,7 +3669,7 @@
       <c r="E144" s="17"/>
       <c r="F144" s="14"/>
       <c r="G144" s="17"/>
-      <c r="H144" s="90"/>
+      <c r="H144" s="76"/>
       <c r="I144" s="14"/>
     </row>
     <row r="145" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3679,7 +3679,7 @@
       <c r="E145" s="17"/>
       <c r="F145" s="14"/>
       <c r="G145" s="17"/>
-      <c r="H145" s="90"/>
+      <c r="H145" s="76"/>
       <c r="I145" s="14"/>
     </row>
     <row r="146" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3689,7 +3689,7 @@
       <c r="E146" s="17"/>
       <c r="F146" s="14"/>
       <c r="G146" s="17"/>
-      <c r="H146" s="90"/>
+      <c r="H146" s="76"/>
       <c r="I146" s="14"/>
     </row>
     <row r="147" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3699,7 +3699,7 @@
       <c r="E147" s="17"/>
       <c r="F147" s="14"/>
       <c r="G147" s="17"/>
-      <c r="H147" s="90"/>
+      <c r="H147" s="76"/>
       <c r="I147" s="14"/>
     </row>
     <row r="148" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3709,7 +3709,7 @@
       <c r="E148" s="17"/>
       <c r="F148" s="14"/>
       <c r="G148" s="17"/>
-      <c r="H148" s="90"/>
+      <c r="H148" s="76"/>
       <c r="I148" s="14"/>
     </row>
     <row r="149" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3719,7 +3719,7 @@
       <c r="E149" s="17"/>
       <c r="F149" s="14"/>
       <c r="G149" s="17"/>
-      <c r="H149" s="90"/>
+      <c r="H149" s="76"/>
       <c r="I149" s="14"/>
     </row>
     <row r="150" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3729,7 +3729,7 @@
       <c r="E150" s="17"/>
       <c r="F150" s="14"/>
       <c r="G150" s="17"/>
-      <c r="H150" s="90"/>
+      <c r="H150" s="76"/>
       <c r="I150" s="14"/>
     </row>
     <row r="151" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3739,7 +3739,7 @@
       <c r="E151" s="17"/>
       <c r="F151" s="14"/>
       <c r="G151" s="17"/>
-      <c r="H151" s="90"/>
+      <c r="H151" s="76"/>
       <c r="I151" s="14"/>
     </row>
     <row r="152" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3749,7 +3749,7 @@
       <c r="E152" s="17"/>
       <c r="F152" s="14"/>
       <c r="G152" s="17"/>
-      <c r="H152" s="90"/>
+      <c r="H152" s="76"/>
       <c r="I152" s="14"/>
     </row>
     <row r="153" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3759,7 +3759,7 @@
       <c r="E153" s="17"/>
       <c r="F153" s="14"/>
       <c r="G153" s="17"/>
-      <c r="H153" s="90"/>
+      <c r="H153" s="76"/>
       <c r="I153" s="14"/>
     </row>
     <row r="154" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3769,7 +3769,7 @@
       <c r="E154" s="17"/>
       <c r="F154" s="14"/>
       <c r="G154" s="17"/>
-      <c r="H154" s="90"/>
+      <c r="H154" s="76"/>
       <c r="I154" s="14"/>
     </row>
     <row r="155" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3779,7 +3779,7 @@
       <c r="E155" s="17"/>
       <c r="F155" s="14"/>
       <c r="G155" s="17"/>
-      <c r="H155" s="90"/>
+      <c r="H155" s="76"/>
       <c r="I155" s="14"/>
     </row>
     <row r="156" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3789,7 +3789,7 @@
       <c r="E156" s="17"/>
       <c r="F156" s="14"/>
       <c r="G156" s="17"/>
-      <c r="H156" s="90"/>
+      <c r="H156" s="76"/>
       <c r="I156" s="14"/>
     </row>
     <row r="157" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3799,7 +3799,7 @@
       <c r="E157" s="17"/>
       <c r="F157" s="14"/>
       <c r="G157" s="17"/>
-      <c r="H157" s="90"/>
+      <c r="H157" s="76"/>
       <c r="I157" s="14"/>
     </row>
     <row r="158" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3809,7 +3809,7 @@
       <c r="E158" s="17"/>
       <c r="F158" s="14"/>
       <c r="G158" s="17"/>
-      <c r="H158" s="90"/>
+      <c r="H158" s="76"/>
       <c r="I158" s="14"/>
     </row>
     <row r="159" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3819,7 +3819,7 @@
       <c r="E159" s="17"/>
       <c r="F159" s="14"/>
       <c r="G159" s="17"/>
-      <c r="H159" s="90"/>
+      <c r="H159" s="76"/>
       <c r="I159" s="14"/>
     </row>
     <row r="160" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3829,7 +3829,7 @@
       <c r="E160" s="17"/>
       <c r="F160" s="14"/>
       <c r="G160" s="17"/>
-      <c r="H160" s="90"/>
+      <c r="H160" s="76"/>
       <c r="I160" s="14"/>
     </row>
     <row r="161" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3839,7 +3839,7 @@
       <c r="E161" s="17"/>
       <c r="F161" s="14"/>
       <c r="G161" s="17"/>
-      <c r="H161" s="90"/>
+      <c r="H161" s="76"/>
       <c r="I161" s="14"/>
     </row>
     <row r="162" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3849,7 +3849,7 @@
       <c r="E162" s="17"/>
       <c r="F162" s="14"/>
       <c r="G162" s="17"/>
-      <c r="H162" s="90"/>
+      <c r="H162" s="76"/>
       <c r="I162" s="14"/>
     </row>
     <row r="163" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3859,7 +3859,7 @@
       <c r="E163" s="17"/>
       <c r="F163" s="14"/>
       <c r="G163" s="17"/>
-      <c r="H163" s="90"/>
+      <c r="H163" s="76"/>
       <c r="I163" s="14"/>
     </row>
     <row r="164" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3869,7 +3869,7 @@
       <c r="E164" s="17"/>
       <c r="F164" s="14"/>
       <c r="G164" s="17"/>
-      <c r="H164" s="90"/>
+      <c r="H164" s="76"/>
       <c r="I164" s="14"/>
     </row>
     <row r="165" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3879,7 +3879,7 @@
       <c r="E165" s="17"/>
       <c r="F165" s="14"/>
       <c r="G165" s="17"/>
-      <c r="H165" s="90"/>
+      <c r="H165" s="76"/>
       <c r="I165" s="14"/>
     </row>
     <row r="166" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3889,7 +3889,7 @@
       <c r="E166" s="17"/>
       <c r="F166" s="14"/>
       <c r="G166" s="17"/>
-      <c r="H166" s="90"/>
+      <c r="H166" s="76"/>
       <c r="I166" s="14"/>
     </row>
     <row r="167" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3899,7 +3899,7 @@
       <c r="E167" s="17"/>
       <c r="F167" s="14"/>
       <c r="G167" s="17"/>
-      <c r="H167" s="90"/>
+      <c r="H167" s="76"/>
       <c r="I167" s="14"/>
     </row>
     <row r="168" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3909,7 +3909,7 @@
       <c r="E168" s="17"/>
       <c r="F168" s="14"/>
       <c r="G168" s="17"/>
-      <c r="H168" s="90"/>
+      <c r="H168" s="76"/>
       <c r="I168" s="14"/>
     </row>
     <row r="169" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3919,7 +3919,7 @@
       <c r="E169" s="17"/>
       <c r="F169" s="14"/>
       <c r="G169" s="17"/>
-      <c r="H169" s="90"/>
+      <c r="H169" s="76"/>
       <c r="I169" s="14"/>
     </row>
     <row r="170" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3929,7 +3929,7 @@
       <c r="E170" s="17"/>
       <c r="F170" s="14"/>
       <c r="G170" s="17"/>
-      <c r="H170" s="90"/>
+      <c r="H170" s="76"/>
       <c r="I170" s="14"/>
     </row>
     <row r="171" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3939,7 +3939,7 @@
       <c r="E171" s="17"/>
       <c r="F171" s="14"/>
       <c r="G171" s="17"/>
-      <c r="H171" s="90"/>
+      <c r="H171" s="76"/>
       <c r="I171" s="14"/>
     </row>
     <row r="172" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3949,7 +3949,7 @@
       <c r="E172" s="17"/>
       <c r="F172" s="14"/>
       <c r="G172" s="17"/>
-      <c r="H172" s="90"/>
+      <c r="H172" s="76"/>
       <c r="I172" s="14"/>
     </row>
     <row r="173" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3959,7 +3959,7 @@
       <c r="E173" s="17"/>
       <c r="F173" s="14"/>
       <c r="G173" s="17"/>
-      <c r="H173" s="90"/>
+      <c r="H173" s="76"/>
       <c r="I173" s="14"/>
     </row>
     <row r="174" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3969,7 +3969,7 @@
       <c r="E174" s="17"/>
       <c r="F174" s="14"/>
       <c r="G174" s="17"/>
-      <c r="H174" s="90"/>
+      <c r="H174" s="76"/>
       <c r="I174" s="14"/>
     </row>
     <row r="175" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3979,7 +3979,7 @@
       <c r="E175" s="17"/>
       <c r="F175" s="14"/>
       <c r="G175" s="17"/>
-      <c r="H175" s="90"/>
+      <c r="H175" s="76"/>
       <c r="I175" s="14"/>
     </row>
     <row r="176" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3989,7 +3989,7 @@
       <c r="E176" s="17"/>
       <c r="F176" s="14"/>
       <c r="G176" s="17"/>
-      <c r="H176" s="90"/>
+      <c r="H176" s="76"/>
       <c r="I176" s="14"/>
     </row>
     <row r="177" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3999,7 +3999,7 @@
       <c r="E177" s="17"/>
       <c r="F177" s="14"/>
       <c r="G177" s="17"/>
-      <c r="H177" s="90"/>
+      <c r="H177" s="76"/>
       <c r="I177" s="14"/>
     </row>
     <row r="178" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4009,7 +4009,7 @@
       <c r="E178" s="17"/>
       <c r="F178" s="14"/>
       <c r="G178" s="17"/>
-      <c r="H178" s="90"/>
+      <c r="H178" s="76"/>
       <c r="I178" s="14"/>
     </row>
     <row r="179" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4019,7 +4019,7 @@
       <c r="E179" s="17"/>
       <c r="F179" s="14"/>
       <c r="G179" s="17"/>
-      <c r="H179" s="90"/>
+      <c r="H179" s="76"/>
       <c r="I179" s="14"/>
     </row>
     <row r="180" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4029,7 +4029,7 @@
       <c r="E180" s="17"/>
       <c r="F180" s="14"/>
       <c r="G180" s="17"/>
-      <c r="H180" s="90"/>
+      <c r="H180" s="76"/>
       <c r="I180" s="14"/>
     </row>
     <row r="181" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4039,7 +4039,7 @@
       <c r="E181" s="17"/>
       <c r="F181" s="14"/>
       <c r="G181" s="17"/>
-      <c r="H181" s="90"/>
+      <c r="H181" s="76"/>
       <c r="I181" s="14"/>
     </row>
     <row r="182" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4049,7 +4049,7 @@
       <c r="E182" s="17"/>
       <c r="F182" s="14"/>
       <c r="G182" s="17"/>
-      <c r="H182" s="90"/>
+      <c r="H182" s="76"/>
       <c r="I182" s="14"/>
     </row>
     <row r="183" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4059,7 +4059,7 @@
       <c r="E183" s="17"/>
       <c r="F183" s="14"/>
       <c r="G183" s="17"/>
-      <c r="H183" s="90"/>
+      <c r="H183" s="76"/>
       <c r="I183" s="14"/>
     </row>
     <row r="184" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4069,7 +4069,7 @@
       <c r="E184" s="17"/>
       <c r="F184" s="14"/>
       <c r="G184" s="17"/>
-      <c r="H184" s="90"/>
+      <c r="H184" s="76"/>
       <c r="I184" s="14"/>
     </row>
     <row r="185" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4079,7 +4079,7 @@
       <c r="E185" s="17"/>
       <c r="F185" s="14"/>
       <c r="G185" s="17"/>
-      <c r="H185" s="90"/>
+      <c r="H185" s="76"/>
       <c r="I185" s="14"/>
     </row>
     <row r="186" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4089,7 +4089,7 @@
       <c r="E186" s="17"/>
       <c r="F186" s="14"/>
       <c r="G186" s="17"/>
-      <c r="H186" s="90"/>
+      <c r="H186" s="76"/>
       <c r="I186" s="14"/>
     </row>
     <row r="187" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4099,7 +4099,7 @@
       <c r="E187" s="17"/>
       <c r="F187" s="14"/>
       <c r="G187" s="17"/>
-      <c r="H187" s="90"/>
+      <c r="H187" s="76"/>
       <c r="I187" s="14"/>
     </row>
     <row r="188" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4109,7 +4109,7 @@
       <c r="E188" s="17"/>
       <c r="F188" s="14"/>
       <c r="G188" s="17"/>
-      <c r="H188" s="90"/>
+      <c r="H188" s="76"/>
       <c r="I188" s="14"/>
     </row>
     <row r="189" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4119,7 +4119,7 @@
       <c r="E189" s="17"/>
       <c r="F189" s="14"/>
       <c r="G189" s="17"/>
-      <c r="H189" s="90"/>
+      <c r="H189" s="76"/>
       <c r="I189" s="14"/>
     </row>
     <row r="190" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4129,7 +4129,7 @@
       <c r="E190" s="17"/>
       <c r="F190" s="14"/>
       <c r="G190" s="17"/>
-      <c r="H190" s="90"/>
+      <c r="H190" s="76"/>
       <c r="I190" s="14"/>
     </row>
     <row r="191" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4139,7 +4139,7 @@
       <c r="E191" s="17"/>
       <c r="F191" s="14"/>
       <c r="G191" s="17"/>
-      <c r="H191" s="90"/>
+      <c r="H191" s="76"/>
       <c r="I191" s="14"/>
     </row>
     <row r="192" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4149,7 +4149,7 @@
       <c r="E192" s="17"/>
       <c r="F192" s="14"/>
       <c r="G192" s="17"/>
-      <c r="H192" s="90"/>
+      <c r="H192" s="76"/>
       <c r="I192" s="14"/>
     </row>
     <row r="193" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4159,7 +4159,7 @@
       <c r="E193" s="17"/>
       <c r="F193" s="14"/>
       <c r="G193" s="17"/>
-      <c r="H193" s="90"/>
+      <c r="H193" s="76"/>
       <c r="I193" s="14"/>
     </row>
     <row r="194" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4169,7 +4169,7 @@
       <c r="E194" s="17"/>
       <c r="F194" s="14"/>
       <c r="G194" s="17"/>
-      <c r="H194" s="90"/>
+      <c r="H194" s="76"/>
       <c r="I194" s="14"/>
     </row>
     <row r="195" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4179,7 +4179,7 @@
       <c r="E195" s="17"/>
       <c r="F195" s="14"/>
       <c r="G195" s="17"/>
-      <c r="H195" s="90"/>
+      <c r="H195" s="76"/>
       <c r="I195" s="14"/>
     </row>
     <row r="196" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4189,7 +4189,7 @@
       <c r="E196" s="17"/>
       <c r="F196" s="14"/>
       <c r="G196" s="17"/>
-      <c r="H196" s="90"/>
+      <c r="H196" s="76"/>
       <c r="I196" s="14"/>
     </row>
     <row r="197" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4199,7 +4199,7 @@
       <c r="E197" s="17"/>
       <c r="F197" s="14"/>
       <c r="G197" s="17"/>
-      <c r="H197" s="90"/>
+      <c r="H197" s="76"/>
       <c r="I197" s="14"/>
     </row>
     <row r="198" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4209,7 +4209,7 @@
       <c r="E198" s="17"/>
       <c r="F198" s="14"/>
       <c r="G198" s="17"/>
-      <c r="H198" s="90"/>
+      <c r="H198" s="76"/>
       <c r="I198" s="14"/>
     </row>
     <row r="199" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4219,7 +4219,7 @@
       <c r="E199" s="17"/>
       <c r="F199" s="14"/>
       <c r="G199" s="17"/>
-      <c r="H199" s="90"/>
+      <c r="H199" s="76"/>
       <c r="I199" s="14"/>
     </row>
     <row r="200" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4229,7 +4229,7 @@
       <c r="E200" s="17"/>
       <c r="F200" s="14"/>
       <c r="G200" s="17"/>
-      <c r="H200" s="90"/>
+      <c r="H200" s="76"/>
       <c r="I200" s="14"/>
     </row>
     <row r="201" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4239,7 +4239,7 @@
       <c r="E201" s="17"/>
       <c r="F201" s="14"/>
       <c r="G201" s="17"/>
-      <c r="H201" s="90"/>
+      <c r="H201" s="76"/>
       <c r="I201" s="14"/>
     </row>
     <row r="202" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4249,7 +4249,7 @@
       <c r="E202" s="17"/>
       <c r="F202" s="14"/>
       <c r="G202" s="17"/>
-      <c r="H202" s="90"/>
+      <c r="H202" s="76"/>
       <c r="I202" s="14"/>
     </row>
     <row r="203" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4259,7 +4259,7 @@
       <c r="E203" s="17"/>
       <c r="F203" s="14"/>
       <c r="G203" s="17"/>
-      <c r="H203" s="90"/>
+      <c r="H203" s="76"/>
       <c r="I203" s="14"/>
     </row>
     <row r="204" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4269,7 +4269,7 @@
       <c r="E204" s="17"/>
       <c r="F204" s="14"/>
       <c r="G204" s="17"/>
-      <c r="H204" s="90"/>
+      <c r="H204" s="76"/>
       <c r="I204" s="14"/>
     </row>
     <row r="205" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4279,7 +4279,7 @@
       <c r="E205" s="17"/>
       <c r="F205" s="14"/>
       <c r="G205" s="17"/>
-      <c r="H205" s="90"/>
+      <c r="H205" s="76"/>
       <c r="I205" s="14"/>
     </row>
     <row r="206" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4289,7 +4289,7 @@
       <c r="E206" s="17"/>
       <c r="F206" s="14"/>
       <c r="G206" s="17"/>
-      <c r="H206" s="90"/>
+      <c r="H206" s="76"/>
       <c r="I206" s="14"/>
     </row>
     <row r="207" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4299,7 +4299,7 @@
       <c r="E207" s="17"/>
       <c r="F207" s="14"/>
       <c r="G207" s="17"/>
-      <c r="H207" s="90"/>
+      <c r="H207" s="76"/>
       <c r="I207" s="14"/>
     </row>
     <row r="208" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4309,7 +4309,7 @@
       <c r="E208" s="17"/>
       <c r="F208" s="14"/>
       <c r="G208" s="17"/>
-      <c r="H208" s="90"/>
+      <c r="H208" s="76"/>
       <c r="I208" s="14"/>
     </row>
     <row r="209" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4319,7 +4319,7 @@
       <c r="E209" s="17"/>
       <c r="F209" s="14"/>
       <c r="G209" s="17"/>
-      <c r="H209" s="90"/>
+      <c r="H209" s="76"/>
       <c r="I209" s="14"/>
     </row>
     <row r="210" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4329,7 +4329,7 @@
       <c r="E210" s="17"/>
       <c r="F210" s="14"/>
       <c r="G210" s="17"/>
-      <c r="H210" s="90"/>
+      <c r="H210" s="76"/>
       <c r="I210" s="14"/>
     </row>
     <row r="211" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4339,7 +4339,7 @@
       <c r="E211" s="17"/>
       <c r="F211" s="14"/>
       <c r="G211" s="17"/>
-      <c r="H211" s="90"/>
+      <c r="H211" s="76"/>
       <c r="I211" s="14"/>
     </row>
     <row r="212" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4349,7 +4349,7 @@
       <c r="E212" s="17"/>
       <c r="F212" s="14"/>
       <c r="G212" s="17"/>
-      <c r="H212" s="90"/>
+      <c r="H212" s="76"/>
       <c r="I212" s="14"/>
     </row>
     <row r="213" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4359,7 +4359,7 @@
       <c r="E213" s="17"/>
       <c r="F213" s="14"/>
       <c r="G213" s="17"/>
-      <c r="H213" s="90"/>
+      <c r="H213" s="76"/>
       <c r="I213" s="14"/>
     </row>
     <row r="214" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4369,7 +4369,7 @@
       <c r="E214" s="17"/>
       <c r="F214" s="14"/>
       <c r="G214" s="17"/>
-      <c r="H214" s="90"/>
+      <c r="H214" s="76"/>
       <c r="I214" s="14"/>
     </row>
     <row r="215" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4379,7 +4379,7 @@
       <c r="E215" s="17"/>
       <c r="F215" s="14"/>
       <c r="G215" s="17"/>
-      <c r="H215" s="90"/>
+      <c r="H215" s="76"/>
       <c r="I215" s="14"/>
     </row>
     <row r="216" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4389,7 +4389,7 @@
       <c r="E216" s="17"/>
       <c r="F216" s="14"/>
       <c r="G216" s="17"/>
-      <c r="H216" s="90"/>
+      <c r="H216" s="76"/>
       <c r="I216" s="14"/>
     </row>
     <row r="217" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4399,7 +4399,7 @@
       <c r="E217" s="17"/>
       <c r="F217" s="14"/>
       <c r="G217" s="17"/>
-      <c r="H217" s="90"/>
+      <c r="H217" s="76"/>
       <c r="I217" s="14"/>
     </row>
     <row r="218" spans="2:9" x14ac:dyDescent="0.25">
@@ -4409,7 +4409,7 @@
       <c r="E218" s="33"/>
       <c r="F218" s="13"/>
       <c r="G218" s="33"/>
-      <c r="H218" s="97"/>
+      <c r="H218" s="83"/>
       <c r="I218" s="13"/>
     </row>
     <row r="219" spans="2:9" x14ac:dyDescent="0.25">
@@ -4419,7 +4419,7 @@
       <c r="E219" s="33"/>
       <c r="F219" s="13"/>
       <c r="G219" s="33"/>
-      <c r="H219" s="97"/>
+      <c r="H219" s="83"/>
       <c r="I219" s="13"/>
     </row>
     <row r="220" spans="2:9" x14ac:dyDescent="0.25">
@@ -4429,7 +4429,7 @@
       <c r="E220" s="33"/>
       <c r="F220" s="13"/>
       <c r="G220" s="33"/>
-      <c r="H220" s="97"/>
+      <c r="H220" s="83"/>
       <c r="I220" s="13"/>
     </row>
     <row r="221" spans="2:9" x14ac:dyDescent="0.25">
@@ -4439,7 +4439,7 @@
       <c r="E221" s="33"/>
       <c r="F221" s="13"/>
       <c r="G221" s="33"/>
-      <c r="H221" s="97"/>
+      <c r="H221" s="83"/>
       <c r="I221" s="13"/>
     </row>
     <row r="222" spans="2:9" x14ac:dyDescent="0.25">
@@ -4449,7 +4449,7 @@
       <c r="E222" s="33"/>
       <c r="F222" s="13"/>
       <c r="G222" s="33"/>
-      <c r="H222" s="97"/>
+      <c r="H222" s="83"/>
       <c r="I222" s="13"/>
     </row>
     <row r="223" spans="2:9" x14ac:dyDescent="0.25">
@@ -4459,7 +4459,7 @@
       <c r="E223" s="33"/>
       <c r="F223" s="13"/>
       <c r="G223" s="33"/>
-      <c r="H223" s="97"/>
+      <c r="H223" s="83"/>
       <c r="I223" s="13"/>
     </row>
     <row r="224" spans="2:9" x14ac:dyDescent="0.25">
@@ -4469,7 +4469,7 @@
       <c r="E224" s="33"/>
       <c r="F224" s="13"/>
       <c r="G224" s="33"/>
-      <c r="H224" s="97"/>
+      <c r="H224" s="83"/>
       <c r="I224" s="13"/>
     </row>
     <row r="225" spans="2:9" x14ac:dyDescent="0.25">
@@ -4479,7 +4479,7 @@
       <c r="E225" s="33"/>
       <c r="F225" s="13"/>
       <c r="G225" s="33"/>
-      <c r="H225" s="97"/>
+      <c r="H225" s="83"/>
       <c r="I225" s="13"/>
     </row>
     <row r="226" spans="2:9" x14ac:dyDescent="0.25">
@@ -4489,7 +4489,7 @@
       <c r="E226" s="33"/>
       <c r="F226" s="13"/>
       <c r="G226" s="33"/>
-      <c r="H226" s="97"/>
+      <c r="H226" s="83"/>
       <c r="I226" s="13"/>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.25">
@@ -4499,7 +4499,7 @@
       <c r="E227" s="33"/>
       <c r="F227" s="13"/>
       <c r="G227" s="33"/>
-      <c r="H227" s="97"/>
+      <c r="H227" s="83"/>
       <c r="I227" s="13"/>
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.25">
@@ -4509,7 +4509,7 @@
       <c r="E228" s="33"/>
       <c r="F228" s="13"/>
       <c r="G228" s="33"/>
-      <c r="H228" s="97"/>
+      <c r="H228" s="83"/>
       <c r="I228" s="13"/>
     </row>
     <row r="229" spans="2:9" x14ac:dyDescent="0.25">
@@ -4519,7 +4519,7 @@
       <c r="E229" s="33"/>
       <c r="F229" s="13"/>
       <c r="G229" s="33"/>
-      <c r="H229" s="97"/>
+      <c r="H229" s="83"/>
       <c r="I229" s="13"/>
     </row>
     <row r="230" spans="2:9" x14ac:dyDescent="0.25">
@@ -4529,7 +4529,7 @@
       <c r="E230" s="33"/>
       <c r="F230" s="13"/>
       <c r="G230" s="33"/>
-      <c r="H230" s="97"/>
+      <c r="H230" s="83"/>
       <c r="I230" s="13"/>
     </row>
     <row r="231" spans="2:9" x14ac:dyDescent="0.25">
@@ -4539,7 +4539,7 @@
       <c r="E231" s="33"/>
       <c r="F231" s="13"/>
       <c r="G231" s="33"/>
-      <c r="H231" s="97"/>
+      <c r="H231" s="83"/>
       <c r="I231" s="13"/>
     </row>
     <row r="232" spans="2:9" x14ac:dyDescent="0.25">
@@ -4549,7 +4549,7 @@
       <c r="E232" s="33"/>
       <c r="F232" s="13"/>
       <c r="G232" s="33"/>
-      <c r="H232" s="97"/>
+      <c r="H232" s="83"/>
       <c r="I232" s="13"/>
     </row>
     <row r="233" spans="2:9" x14ac:dyDescent="0.25">
@@ -4559,7 +4559,7 @@
       <c r="E233" s="33"/>
       <c r="F233" s="13"/>
       <c r="G233" s="33"/>
-      <c r="H233" s="97"/>
+      <c r="H233" s="83"/>
       <c r="I233" s="13"/>
     </row>
     <row r="234" spans="2:9" x14ac:dyDescent="0.25">
@@ -4569,7 +4569,7 @@
       <c r="E234" s="33"/>
       <c r="F234" s="13"/>
       <c r="G234" s="33"/>
-      <c r="H234" s="97"/>
+      <c r="H234" s="83"/>
       <c r="I234" s="13"/>
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.25">
@@ -4579,7 +4579,7 @@
       <c r="E235" s="33"/>
       <c r="F235" s="13"/>
       <c r="G235" s="33"/>
-      <c r="H235" s="97"/>
+      <c r="H235" s="83"/>
       <c r="I235" s="13"/>
     </row>
     <row r="236" spans="2:9" x14ac:dyDescent="0.25">
@@ -4589,7 +4589,7 @@
       <c r="E236" s="33"/>
       <c r="F236" s="13"/>
       <c r="G236" s="33"/>
-      <c r="H236" s="97"/>
+      <c r="H236" s="83"/>
       <c r="I236" s="13"/>
     </row>
     <row r="237" spans="2:9" x14ac:dyDescent="0.25">
@@ -4599,7 +4599,7 @@
       <c r="E237" s="33"/>
       <c r="F237" s="13"/>
       <c r="G237" s="33"/>
-      <c r="H237" s="97"/>
+      <c r="H237" s="83"/>
       <c r="I237" s="13"/>
     </row>
     <row r="238" spans="2:9" x14ac:dyDescent="0.25">
@@ -4609,7 +4609,7 @@
       <c r="E238" s="33"/>
       <c r="F238" s="13"/>
       <c r="G238" s="33"/>
-      <c r="H238" s="97"/>
+      <c r="H238" s="83"/>
       <c r="I238" s="13"/>
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.25">
@@ -4619,7 +4619,7 @@
       <c r="E239" s="33"/>
       <c r="F239" s="13"/>
       <c r="G239" s="33"/>
-      <c r="H239" s="97"/>
+      <c r="H239" s="83"/>
       <c r="I239" s="13"/>
     </row>
     <row r="240" spans="2:9" x14ac:dyDescent="0.25">
@@ -4629,7 +4629,7 @@
       <c r="E240" s="33"/>
       <c r="F240" s="13"/>
       <c r="G240" s="33"/>
-      <c r="H240" s="97"/>
+      <c r="H240" s="83"/>
       <c r="I240" s="13"/>
     </row>
     <row r="241" spans="2:9" x14ac:dyDescent="0.25">
@@ -4639,7 +4639,7 @@
       <c r="E241" s="33"/>
       <c r="F241" s="13"/>
       <c r="G241" s="33"/>
-      <c r="H241" s="97"/>
+      <c r="H241" s="83"/>
       <c r="I241" s="13"/>
     </row>
     <row r="242" spans="2:9" x14ac:dyDescent="0.25">
@@ -4649,7 +4649,7 @@
       <c r="E242" s="33"/>
       <c r="F242" s="13"/>
       <c r="G242" s="33"/>
-      <c r="H242" s="97"/>
+      <c r="H242" s="83"/>
       <c r="I242" s="13"/>
     </row>
     <row r="243" spans="2:9" x14ac:dyDescent="0.25">
@@ -4659,7 +4659,7 @@
       <c r="E243" s="33"/>
       <c r="F243" s="13"/>
       <c r="G243" s="33"/>
-      <c r="H243" s="97"/>
+      <c r="H243" s="83"/>
       <c r="I243" s="13"/>
     </row>
     <row r="244" spans="2:9" x14ac:dyDescent="0.25">
@@ -4669,7 +4669,7 @@
       <c r="E244" s="33"/>
       <c r="F244" s="13"/>
       <c r="G244" s="33"/>
-      <c r="H244" s="97"/>
+      <c r="H244" s="83"/>
       <c r="I244" s="13"/>
     </row>
     <row r="245" spans="2:9" x14ac:dyDescent="0.25">
@@ -4679,7 +4679,7 @@
       <c r="E245" s="33"/>
       <c r="F245" s="13"/>
       <c r="G245" s="33"/>
-      <c r="H245" s="97"/>
+      <c r="H245" s="83"/>
       <c r="I245" s="13"/>
     </row>
     <row r="246" spans="2:9" x14ac:dyDescent="0.25">
@@ -4689,7 +4689,7 @@
       <c r="E246" s="33"/>
       <c r="F246" s="13"/>
       <c r="G246" s="33"/>
-      <c r="H246" s="97"/>
+      <c r="H246" s="83"/>
       <c r="I246" s="13"/>
     </row>
     <row r="247" spans="2:9" x14ac:dyDescent="0.25">
@@ -4699,7 +4699,7 @@
       <c r="E247" s="33"/>
       <c r="F247" s="13"/>
       <c r="G247" s="33"/>
-      <c r="H247" s="97"/>
+      <c r="H247" s="83"/>
       <c r="I247" s="13"/>
     </row>
     <row r="248" spans="2:9" x14ac:dyDescent="0.25">
@@ -4709,7 +4709,7 @@
       <c r="E248" s="33"/>
       <c r="F248" s="13"/>
       <c r="G248" s="33"/>
-      <c r="H248" s="97"/>
+      <c r="H248" s="83"/>
       <c r="I248" s="13"/>
     </row>
     <row r="249" spans="2:9" x14ac:dyDescent="0.25">
@@ -4719,7 +4719,7 @@
       <c r="E249" s="33"/>
       <c r="F249" s="13"/>
       <c r="G249" s="33"/>
-      <c r="H249" s="97"/>
+      <c r="H249" s="83"/>
       <c r="I249" s="13"/>
     </row>
     <row r="250" spans="2:9" x14ac:dyDescent="0.25">
@@ -4729,7 +4729,7 @@
       <c r="E250" s="33"/>
       <c r="F250" s="13"/>
       <c r="G250" s="33"/>
-      <c r="H250" s="97"/>
+      <c r="H250" s="83"/>
       <c r="I250" s="13"/>
     </row>
     <row r="251" spans="2:9" x14ac:dyDescent="0.25">
@@ -4739,7 +4739,7 @@
       <c r="E251" s="33"/>
       <c r="F251" s="13"/>
       <c r="G251" s="33"/>
-      <c r="H251" s="97"/>
+      <c r="H251" s="83"/>
       <c r="I251" s="13"/>
     </row>
     <row r="252" spans="2:9" x14ac:dyDescent="0.25">
@@ -4749,7 +4749,7 @@
       <c r="E252" s="33"/>
       <c r="F252" s="13"/>
       <c r="G252" s="33"/>
-      <c r="H252" s="97"/>
+      <c r="H252" s="83"/>
       <c r="I252" s="13"/>
     </row>
     <row r="253" spans="2:9" x14ac:dyDescent="0.25">
@@ -4759,7 +4759,7 @@
       <c r="E253" s="33"/>
       <c r="F253" s="13"/>
       <c r="G253" s="33"/>
-      <c r="H253" s="97"/>
+      <c r="H253" s="83"/>
       <c r="I253" s="13"/>
     </row>
     <row r="254" spans="2:9" x14ac:dyDescent="0.25">
@@ -4769,7 +4769,7 @@
       <c r="E254" s="33"/>
       <c r="F254" s="13"/>
       <c r="G254" s="33"/>
-      <c r="H254" s="97"/>
+      <c r="H254" s="83"/>
       <c r="I254" s="13"/>
     </row>
     <row r="255" spans="2:9" x14ac:dyDescent="0.25">
@@ -4779,7 +4779,7 @@
       <c r="E255" s="33"/>
       <c r="F255" s="13"/>
       <c r="G255" s="33"/>
-      <c r="H255" s="97"/>
+      <c r="H255" s="83"/>
       <c r="I255" s="13"/>
     </row>
     <row r="256" spans="2:9" x14ac:dyDescent="0.25">
@@ -4789,7 +4789,7 @@
       <c r="E256" s="13"/>
       <c r="F256" s="13"/>
       <c r="G256" s="33"/>
-      <c r="H256" s="97"/>
+      <c r="H256" s="83"/>
       <c r="I256" s="13"/>
     </row>
     <row r="257" spans="2:9" x14ac:dyDescent="0.25">
@@ -4799,7 +4799,7 @@
       <c r="E257" s="13"/>
       <c r="F257" s="13"/>
       <c r="G257" s="33"/>
-      <c r="H257" s="97"/>
+      <c r="H257" s="83"/>
       <c r="I257" s="13"/>
     </row>
     <row r="258" spans="2:9" x14ac:dyDescent="0.25">
@@ -4809,7 +4809,7 @@
       <c r="E258" s="13"/>
       <c r="F258" s="13"/>
       <c r="G258" s="33"/>
-      <c r="H258" s="97"/>
+      <c r="H258" s="83"/>
       <c r="I258" s="13"/>
     </row>
     <row r="259" spans="2:9" x14ac:dyDescent="0.25">
@@ -4819,7 +4819,7 @@
       <c r="E259" s="13"/>
       <c r="F259" s="13"/>
       <c r="G259" s="33"/>
-      <c r="H259" s="97"/>
+      <c r="H259" s="83"/>
       <c r="I259" s="13"/>
     </row>
     <row r="260" spans="2:9" x14ac:dyDescent="0.25">
@@ -4829,7 +4829,7 @@
       <c r="E260" s="13"/>
       <c r="F260" s="13"/>
       <c r="G260" s="33"/>
-      <c r="H260" s="97"/>
+      <c r="H260" s="83"/>
       <c r="I260" s="13"/>
     </row>
     <row r="261" spans="2:9" x14ac:dyDescent="0.25">
@@ -4839,7 +4839,7 @@
       <c r="E261" s="13"/>
       <c r="F261" s="13"/>
       <c r="G261" s="33"/>
-      <c r="H261" s="97"/>
+      <c r="H261" s="83"/>
       <c r="I261" s="13"/>
     </row>
     <row r="262" spans="2:9" x14ac:dyDescent="0.25">
@@ -4849,7 +4849,7 @@
       <c r="E262" s="13"/>
       <c r="F262" s="13"/>
       <c r="G262" s="33"/>
-      <c r="H262" s="97"/>
+      <c r="H262" s="83"/>
       <c r="I262" s="13"/>
     </row>
     <row r="263" spans="2:9" x14ac:dyDescent="0.25">
@@ -4859,7 +4859,7 @@
       <c r="E263" s="13"/>
       <c r="F263" s="13"/>
       <c r="G263" s="33"/>
-      <c r="H263" s="97"/>
+      <c r="H263" s="83"/>
       <c r="I263" s="13"/>
     </row>
     <row r="264" spans="2:9" x14ac:dyDescent="0.25">
@@ -4869,7 +4869,7 @@
       <c r="E264" s="13"/>
       <c r="F264" s="13"/>
       <c r="G264" s="33"/>
-      <c r="H264" s="97"/>
+      <c r="H264" s="83"/>
       <c r="I264" s="13"/>
     </row>
     <row r="265" spans="2:9" x14ac:dyDescent="0.25">
@@ -4879,7 +4879,7 @@
       <c r="E265" s="13"/>
       <c r="F265" s="13"/>
       <c r="G265" s="33"/>
-      <c r="H265" s="97"/>
+      <c r="H265" s="83"/>
       <c r="I265" s="13"/>
     </row>
     <row r="266" spans="2:9" x14ac:dyDescent="0.25">
@@ -4889,7 +4889,7 @@
       <c r="E266" s="13"/>
       <c r="F266" s="13"/>
       <c r="G266" s="33"/>
-      <c r="H266" s="97"/>
+      <c r="H266" s="83"/>
       <c r="I266" s="13"/>
     </row>
     <row r="267" spans="2:9" x14ac:dyDescent="0.25">
@@ -4899,7 +4899,7 @@
       <c r="E267" s="13"/>
       <c r="F267" s="13"/>
       <c r="G267" s="33"/>
-      <c r="H267" s="97"/>
+      <c r="H267" s="83"/>
       <c r="I267" s="13"/>
     </row>
     <row r="268" spans="2:9" x14ac:dyDescent="0.25">
@@ -4909,7 +4909,7 @@
       <c r="E268" s="13"/>
       <c r="F268" s="13"/>
       <c r="G268" s="33"/>
-      <c r="H268" s="97"/>
+      <c r="H268" s="83"/>
       <c r="I268" s="13"/>
     </row>
     <row r="269" spans="2:9" x14ac:dyDescent="0.25">
@@ -4919,7 +4919,7 @@
       <c r="E269" s="13"/>
       <c r="F269" s="13"/>
       <c r="G269" s="33"/>
-      <c r="H269" s="97"/>
+      <c r="H269" s="83"/>
       <c r="I269" s="13"/>
     </row>
     <row r="270" spans="2:9" x14ac:dyDescent="0.25">
@@ -4929,7 +4929,7 @@
       <c r="E270" s="13"/>
       <c r="F270" s="13"/>
       <c r="G270" s="33"/>
-      <c r="H270" s="97"/>
+      <c r="H270" s="83"/>
       <c r="I270" s="13"/>
     </row>
     <row r="271" spans="2:9" x14ac:dyDescent="0.25">
@@ -4939,7 +4939,7 @@
       <c r="E271" s="13"/>
       <c r="F271" s="13"/>
       <c r="G271" s="33"/>
-      <c r="H271" s="97"/>
+      <c r="H271" s="83"/>
       <c r="I271" s="13"/>
     </row>
     <row r="272" spans="2:9" x14ac:dyDescent="0.25">
@@ -4949,7 +4949,7 @@
       <c r="E272" s="13"/>
       <c r="F272" s="13"/>
       <c r="G272" s="33"/>
-      <c r="H272" s="97"/>
+      <c r="H272" s="83"/>
       <c r="I272" s="13"/>
     </row>
     <row r="273" spans="2:9" x14ac:dyDescent="0.25">
@@ -4959,7 +4959,7 @@
       <c r="E273" s="13"/>
       <c r="F273" s="13"/>
       <c r="G273" s="33"/>
-      <c r="H273" s="97"/>
+      <c r="H273" s="83"/>
       <c r="I273" s="13"/>
     </row>
     <row r="274" spans="2:9" x14ac:dyDescent="0.25">
@@ -4969,7 +4969,7 @@
       <c r="E274" s="13"/>
       <c r="F274" s="13"/>
       <c r="G274" s="33"/>
-      <c r="H274" s="97"/>
+      <c r="H274" s="83"/>
       <c r="I274" s="13"/>
     </row>
     <row r="275" spans="2:9" x14ac:dyDescent="0.25">
@@ -4979,7 +4979,7 @@
       <c r="E275" s="13"/>
       <c r="F275" s="13"/>
       <c r="G275" s="33"/>
-      <c r="H275" s="97"/>
+      <c r="H275" s="83"/>
       <c r="I275" s="13"/>
     </row>
     <row r="276" spans="2:9" x14ac:dyDescent="0.25">
@@ -4989,7 +4989,7 @@
       <c r="E276" s="13"/>
       <c r="F276" s="13"/>
       <c r="G276" s="33"/>
-      <c r="H276" s="97"/>
+      <c r="H276" s="83"/>
       <c r="I276" s="13"/>
     </row>
     <row r="277" spans="2:9" x14ac:dyDescent="0.25">
@@ -4999,7 +4999,7 @@
       <c r="E277" s="13"/>
       <c r="F277" s="13"/>
       <c r="G277" s="33"/>
-      <c r="H277" s="97"/>
+      <c r="H277" s="83"/>
       <c r="I277" s="13"/>
     </row>
     <row r="278" spans="2:9" x14ac:dyDescent="0.25">
@@ -5009,7 +5009,7 @@
       <c r="E278" s="13"/>
       <c r="F278" s="13"/>
       <c r="G278" s="33"/>
-      <c r="H278" s="97"/>
+      <c r="H278" s="83"/>
       <c r="I278" s="13"/>
     </row>
     <row r="279" spans="2:9" x14ac:dyDescent="0.25">
@@ -5019,7 +5019,7 @@
       <c r="E279" s="13"/>
       <c r="F279" s="13"/>
       <c r="G279" s="33"/>
-      <c r="H279" s="97"/>
+      <c r="H279" s="83"/>
       <c r="I279" s="13"/>
     </row>
     <row r="280" spans="2:9" x14ac:dyDescent="0.25">
@@ -5029,7 +5029,7 @@
       <c r="E280" s="13"/>
       <c r="F280" s="13"/>
       <c r="G280" s="33"/>
-      <c r="H280" s="97"/>
+      <c r="H280" s="83"/>
       <c r="I280" s="13"/>
     </row>
     <row r="281" spans="2:9" x14ac:dyDescent="0.25">
@@ -5039,7 +5039,7 @@
       <c r="E281" s="13"/>
       <c r="F281" s="13"/>
       <c r="G281" s="33"/>
-      <c r="H281" s="97"/>
+      <c r="H281" s="83"/>
       <c r="I281" s="13"/>
     </row>
     <row r="282" spans="2:9" x14ac:dyDescent="0.25">
@@ -5049,7 +5049,7 @@
       <c r="E282" s="13"/>
       <c r="F282" s="13"/>
       <c r="G282" s="33"/>
-      <c r="H282" s="97"/>
+      <c r="H282" s="83"/>
       <c r="I282" s="13"/>
     </row>
     <row r="283" spans="2:9" x14ac:dyDescent="0.25">
@@ -5059,7 +5059,7 @@
       <c r="E283" s="13"/>
       <c r="F283" s="13"/>
       <c r="G283" s="33"/>
-      <c r="H283" s="97"/>
+      <c r="H283" s="83"/>
       <c r="I283" s="13"/>
     </row>
     <row r="284" spans="2:9" x14ac:dyDescent="0.25">
@@ -5069,7 +5069,7 @@
       <c r="E284" s="13"/>
       <c r="F284" s="13"/>
       <c r="G284" s="33"/>
-      <c r="H284" s="97"/>
+      <c r="H284" s="83"/>
       <c r="I284" s="13"/>
     </row>
     <row r="285" spans="2:9" x14ac:dyDescent="0.25">
@@ -5079,7 +5079,7 @@
       <c r="E285" s="13"/>
       <c r="F285" s="13"/>
       <c r="G285" s="33"/>
-      <c r="H285" s="97"/>
+      <c r="H285" s="83"/>
       <c r="I285" s="13"/>
     </row>
     <row r="286" spans="2:9" x14ac:dyDescent="0.25">
@@ -5089,7 +5089,7 @@
       <c r="E286" s="13"/>
       <c r="F286" s="13"/>
       <c r="G286" s="33"/>
-      <c r="H286" s="97"/>
+      <c r="H286" s="83"/>
       <c r="I286" s="13"/>
     </row>
     <row r="287" spans="2:9" x14ac:dyDescent="0.25">
@@ -5099,7 +5099,7 @@
       <c r="E287" s="13"/>
       <c r="F287" s="13"/>
       <c r="G287" s="33"/>
-      <c r="H287" s="97"/>
+      <c r="H287" s="83"/>
       <c r="I287" s="13"/>
     </row>
     <row r="288" spans="2:9" x14ac:dyDescent="0.25">
@@ -5109,7 +5109,7 @@
       <c r="E288" s="13"/>
       <c r="F288" s="13"/>
       <c r="G288" s="33"/>
-      <c r="H288" s="97"/>
+      <c r="H288" s="83"/>
       <c r="I288" s="13"/>
     </row>
     <row r="289" spans="2:9" x14ac:dyDescent="0.25">
@@ -5119,7 +5119,7 @@
       <c r="E289" s="13"/>
       <c r="F289" s="13"/>
       <c r="G289" s="33"/>
-      <c r="H289" s="97"/>
+      <c r="H289" s="83"/>
       <c r="I289" s="13"/>
     </row>
     <row r="290" spans="2:9" x14ac:dyDescent="0.25">
@@ -5129,7 +5129,7 @@
       <c r="E290" s="13"/>
       <c r="F290" s="13"/>
       <c r="G290" s="33"/>
-      <c r="H290" s="97"/>
+      <c r="H290" s="83"/>
       <c r="I290" s="13"/>
     </row>
     <row r="291" spans="2:9" x14ac:dyDescent="0.25">
@@ -5139,7 +5139,7 @@
       <c r="E291" s="13"/>
       <c r="F291" s="13"/>
       <c r="G291" s="33"/>
-      <c r="H291" s="97"/>
+      <c r="H291" s="83"/>
       <c r="I291" s="13"/>
     </row>
   </sheetData>

--- a/trunk/1. Project management/AS_PM_MasterPlan.xlsx
+++ b/trunk/1. Project management/AS_PM_MasterPlan.xlsx
@@ -497,7 +497,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -919,11 +919,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1213,6 +1226,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1682,8 +1698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2432,7 +2448,7 @@
       <c r="I35" s="24"/>
     </row>
     <row r="36" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="23">
+      <c r="B36" s="25">
         <v>32</v>
       </c>
       <c r="C36" s="94"/>
@@ -2452,7 +2468,7 @@
       <c r="I36" s="27"/>
     </row>
     <row r="37" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="23">
+      <c r="B37" s="100">
         <v>33</v>
       </c>
       <c r="C37" s="89" t="s">
@@ -2646,7 +2662,7 @@
       <c r="J46" s="58"/>
     </row>
     <row r="47" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="23">
+      <c r="B47" s="25">
         <v>43</v>
       </c>
       <c r="C47" s="99"/>
@@ -2667,7 +2683,7 @@
       <c r="J47" s="58"/>
     </row>
     <row r="48" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="23">
+      <c r="B48" s="100">
         <v>44</v>
       </c>
       <c r="C48" s="92" t="s">

--- a/trunk/1. Project management/AS_PM_MasterPlan.xlsx
+++ b/trunk/1. Project management/AS_PM_MasterPlan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="109">
   <si>
     <t>Document Reviewer Information</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>GOING</t>
+  </si>
+  <si>
+    <t>review sớm hơn</t>
   </si>
 </sst>
 </file>
@@ -936,7 +939,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1096,9 +1099,6 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1140,9 +1140,6 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1185,6 +1182,9 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1227,9 +1227,25 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1582,11 +1598,11 @@
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="88"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="87"/>
     </row>
     <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
@@ -1696,10 +1712,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J291"/>
+  <dimension ref="A1:J291"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:C47"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1709,23 +1725,23 @@
     <col min="4" max="4" width="50.85546875" customWidth="1"/>
     <col min="5" max="5" width="24.140625" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="61" customWidth="1"/>
-    <col min="8" max="8" width="29.7109375" style="72" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="60" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" style="70" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="97"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96"/>
     </row>
     <row r="3" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="46" t="s">
@@ -1757,7 +1773,7 @@
       <c r="B4" s="34">
         <v>1</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="88" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="35" t="s">
@@ -1769,21 +1785,21 @@
       <c r="F4" s="49">
         <v>41466</v>
       </c>
-      <c r="G4" s="62">
+      <c r="G4" s="61">
         <v>41466</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="71" t="s">
         <v>69</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="2:9" s="56" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" s="55" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="37">
         <v>2</v>
       </c>
-      <c r="C5" s="90"/>
+      <c r="C5" s="89"/>
       <c r="D5" s="38" t="s">
         <v>26</v>
       </c>
@@ -1796,7 +1812,7 @@
       <c r="G5" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="H5" s="74" t="s">
+      <c r="H5" s="72" t="s">
         <v>73</v>
       </c>
       <c r="I5" s="22" t="s">
@@ -1807,7 +1823,7 @@
       <c r="B6" s="37">
         <v>3</v>
       </c>
-      <c r="C6" s="90"/>
+      <c r="C6" s="89"/>
       <c r="D6" s="38" t="s">
         <v>27</v>
       </c>
@@ -1818,10 +1834,10 @@
         <v>81</v>
       </c>
       <c r="G6" s="39"/>
-      <c r="H6" s="74" t="s">
+      <c r="H6" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="84" t="s">
+      <c r="I6" s="82" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1829,7 +1845,7 @@
       <c r="B7" s="37">
         <v>4</v>
       </c>
-      <c r="C7" s="90"/>
+      <c r="C7" s="89"/>
       <c r="D7" s="38" t="s">
         <v>79</v>
       </c>
@@ -1842,7 +1858,7 @@
       <c r="G7" s="51">
         <v>41466</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="72" t="s">
         <v>69</v>
       </c>
       <c r="I7" s="22" t="s">
@@ -1851,7 +1867,7 @@
     </row>
     <row r="8" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="37"/>
-      <c r="C8" s="90"/>
+      <c r="C8" s="89"/>
       <c r="D8" s="38" t="s">
         <v>80</v>
       </c>
@@ -1864,7 +1880,7 @@
       <c r="G8" s="51">
         <v>41497</v>
       </c>
-      <c r="H8" s="74" t="s">
+      <c r="H8" s="72" t="s">
         <v>69</v>
       </c>
       <c r="I8" s="22" t="s">
@@ -1875,7 +1891,7 @@
       <c r="B9" s="37">
         <v>5</v>
       </c>
-      <c r="C9" s="90"/>
+      <c r="C9" s="89"/>
       <c r="D9" s="38" t="s">
         <v>28</v>
       </c>
@@ -1888,7 +1904,7 @@
       <c r="G9" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="74" t="s">
+      <c r="H9" s="72" t="s">
         <v>16</v>
       </c>
       <c r="I9" s="22" t="s">
@@ -1899,7 +1915,7 @@
       <c r="B10" s="37">
         <v>6</v>
       </c>
-      <c r="C10" s="90"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="38" t="s">
         <v>29</v>
       </c>
@@ -1912,7 +1928,7 @@
       <c r="G10" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="H10" s="74" t="s">
+      <c r="H10" s="72" t="s">
         <v>70</v>
       </c>
       <c r="I10" s="22" t="s">
@@ -1923,7 +1939,7 @@
       <c r="B11" s="37">
         <v>7</v>
       </c>
-      <c r="C11" s="90"/>
+      <c r="C11" s="89"/>
       <c r="D11" s="38" t="s">
         <v>30</v>
       </c>
@@ -1936,7 +1952,7 @@
       <c r="G11" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="74" t="s">
+      <c r="H11" s="72" t="s">
         <v>71</v>
       </c>
       <c r="I11" s="22" t="s">
@@ -1947,7 +1963,7 @@
       <c r="B12" s="37">
         <v>8</v>
       </c>
-      <c r="C12" s="90"/>
+      <c r="C12" s="89"/>
       <c r="D12" s="38" t="s">
         <v>31</v>
       </c>
@@ -1960,7 +1976,7 @@
       <c r="G12" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="74" t="s">
+      <c r="H12" s="72" t="s">
         <v>73</v>
       </c>
       <c r="I12" s="22" t="s">
@@ -1971,7 +1987,7 @@
       <c r="B13" s="37">
         <v>9</v>
       </c>
-      <c r="C13" s="90"/>
+      <c r="C13" s="89"/>
       <c r="D13" s="38" t="s">
         <v>32</v>
       </c>
@@ -1984,7 +2000,7 @@
       <c r="G13" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="74" t="s">
+      <c r="H13" s="72" t="s">
         <v>78</v>
       </c>
       <c r="I13" s="22" t="s">
@@ -1995,7 +2011,7 @@
       <c r="B14" s="37">
         <v>10</v>
       </c>
-      <c r="C14" s="90"/>
+      <c r="C14" s="89"/>
       <c r="D14" s="38" t="s">
         <v>66</v>
       </c>
@@ -2008,7 +2024,7 @@
       <c r="G14" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="74" t="s">
+      <c r="H14" s="72" t="s">
         <v>72</v>
       </c>
       <c r="I14" s="22" t="s">
@@ -2019,7 +2035,7 @@
       <c r="B15" s="37">
         <v>11</v>
       </c>
-      <c r="C15" s="90"/>
+      <c r="C15" s="89"/>
       <c r="D15" s="38" t="s">
         <v>67</v>
       </c>
@@ -2032,7 +2048,7 @@
       <c r="G15" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="74" t="s">
+      <c r="H15" s="72" t="s">
         <v>73</v>
       </c>
       <c r="I15" s="22" t="s">
@@ -2043,7 +2059,7 @@
       <c r="B16" s="40">
         <v>12</v>
       </c>
-      <c r="C16" s="91"/>
+      <c r="C16" s="90"/>
       <c r="D16" s="41" t="s">
         <v>68</v>
       </c>
@@ -2056,7 +2072,7 @@
       <c r="G16" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="H16" s="75" t="s">
+      <c r="H16" s="73" t="s">
         <v>73</v>
       </c>
       <c r="I16" s="22" t="s">
@@ -2067,7 +2083,7 @@
       <c r="B17" s="20">
         <v>13</v>
       </c>
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="91" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="21" t="s">
@@ -2082,7 +2098,7 @@
       <c r="G17" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="76" t="s">
+      <c r="H17" s="74" t="s">
         <v>72</v>
       </c>
       <c r="I17" s="22" t="s">
@@ -2093,7 +2109,7 @@
       <c r="B18" s="23">
         <v>14</v>
       </c>
-      <c r="C18" s="93"/>
+      <c r="C18" s="92"/>
       <c r="D18" s="14" t="s">
         <v>35</v>
       </c>
@@ -2106,7 +2122,7 @@
       <c r="G18" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="76" t="s">
+      <c r="H18" s="74" t="s">
         <v>69</v>
       </c>
       <c r="I18" s="22" t="s">
@@ -2117,7 +2133,7 @@
       <c r="B19" s="23">
         <v>15</v>
       </c>
-      <c r="C19" s="93"/>
+      <c r="C19" s="92"/>
       <c r="D19" s="14" t="s">
         <v>36</v>
       </c>
@@ -2130,7 +2146,7 @@
       <c r="G19" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="H19" s="76" t="s">
+      <c r="H19" s="74" t="s">
         <v>69</v>
       </c>
       <c r="I19" s="22" t="s">
@@ -2141,7 +2157,7 @@
       <c r="B20" s="23">
         <v>16</v>
       </c>
-      <c r="C20" s="93"/>
+      <c r="C20" s="92"/>
       <c r="D20" s="14" t="s">
         <v>37</v>
       </c>
@@ -2154,7 +2170,7 @@
       <c r="G20" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="76" t="s">
+      <c r="H20" s="74" t="s">
         <v>72</v>
       </c>
       <c r="I20" s="22" t="s">
@@ -2165,7 +2181,7 @@
       <c r="B21" s="23">
         <v>17</v>
       </c>
-      <c r="C21" s="93"/>
+      <c r="C21" s="92"/>
       <c r="D21" s="14" t="s">
         <v>38</v>
       </c>
@@ -2176,7 +2192,7 @@
         <v>95</v>
       </c>
       <c r="G21" s="17"/>
-      <c r="H21" s="76" t="s">
+      <c r="H21" s="74" t="s">
         <v>72</v>
       </c>
       <c r="I21" s="24"/>
@@ -2185,7 +2201,7 @@
       <c r="B22" s="23">
         <v>18</v>
       </c>
-      <c r="C22" s="93"/>
+      <c r="C22" s="92"/>
       <c r="D22" s="14" t="s">
         <v>39</v>
       </c>
@@ -2196,7 +2212,7 @@
         <v>95</v>
       </c>
       <c r="G22" s="17"/>
-      <c r="H22" s="76" t="s">
+      <c r="H22" s="74" t="s">
         <v>72</v>
       </c>
       <c r="I22" s="24"/>
@@ -2205,7 +2221,7 @@
       <c r="B23" s="23">
         <v>19</v>
       </c>
-      <c r="C23" s="93"/>
+      <c r="C23" s="92"/>
       <c r="D23" s="14" t="s">
         <v>41</v>
       </c>
@@ -2216,10 +2232,10 @@
         <v>90</v>
       </c>
       <c r="G23" s="17"/>
-      <c r="H23" s="76" t="s">
+      <c r="H23" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="I23" s="85" t="s">
+      <c r="I23" s="83" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2227,7 +2243,7 @@
       <c r="B24" s="23">
         <v>20</v>
       </c>
-      <c r="C24" s="93"/>
+      <c r="C24" s="92"/>
       <c r="D24" s="14" t="s">
         <v>96</v>
       </c>
@@ -2238,7 +2254,7 @@
         <v>41376</v>
       </c>
       <c r="G24" s="17"/>
-      <c r="H24" s="76" t="s">
+      <c r="H24" s="74" t="s">
         <v>69</v>
       </c>
       <c r="I24" s="24"/>
@@ -2247,7 +2263,7 @@
       <c r="B25" s="23">
         <v>21</v>
       </c>
-      <c r="C25" s="93"/>
+      <c r="C25" s="92"/>
       <c r="D25" s="14" t="s">
         <v>43</v>
       </c>
@@ -2258,7 +2274,7 @@
         <v>41376</v>
       </c>
       <c r="G25" s="17"/>
-      <c r="H25" s="76" t="s">
+      <c r="H25" s="74" t="s">
         <v>69</v>
       </c>
       <c r="I25" s="24"/>
@@ -2267,7 +2283,7 @@
       <c r="B26" s="23">
         <v>22</v>
       </c>
-      <c r="C26" s="93"/>
+      <c r="C26" s="92"/>
       <c r="D26" s="14" t="s">
         <v>44</v>
       </c>
@@ -2278,7 +2294,7 @@
         <v>41376</v>
       </c>
       <c r="G26" s="17"/>
-      <c r="H26" s="76" t="s">
+      <c r="H26" s="74" t="s">
         <v>69</v>
       </c>
       <c r="I26" s="24"/>
@@ -2287,7 +2303,7 @@
       <c r="B27" s="23">
         <v>23</v>
       </c>
-      <c r="C27" s="93"/>
+      <c r="C27" s="92"/>
       <c r="D27" s="14" t="s">
         <v>45</v>
       </c>
@@ -2298,7 +2314,7 @@
         <v>41590</v>
       </c>
       <c r="G27" s="17"/>
-      <c r="H27" s="76" t="s">
+      <c r="H27" s="74" t="s">
         <v>69</v>
       </c>
       <c r="I27" s="24"/>
@@ -2307,7 +2323,7 @@
       <c r="B28" s="23">
         <v>24</v>
       </c>
-      <c r="C28" s="93"/>
+      <c r="C28" s="92"/>
       <c r="D28" s="14" t="s">
         <v>46</v>
       </c>
@@ -2318,7 +2334,7 @@
         <v>41590</v>
       </c>
       <c r="G28" s="17"/>
-      <c r="H28" s="76" t="s">
+      <c r="H28" s="74" t="s">
         <v>69</v>
       </c>
       <c r="I28" s="24"/>
@@ -2327,7 +2343,7 @@
       <c r="B29" s="23">
         <v>25</v>
       </c>
-      <c r="C29" s="93"/>
+      <c r="C29" s="92"/>
       <c r="D29" s="14" t="s">
         <v>47</v>
       </c>
@@ -2338,7 +2354,7 @@
         <v>41590</v>
       </c>
       <c r="G29" s="17"/>
-      <c r="H29" s="76" t="s">
+      <c r="H29" s="74" t="s">
         <v>69</v>
       </c>
       <c r="I29" s="24"/>
@@ -2347,7 +2363,7 @@
       <c r="B30" s="23">
         <v>26</v>
       </c>
-      <c r="C30" s="93"/>
+      <c r="C30" s="92"/>
       <c r="D30" s="14" t="s">
         <v>48</v>
       </c>
@@ -2358,7 +2374,7 @@
         <v>41590</v>
       </c>
       <c r="G30" s="17"/>
-      <c r="H30" s="76" t="s">
+      <c r="H30" s="74" t="s">
         <v>69</v>
       </c>
       <c r="I30" s="24"/>
@@ -2367,7 +2383,7 @@
       <c r="B31" s="23">
         <v>27</v>
       </c>
-      <c r="C31" s="93"/>
+      <c r="C31" s="92"/>
       <c r="D31" s="14" t="s">
         <v>42</v>
       </c>
@@ -2378,7 +2394,7 @@
         <v>41620</v>
       </c>
       <c r="G31" s="17"/>
-      <c r="H31" s="76" t="s">
+      <c r="H31" s="74" t="s">
         <v>69</v>
       </c>
       <c r="I31" s="24"/>
@@ -2387,71 +2403,71 @@
       <c r="B32" s="23">
         <v>28</v>
       </c>
-      <c r="C32" s="93"/>
+      <c r="C32" s="92"/>
       <c r="D32" s="52" t="s">
         <v>49</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="76" t="s">
+      <c r="H32" s="74" t="s">
         <v>69</v>
       </c>
       <c r="I32" s="24"/>
     </row>
-    <row r="33" spans="2:10" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33" s="23">
         <v>29</v>
       </c>
-      <c r="C33" s="93"/>
+      <c r="C33" s="92"/>
       <c r="D33" s="52" t="s">
         <v>50</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="76" t="s">
+      <c r="H33" s="74" t="s">
         <v>69</v>
       </c>
       <c r="I33" s="24"/>
     </row>
-    <row r="34" spans="2:10" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="B34" s="23">
         <v>30</v>
       </c>
-      <c r="C34" s="93"/>
+      <c r="C34" s="92"/>
       <c r="D34" s="52" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
-      <c r="H34" s="76" t="s">
+      <c r="H34" s="74" t="s">
         <v>69</v>
       </c>
       <c r="I34" s="24"/>
     </row>
-    <row r="35" spans="2:10" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" s="23">
         <v>31</v>
       </c>
-      <c r="C35" s="93"/>
+      <c r="C35" s="92"/>
       <c r="D35" s="52" t="s">
         <v>52</v>
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
-      <c r="H35" s="76" t="s">
+      <c r="H35" s="74" t="s">
         <v>69</v>
       </c>
       <c r="I35" s="24"/>
     </row>
-    <row r="36" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="25">
         <v>32</v>
       </c>
-      <c r="C36" s="94"/>
+      <c r="C36" s="93"/>
       <c r="D36" s="26" t="s">
         <v>53</v>
       </c>
@@ -2462,22 +2478,22 @@
         <v>83</v>
       </c>
       <c r="G36" s="32"/>
-      <c r="H36" s="76" t="s">
+      <c r="H36" s="74" t="s">
         <v>69</v>
       </c>
       <c r="I36" s="27"/>
     </row>
-    <row r="37" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="100">
+    <row r="37" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="84">
         <v>33</v>
       </c>
-      <c r="C37" s="89" t="s">
+      <c r="C37" s="88" t="s">
         <v>54</v>
       </c>
       <c r="D37" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="70" t="s">
+      <c r="E37" s="69" t="s">
         <v>82</v>
       </c>
       <c r="F37" s="36" t="s">
@@ -2486,37 +2502,37 @@
       <c r="G37" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="H37" s="73" t="s">
+      <c r="H37" s="71" t="s">
         <v>78</v>
       </c>
       <c r="I37" s="43"/>
     </row>
-    <row r="38" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="23">
         <v>34</v>
       </c>
-      <c r="C38" s="90"/>
+      <c r="C38" s="89"/>
       <c r="D38" s="38" t="s">
         <v>86</v>
       </c>
       <c r="E38" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="F38" s="68" t="s">
+      <c r="F38" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="G38" s="68"/>
-      <c r="H38" s="77" t="s">
+      <c r="G38" s="67"/>
+      <c r="H38" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="I38" s="69"/>
-    </row>
-    <row r="39" spans="2:10" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="I38" s="68"/>
+    </row>
+    <row r="39" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B39" s="23">
         <v>35</v>
       </c>
-      <c r="C39" s="90"/>
-      <c r="D39" s="67" t="s">
+      <c r="C39" s="89"/>
+      <c r="D39" s="66" t="s">
         <v>57</v>
       </c>
       <c r="E39" s="51">
@@ -2526,14 +2542,14 @@
         <v>41365</v>
       </c>
       <c r="G39" s="39"/>
-      <c r="H39" s="74"/>
+      <c r="H39" s="72"/>
       <c r="I39" s="44"/>
     </row>
-    <row r="40" spans="2:10" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B40" s="23">
         <v>36</v>
       </c>
-      <c r="C40" s="90"/>
+      <c r="C40" s="89"/>
       <c r="D40" s="38" t="s">
         <v>58</v>
       </c>
@@ -2544,14 +2560,14 @@
         <v>41365</v>
       </c>
       <c r="G40" s="39"/>
-      <c r="H40" s="74"/>
+      <c r="H40" s="72"/>
       <c r="I40" s="44"/>
     </row>
-    <row r="41" spans="2:10" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B41" s="23">
         <v>37</v>
       </c>
-      <c r="C41" s="90"/>
+      <c r="C41" s="89"/>
       <c r="D41" s="38" t="s">
         <v>59</v>
       </c>
@@ -2562,14 +2578,14 @@
         <v>41365</v>
       </c>
       <c r="G41" s="39"/>
-      <c r="H41" s="74"/>
+      <c r="H41" s="72"/>
       <c r="I41" s="44"/>
     </row>
-    <row r="42" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="23">
         <v>38</v>
       </c>
-      <c r="C42" s="90"/>
+      <c r="C42" s="89"/>
       <c r="D42" s="38" t="s">
         <v>87</v>
       </c>
@@ -2580,14 +2596,14 @@
         <v>41518</v>
       </c>
       <c r="G42" s="39"/>
-      <c r="H42" s="74"/>
+      <c r="H42" s="72"/>
       <c r="I42" s="44"/>
     </row>
-    <row r="43" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="23">
         <v>39</v>
       </c>
-      <c r="C43" s="90"/>
+      <c r="C43" s="89"/>
       <c r="D43" s="38" t="s">
         <v>88</v>
       </c>
@@ -2598,32 +2614,32 @@
         <v>41518</v>
       </c>
       <c r="G43" s="39"/>
-      <c r="H43" s="74"/>
+      <c r="H43" s="72"/>
       <c r="I43" s="44"/>
     </row>
-    <row r="44" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="23">
+    <row r="44" spans="1:10" s="105" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="99">
         <v>40</v>
       </c>
-      <c r="C44" s="98"/>
-      <c r="D44" s="53" t="s">
+      <c r="C44" s="97"/>
+      <c r="D44" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="E44" s="71">
+      <c r="E44" s="101">
         <v>41913</v>
       </c>
-      <c r="F44" s="71">
+      <c r="F44" s="101">
         <v>41944</v>
       </c>
-      <c r="G44" s="54"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="55"/>
-    </row>
-    <row r="45" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G44" s="102"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="104"/>
+    </row>
+    <row r="45" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="23">
         <v>41</v>
       </c>
-      <c r="C45" s="98"/>
+      <c r="C45" s="97"/>
       <c r="D45" s="38" t="s">
         <v>55</v>
       </c>
@@ -2634,17 +2650,20 @@
         <v>97</v>
       </c>
       <c r="G45" s="39"/>
-      <c r="H45" s="77" t="s">
+      <c r="H45" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="I45" s="57"/>
-      <c r="J45" s="58"/>
-    </row>
-    <row r="46" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I45" s="56"/>
+      <c r="J45" s="57"/>
+    </row>
+    <row r="46" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>108</v>
+      </c>
       <c r="B46" s="23">
         <v>42</v>
       </c>
-      <c r="C46" s="98"/>
+      <c r="C46" s="97"/>
       <c r="D46" s="53" t="s">
         <v>56</v>
       </c>
@@ -2655,17 +2674,17 @@
         <v>99</v>
       </c>
       <c r="G46" s="39"/>
-      <c r="H46" s="77" t="s">
+      <c r="H46" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="I46" s="57"/>
-      <c r="J46" s="58"/>
-    </row>
-    <row r="47" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I46" s="56"/>
+      <c r="J46" s="57"/>
+    </row>
+    <row r="47" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="25">
         <v>43</v>
       </c>
-      <c r="C47" s="99"/>
+      <c r="C47" s="98"/>
       <c r="D47" s="38" t="s">
         <v>60</v>
       </c>
@@ -2676,17 +2695,17 @@
         <v>101</v>
       </c>
       <c r="G47" s="54"/>
-      <c r="H47" s="75" t="s">
+      <c r="H47" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="I47" s="59"/>
-      <c r="J47" s="58"/>
-    </row>
-    <row r="48" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="100">
+      <c r="I47" s="58"/>
+      <c r="J47" s="57"/>
+    </row>
+    <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="84">
         <v>44</v>
       </c>
-      <c r="C48" s="92" t="s">
+      <c r="C48" s="91" t="s">
         <v>102</v>
       </c>
       <c r="D48" s="21" t="s">
@@ -2697,345 +2716,345 @@
       </c>
       <c r="F48" s="31"/>
       <c r="G48" s="31"/>
-      <c r="H48" s="78"/>
+      <c r="H48" s="76"/>
       <c r="I48" s="28"/>
     </row>
     <row r="49" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="23">
         <v>45</v>
       </c>
-      <c r="C49" s="93"/>
+      <c r="C49" s="92"/>
       <c r="D49" s="14" t="s">
         <v>62</v>
       </c>
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
-      <c r="H49" s="76"/>
+      <c r="H49" s="74"/>
       <c r="I49" s="24"/>
     </row>
     <row r="50" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="23">
         <v>46</v>
       </c>
-      <c r="C50" s="93"/>
+      <c r="C50" s="92"/>
       <c r="D50" s="14" t="s">
         <v>104</v>
       </c>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
-      <c r="H50" s="76"/>
+      <c r="H50" s="74"/>
       <c r="I50" s="24"/>
     </row>
     <row r="51" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="23">
         <v>47</v>
       </c>
-      <c r="C51" s="93"/>
+      <c r="C51" s="92"/>
       <c r="D51" s="14" t="s">
         <v>63</v>
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
-      <c r="H51" s="76"/>
+      <c r="H51" s="74"/>
       <c r="I51" s="24"/>
     </row>
     <row r="52" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="23">
         <v>48</v>
       </c>
-      <c r="C52" s="93"/>
+      <c r="C52" s="92"/>
       <c r="D52" s="14" t="s">
         <v>89</v>
       </c>
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
-      <c r="H52" s="76"/>
+      <c r="H52" s="74"/>
       <c r="I52" s="24"/>
     </row>
     <row r="53" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="23">
         <v>49</v>
       </c>
-      <c r="C53" s="93"/>
+      <c r="C53" s="92"/>
       <c r="D53" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
       <c r="G53" s="17"/>
-      <c r="H53" s="79"/>
-      <c r="I53" s="65"/>
+      <c r="H53" s="77"/>
+      <c r="I53" s="64"/>
     </row>
     <row r="54" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="23">
         <v>50</v>
       </c>
-      <c r="C54" s="93"/>
-      <c r="D54" s="63" t="s">
+      <c r="C54" s="92"/>
+      <c r="D54" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="E54" s="66"/>
+      <c r="E54" s="65"/>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
-      <c r="H54" s="80"/>
-      <c r="I54" s="65"/>
+      <c r="H54" s="78"/>
+      <c r="I54" s="64"/>
     </row>
     <row r="55" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="23">
         <v>51</v>
       </c>
-      <c r="C55" s="94"/>
+      <c r="C55" s="93"/>
       <c r="D55" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
       <c r="G55" s="32"/>
-      <c r="H55" s="81"/>
+      <c r="H55" s="79"/>
       <c r="I55" s="27"/>
     </row>
     <row r="56" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B56" s="34"/>
-      <c r="C56" s="89"/>
+      <c r="C56" s="88"/>
       <c r="D56" s="35"/>
       <c r="E56" s="36"/>
       <c r="F56" s="36"/>
       <c r="G56" s="36"/>
-      <c r="H56" s="73"/>
+      <c r="H56" s="71"/>
       <c r="I56" s="43"/>
     </row>
     <row r="57" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="37"/>
-      <c r="C57" s="90"/>
+      <c r="C57" s="89"/>
       <c r="D57" s="38"/>
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
       <c r="G57" s="39"/>
-      <c r="H57" s="74"/>
+      <c r="H57" s="72"/>
       <c r="I57" s="44"/>
     </row>
     <row r="58" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B58" s="37"/>
-      <c r="C58" s="90"/>
+      <c r="C58" s="89"/>
       <c r="D58" s="38"/>
       <c r="E58" s="39"/>
       <c r="F58" s="39"/>
       <c r="G58" s="39"/>
-      <c r="H58" s="74"/>
+      <c r="H58" s="72"/>
       <c r="I58" s="44"/>
     </row>
     <row r="59" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B59" s="37"/>
-      <c r="C59" s="90"/>
+      <c r="C59" s="89"/>
       <c r="D59" s="38"/>
       <c r="E59" s="39"/>
       <c r="F59" s="39"/>
       <c r="G59" s="39"/>
-      <c r="H59" s="74"/>
+      <c r="H59" s="72"/>
       <c r="I59" s="44"/>
     </row>
     <row r="60" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B60" s="37"/>
-      <c r="C60" s="90"/>
+      <c r="C60" s="89"/>
       <c r="D60" s="38"/>
       <c r="E60" s="39"/>
       <c r="F60" s="39"/>
       <c r="G60" s="39"/>
-      <c r="H60" s="74"/>
+      <c r="H60" s="72"/>
       <c r="I60" s="44"/>
     </row>
     <row r="61" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B61" s="37"/>
-      <c r="C61" s="90"/>
+      <c r="C61" s="89"/>
       <c r="D61" s="38"/>
       <c r="E61" s="39"/>
       <c r="F61" s="39"/>
       <c r="G61" s="39"/>
-      <c r="H61" s="74"/>
+      <c r="H61" s="72"/>
       <c r="I61" s="44"/>
     </row>
     <row r="62" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B62" s="37"/>
-      <c r="C62" s="90"/>
+      <c r="C62" s="89"/>
       <c r="D62" s="38"/>
       <c r="E62" s="39"/>
       <c r="F62" s="39"/>
       <c r="G62" s="39"/>
-      <c r="H62" s="74"/>
+      <c r="H62" s="72"/>
       <c r="I62" s="44"/>
     </row>
     <row r="63" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63" s="40"/>
-      <c r="C63" s="91"/>
+      <c r="C63" s="90"/>
       <c r="D63" s="41"/>
       <c r="E63" s="42"/>
       <c r="F63" s="42"/>
       <c r="G63" s="42"/>
-      <c r="H63" s="75"/>
+      <c r="H63" s="73"/>
       <c r="I63" s="45"/>
     </row>
     <row r="64" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B64" s="20"/>
-      <c r="C64" s="92"/>
+      <c r="C64" s="91"/>
       <c r="D64" s="21"/>
       <c r="E64" s="31"/>
       <c r="F64" s="31"/>
       <c r="G64" s="31"/>
-      <c r="H64" s="82"/>
+      <c r="H64" s="80"/>
       <c r="I64" s="28"/>
     </row>
     <row r="65" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B65" s="23"/>
-      <c r="C65" s="93"/>
+      <c r="C65" s="92"/>
       <c r="D65" s="14"/>
       <c r="E65" s="17"/>
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
-      <c r="H65" s="76"/>
+      <c r="H65" s="74"/>
       <c r="I65" s="24"/>
     </row>
     <row r="66" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B66" s="23"/>
-      <c r="C66" s="93"/>
+      <c r="C66" s="92"/>
       <c r="D66" s="14"/>
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
-      <c r="H66" s="76"/>
+      <c r="H66" s="74"/>
       <c r="I66" s="24"/>
     </row>
     <row r="67" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B67" s="23"/>
-      <c r="C67" s="93"/>
+      <c r="C67" s="92"/>
       <c r="D67" s="14"/>
       <c r="E67" s="17"/>
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
-      <c r="H67" s="76"/>
+      <c r="H67" s="74"/>
       <c r="I67" s="24"/>
     </row>
     <row r="68" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B68" s="23"/>
-      <c r="C68" s="93"/>
+      <c r="C68" s="92"/>
       <c r="D68" s="14"/>
       <c r="E68" s="17"/>
       <c r="F68" s="17"/>
       <c r="G68" s="17"/>
-      <c r="H68" s="76"/>
+      <c r="H68" s="74"/>
       <c r="I68" s="24"/>
     </row>
     <row r="69" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B69" s="23"/>
-      <c r="C69" s="93"/>
+      <c r="C69" s="92"/>
       <c r="D69" s="14"/>
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
       <c r="G69" s="17"/>
-      <c r="H69" s="76"/>
+      <c r="H69" s="74"/>
       <c r="I69" s="24"/>
     </row>
     <row r="70" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B70" s="23"/>
-      <c r="C70" s="93"/>
+      <c r="C70" s="92"/>
       <c r="D70" s="14"/>
       <c r="E70" s="17"/>
       <c r="F70" s="17"/>
       <c r="G70" s="17"/>
-      <c r="H70" s="76"/>
+      <c r="H70" s="74"/>
       <c r="I70" s="24"/>
     </row>
     <row r="71" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B71" s="25"/>
-      <c r="C71" s="94"/>
+      <c r="C71" s="93"/>
       <c r="D71" s="26"/>
       <c r="E71" s="32"/>
       <c r="F71" s="32"/>
       <c r="G71" s="32"/>
-      <c r="H71" s="81"/>
+      <c r="H71" s="79"/>
       <c r="I71" s="27"/>
     </row>
     <row r="72" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B72" s="34"/>
-      <c r="C72" s="89"/>
+      <c r="C72" s="88"/>
       <c r="D72" s="35"/>
       <c r="E72" s="36"/>
       <c r="F72" s="36"/>
       <c r="G72" s="36"/>
-      <c r="H72" s="73"/>
+      <c r="H72" s="71"/>
       <c r="I72" s="43"/>
     </row>
     <row r="73" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B73" s="37"/>
-      <c r="C73" s="90"/>
+      <c r="C73" s="89"/>
       <c r="D73" s="38"/>
       <c r="E73" s="39"/>
       <c r="F73" s="39"/>
       <c r="G73" s="39"/>
-      <c r="H73" s="74"/>
+      <c r="H73" s="72"/>
       <c r="I73" s="44"/>
     </row>
     <row r="74" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B74" s="37"/>
-      <c r="C74" s="90"/>
+      <c r="C74" s="89"/>
       <c r="D74" s="38"/>
       <c r="E74" s="39"/>
       <c r="F74" s="39"/>
       <c r="G74" s="39"/>
-      <c r="H74" s="74"/>
+      <c r="H74" s="72"/>
       <c r="I74" s="44"/>
     </row>
     <row r="75" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B75" s="37"/>
-      <c r="C75" s="90"/>
+      <c r="C75" s="89"/>
       <c r="D75" s="38"/>
       <c r="E75" s="39"/>
       <c r="F75" s="39"/>
       <c r="G75" s="39"/>
-      <c r="H75" s="74"/>
+      <c r="H75" s="72"/>
       <c r="I75" s="44"/>
     </row>
     <row r="76" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B76" s="37"/>
-      <c r="C76" s="90"/>
+      <c r="C76" s="89"/>
       <c r="D76" s="38"/>
       <c r="E76" s="39"/>
       <c r="F76" s="39"/>
       <c r="G76" s="39"/>
-      <c r="H76" s="74"/>
+      <c r="H76" s="72"/>
       <c r="I76" s="44"/>
     </row>
     <row r="77" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B77" s="37"/>
-      <c r="C77" s="90"/>
+      <c r="C77" s="89"/>
       <c r="D77" s="38"/>
       <c r="E77" s="39"/>
       <c r="F77" s="39"/>
       <c r="G77" s="39"/>
-      <c r="H77" s="74"/>
+      <c r="H77" s="72"/>
       <c r="I77" s="44"/>
     </row>
     <row r="78" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B78" s="37"/>
-      <c r="C78" s="90"/>
+      <c r="C78" s="89"/>
       <c r="D78" s="38"/>
       <c r="E78" s="39"/>
       <c r="F78" s="39"/>
       <c r="G78" s="39"/>
-      <c r="H78" s="74"/>
+      <c r="H78" s="72"/>
       <c r="I78" s="44"/>
     </row>
     <row r="79" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B79" s="40"/>
-      <c r="C79" s="91"/>
+      <c r="C79" s="90"/>
       <c r="D79" s="41"/>
       <c r="E79" s="42"/>
       <c r="F79" s="42"/>
       <c r="G79" s="42"/>
-      <c r="H79" s="75"/>
+      <c r="H79" s="73"/>
       <c r="I79" s="45"/>
     </row>
     <row r="80" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3045,7 +3064,7 @@
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
-      <c r="H80" s="78"/>
+      <c r="H80" s="76"/>
       <c r="I80" s="19"/>
     </row>
     <row r="81" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3055,7 +3074,7 @@
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="17"/>
-      <c r="H81" s="76"/>
+      <c r="H81" s="74"/>
       <c r="I81" s="17"/>
     </row>
     <row r="82" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3065,7 +3084,7 @@
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="17"/>
-      <c r="H82" s="76"/>
+      <c r="H82" s="74"/>
       <c r="I82" s="17"/>
     </row>
     <row r="83" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3075,7 +3094,7 @@
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="17"/>
-      <c r="H83" s="76"/>
+      <c r="H83" s="74"/>
       <c r="I83" s="17"/>
     </row>
     <row r="84" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3085,7 +3104,7 @@
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="17"/>
-      <c r="H84" s="76"/>
+      <c r="H84" s="74"/>
       <c r="I84" s="17"/>
     </row>
     <row r="85" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3095,7 +3114,7 @@
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17"/>
-      <c r="H85" s="76"/>
+      <c r="H85" s="74"/>
       <c r="I85" s="17"/>
     </row>
     <row r="86" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3105,7 +3124,7 @@
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="17"/>
-      <c r="H86" s="76"/>
+      <c r="H86" s="74"/>
       <c r="I86" s="17"/>
     </row>
     <row r="87" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3115,7 +3134,7 @@
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="17"/>
-      <c r="H87" s="76"/>
+      <c r="H87" s="74"/>
       <c r="I87" s="17"/>
     </row>
     <row r="88" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3125,7 +3144,7 @@
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="17"/>
-      <c r="H88" s="76"/>
+      <c r="H88" s="74"/>
       <c r="I88" s="17"/>
     </row>
     <row r="89" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3135,7 +3154,7 @@
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="17"/>
-      <c r="H89" s="76"/>
+      <c r="H89" s="74"/>
       <c r="I89" s="17"/>
     </row>
     <row r="90" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3145,7 +3164,7 @@
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="17"/>
-      <c r="H90" s="76"/>
+      <c r="H90" s="74"/>
       <c r="I90" s="17"/>
     </row>
     <row r="91" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3155,7 +3174,7 @@
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
       <c r="G91" s="17"/>
-      <c r="H91" s="76"/>
+      <c r="H91" s="74"/>
       <c r="I91" s="17"/>
     </row>
     <row r="92" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3165,7 +3184,7 @@
       <c r="E92" s="17"/>
       <c r="F92" s="17"/>
       <c r="G92" s="17"/>
-      <c r="H92" s="76"/>
+      <c r="H92" s="74"/>
       <c r="I92" s="17"/>
     </row>
     <row r="93" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3175,7 +3194,7 @@
       <c r="E93" s="17"/>
       <c r="F93" s="17"/>
       <c r="G93" s="17"/>
-      <c r="H93" s="76"/>
+      <c r="H93" s="74"/>
       <c r="I93" s="17"/>
     </row>
     <row r="94" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3185,7 +3204,7 @@
       <c r="E94" s="17"/>
       <c r="F94" s="17"/>
       <c r="G94" s="17"/>
-      <c r="H94" s="76"/>
+      <c r="H94" s="74"/>
       <c r="I94" s="17"/>
     </row>
     <row r="95" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3195,7 +3214,7 @@
       <c r="E95" s="17"/>
       <c r="F95" s="17"/>
       <c r="G95" s="17"/>
-      <c r="H95" s="76"/>
+      <c r="H95" s="74"/>
       <c r="I95" s="17"/>
     </row>
     <row r="96" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3205,7 +3224,7 @@
       <c r="E96" s="17"/>
       <c r="F96" s="17"/>
       <c r="G96" s="17"/>
-      <c r="H96" s="76"/>
+      <c r="H96" s="74"/>
       <c r="I96" s="17"/>
     </row>
     <row r="97" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3215,7 +3234,7 @@
       <c r="E97" s="17"/>
       <c r="F97" s="17"/>
       <c r="G97" s="17"/>
-      <c r="H97" s="76"/>
+      <c r="H97" s="74"/>
       <c r="I97" s="17"/>
     </row>
     <row r="98" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3225,7 +3244,7 @@
       <c r="E98" s="17"/>
       <c r="F98" s="17"/>
       <c r="G98" s="17"/>
-      <c r="H98" s="76"/>
+      <c r="H98" s="74"/>
       <c r="I98" s="17"/>
     </row>
     <row r="99" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3235,7 +3254,7 @@
       <c r="E99" s="17"/>
       <c r="F99" s="17"/>
       <c r="G99" s="17"/>
-      <c r="H99" s="76"/>
+      <c r="H99" s="74"/>
       <c r="I99" s="17"/>
     </row>
     <row r="100" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3245,7 +3264,7 @@
       <c r="E100" s="17"/>
       <c r="F100" s="17"/>
       <c r="G100" s="17"/>
-      <c r="H100" s="76"/>
+      <c r="H100" s="74"/>
       <c r="I100" s="17"/>
     </row>
     <row r="101" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3255,7 +3274,7 @@
       <c r="E101" s="17"/>
       <c r="F101" s="17"/>
       <c r="G101" s="17"/>
-      <c r="H101" s="76"/>
+      <c r="H101" s="74"/>
       <c r="I101" s="14"/>
     </row>
     <row r="102" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3265,7 +3284,7 @@
       <c r="E102" s="17"/>
       <c r="F102" s="17"/>
       <c r="G102" s="17"/>
-      <c r="H102" s="76"/>
+      <c r="H102" s="74"/>
       <c r="I102" s="14"/>
     </row>
     <row r="103" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3275,7 +3294,7 @@
       <c r="E103" s="17"/>
       <c r="F103" s="17"/>
       <c r="G103" s="17"/>
-      <c r="H103" s="76"/>
+      <c r="H103" s="74"/>
       <c r="I103" s="14"/>
     </row>
     <row r="104" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3285,7 +3304,7 @@
       <c r="E104" s="17"/>
       <c r="F104" s="17"/>
       <c r="G104" s="17"/>
-      <c r="H104" s="76"/>
+      <c r="H104" s="74"/>
       <c r="I104" s="14"/>
     </row>
     <row r="105" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3295,7 +3314,7 @@
       <c r="E105" s="17"/>
       <c r="F105" s="17"/>
       <c r="G105" s="17"/>
-      <c r="H105" s="76"/>
+      <c r="H105" s="74"/>
       <c r="I105" s="14"/>
     </row>
     <row r="106" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3305,7 +3324,7 @@
       <c r="E106" s="17"/>
       <c r="F106" s="17"/>
       <c r="G106" s="17"/>
-      <c r="H106" s="76"/>
+      <c r="H106" s="74"/>
       <c r="I106" s="14"/>
     </row>
     <row r="107" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3315,7 +3334,7 @@
       <c r="E107" s="17"/>
       <c r="F107" s="17"/>
       <c r="G107" s="17"/>
-      <c r="H107" s="76"/>
+      <c r="H107" s="74"/>
       <c r="I107" s="14"/>
     </row>
     <row r="108" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3325,7 +3344,7 @@
       <c r="E108" s="17"/>
       <c r="F108" s="17"/>
       <c r="G108" s="17"/>
-      <c r="H108" s="76"/>
+      <c r="H108" s="74"/>
       <c r="I108" s="14"/>
     </row>
     <row r="109" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3335,7 +3354,7 @@
       <c r="E109" s="17"/>
       <c r="F109" s="17"/>
       <c r="G109" s="17"/>
-      <c r="H109" s="76"/>
+      <c r="H109" s="74"/>
       <c r="I109" s="14"/>
     </row>
     <row r="110" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3345,7 +3364,7 @@
       <c r="E110" s="17"/>
       <c r="F110" s="17"/>
       <c r="G110" s="17"/>
-      <c r="H110" s="76"/>
+      <c r="H110" s="74"/>
       <c r="I110" s="14"/>
     </row>
     <row r="111" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3355,7 +3374,7 @@
       <c r="E111" s="17"/>
       <c r="F111" s="17"/>
       <c r="G111" s="17"/>
-      <c r="H111" s="76"/>
+      <c r="H111" s="74"/>
       <c r="I111" s="14"/>
     </row>
     <row r="112" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3365,7 +3384,7 @@
       <c r="E112" s="17"/>
       <c r="F112" s="17"/>
       <c r="G112" s="17"/>
-      <c r="H112" s="76"/>
+      <c r="H112" s="74"/>
       <c r="I112" s="14"/>
     </row>
     <row r="113" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3375,7 +3394,7 @@
       <c r="E113" s="17"/>
       <c r="F113" s="17"/>
       <c r="G113" s="17"/>
-      <c r="H113" s="76"/>
+      <c r="H113" s="74"/>
       <c r="I113" s="14"/>
     </row>
     <row r="114" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3385,7 +3404,7 @@
       <c r="E114" s="17"/>
       <c r="F114" s="17"/>
       <c r="G114" s="17"/>
-      <c r="H114" s="76"/>
+      <c r="H114" s="74"/>
       <c r="I114" s="14"/>
     </row>
     <row r="115" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3395,7 +3414,7 @@
       <c r="E115" s="17"/>
       <c r="F115" s="17"/>
       <c r="G115" s="17"/>
-      <c r="H115" s="76"/>
+      <c r="H115" s="74"/>
       <c r="I115" s="14"/>
     </row>
     <row r="116" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3405,7 +3424,7 @@
       <c r="E116" s="17"/>
       <c r="F116" s="17"/>
       <c r="G116" s="17"/>
-      <c r="H116" s="76"/>
+      <c r="H116" s="74"/>
       <c r="I116" s="14"/>
     </row>
     <row r="117" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3415,7 +3434,7 @@
       <c r="E117" s="17"/>
       <c r="F117" s="14"/>
       <c r="G117" s="17"/>
-      <c r="H117" s="76"/>
+      <c r="H117" s="74"/>
       <c r="I117" s="14"/>
     </row>
     <row r="118" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3425,7 +3444,7 @@
       <c r="E118" s="17"/>
       <c r="F118" s="14"/>
       <c r="G118" s="17"/>
-      <c r="H118" s="76"/>
+      <c r="H118" s="74"/>
       <c r="I118" s="14"/>
     </row>
     <row r="119" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3435,7 +3454,7 @@
       <c r="E119" s="17"/>
       <c r="F119" s="14"/>
       <c r="G119" s="17"/>
-      <c r="H119" s="76"/>
+      <c r="H119" s="74"/>
       <c r="I119" s="14"/>
     </row>
     <row r="120" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3445,7 +3464,7 @@
       <c r="E120" s="17"/>
       <c r="F120" s="14"/>
       <c r="G120" s="17"/>
-      <c r="H120" s="76"/>
+      <c r="H120" s="74"/>
       <c r="I120" s="14"/>
     </row>
     <row r="121" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3455,7 +3474,7 @@
       <c r="E121" s="17"/>
       <c r="F121" s="14"/>
       <c r="G121" s="17"/>
-      <c r="H121" s="76"/>
+      <c r="H121" s="74"/>
       <c r="I121" s="14"/>
     </row>
     <row r="122" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3465,7 +3484,7 @@
       <c r="E122" s="17"/>
       <c r="F122" s="14"/>
       <c r="G122" s="17"/>
-      <c r="H122" s="76"/>
+      <c r="H122" s="74"/>
       <c r="I122" s="14"/>
     </row>
     <row r="123" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3475,7 +3494,7 @@
       <c r="E123" s="17"/>
       <c r="F123" s="14"/>
       <c r="G123" s="17"/>
-      <c r="H123" s="76"/>
+      <c r="H123" s="74"/>
       <c r="I123" s="14"/>
     </row>
     <row r="124" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3485,7 +3504,7 @@
       <c r="E124" s="17"/>
       <c r="F124" s="14"/>
       <c r="G124" s="17"/>
-      <c r="H124" s="76"/>
+      <c r="H124" s="74"/>
       <c r="I124" s="14"/>
     </row>
     <row r="125" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3495,7 +3514,7 @@
       <c r="E125" s="17"/>
       <c r="F125" s="14"/>
       <c r="G125" s="17"/>
-      <c r="H125" s="76"/>
+      <c r="H125" s="74"/>
       <c r="I125" s="14"/>
     </row>
     <row r="126" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3505,7 +3524,7 @@
       <c r="E126" s="17"/>
       <c r="F126" s="14"/>
       <c r="G126" s="17"/>
-      <c r="H126" s="76"/>
+      <c r="H126" s="74"/>
       <c r="I126" s="14"/>
     </row>
     <row r="127" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3515,7 +3534,7 @@
       <c r="E127" s="17"/>
       <c r="F127" s="14"/>
       <c r="G127" s="17"/>
-      <c r="H127" s="76"/>
+      <c r="H127" s="74"/>
       <c r="I127" s="14"/>
     </row>
     <row r="128" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3525,7 +3544,7 @@
       <c r="E128" s="17"/>
       <c r="F128" s="14"/>
       <c r="G128" s="17"/>
-      <c r="H128" s="76"/>
+      <c r="H128" s="74"/>
       <c r="I128" s="14"/>
     </row>
     <row r="129" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3535,7 +3554,7 @@
       <c r="E129" s="17"/>
       <c r="F129" s="14"/>
       <c r="G129" s="17"/>
-      <c r="H129" s="76"/>
+      <c r="H129" s="74"/>
       <c r="I129" s="14"/>
     </row>
     <row r="130" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3545,7 +3564,7 @@
       <c r="E130" s="17"/>
       <c r="F130" s="14"/>
       <c r="G130" s="17"/>
-      <c r="H130" s="76"/>
+      <c r="H130" s="74"/>
       <c r="I130" s="14"/>
     </row>
     <row r="131" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3555,7 +3574,7 @@
       <c r="E131" s="17"/>
       <c r="F131" s="14"/>
       <c r="G131" s="17"/>
-      <c r="H131" s="76"/>
+      <c r="H131" s="74"/>
       <c r="I131" s="14"/>
     </row>
     <row r="132" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3565,7 +3584,7 @@
       <c r="E132" s="17"/>
       <c r="F132" s="14"/>
       <c r="G132" s="17"/>
-      <c r="H132" s="76"/>
+      <c r="H132" s="74"/>
       <c r="I132" s="14"/>
     </row>
     <row r="133" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3575,7 +3594,7 @@
       <c r="E133" s="17"/>
       <c r="F133" s="14"/>
       <c r="G133" s="17"/>
-      <c r="H133" s="76"/>
+      <c r="H133" s="74"/>
       <c r="I133" s="14"/>
     </row>
     <row r="134" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3585,7 +3604,7 @@
       <c r="E134" s="17"/>
       <c r="F134" s="14"/>
       <c r="G134" s="17"/>
-      <c r="H134" s="76"/>
+      <c r="H134" s="74"/>
       <c r="I134" s="14"/>
     </row>
     <row r="135" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3595,7 +3614,7 @@
       <c r="E135" s="17"/>
       <c r="F135" s="14"/>
       <c r="G135" s="17"/>
-      <c r="H135" s="76"/>
+      <c r="H135" s="74"/>
       <c r="I135" s="14"/>
     </row>
     <row r="136" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3605,7 +3624,7 @@
       <c r="E136" s="17"/>
       <c r="F136" s="14"/>
       <c r="G136" s="17"/>
-      <c r="H136" s="76"/>
+      <c r="H136" s="74"/>
       <c r="I136" s="14"/>
     </row>
     <row r="137" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3615,7 +3634,7 @@
       <c r="E137" s="17"/>
       <c r="F137" s="14"/>
       <c r="G137" s="17"/>
-      <c r="H137" s="76"/>
+      <c r="H137" s="74"/>
       <c r="I137" s="14"/>
     </row>
     <row r="138" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3625,7 +3644,7 @@
       <c r="E138" s="17"/>
       <c r="F138" s="14"/>
       <c r="G138" s="17"/>
-      <c r="H138" s="76"/>
+      <c r="H138" s="74"/>
       <c r="I138" s="14"/>
     </row>
     <row r="139" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3635,7 +3654,7 @@
       <c r="E139" s="17"/>
       <c r="F139" s="14"/>
       <c r="G139" s="17"/>
-      <c r="H139" s="76"/>
+      <c r="H139" s="74"/>
       <c r="I139" s="14"/>
     </row>
     <row r="140" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3645,7 +3664,7 @@
       <c r="E140" s="17"/>
       <c r="F140" s="14"/>
       <c r="G140" s="17"/>
-      <c r="H140" s="76"/>
+      <c r="H140" s="74"/>
       <c r="I140" s="14"/>
     </row>
     <row r="141" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3655,7 +3674,7 @@
       <c r="E141" s="17"/>
       <c r="F141" s="14"/>
       <c r="G141" s="17"/>
-      <c r="H141" s="76"/>
+      <c r="H141" s="74"/>
       <c r="I141" s="14"/>
     </row>
     <row r="142" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3665,7 +3684,7 @@
       <c r="E142" s="17"/>
       <c r="F142" s="14"/>
       <c r="G142" s="17"/>
-      <c r="H142" s="76"/>
+      <c r="H142" s="74"/>
       <c r="I142" s="14"/>
     </row>
     <row r="143" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3675,7 +3694,7 @@
       <c r="E143" s="17"/>
       <c r="F143" s="14"/>
       <c r="G143" s="17"/>
-      <c r="H143" s="76"/>
+      <c r="H143" s="74"/>
       <c r="I143" s="14"/>
     </row>
     <row r="144" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3685,7 +3704,7 @@
       <c r="E144" s="17"/>
       <c r="F144" s="14"/>
       <c r="G144" s="17"/>
-      <c r="H144" s="76"/>
+      <c r="H144" s="74"/>
       <c r="I144" s="14"/>
     </row>
     <row r="145" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3695,7 +3714,7 @@
       <c r="E145" s="17"/>
       <c r="F145" s="14"/>
       <c r="G145" s="17"/>
-      <c r="H145" s="76"/>
+      <c r="H145" s="74"/>
       <c r="I145" s="14"/>
     </row>
     <row r="146" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3705,7 +3724,7 @@
       <c r="E146" s="17"/>
       <c r="F146" s="14"/>
       <c r="G146" s="17"/>
-      <c r="H146" s="76"/>
+      <c r="H146" s="74"/>
       <c r="I146" s="14"/>
     </row>
     <row r="147" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3715,7 +3734,7 @@
       <c r="E147" s="17"/>
       <c r="F147" s="14"/>
       <c r="G147" s="17"/>
-      <c r="H147" s="76"/>
+      <c r="H147" s="74"/>
       <c r="I147" s="14"/>
     </row>
     <row r="148" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3725,7 +3744,7 @@
       <c r="E148" s="17"/>
       <c r="F148" s="14"/>
       <c r="G148" s="17"/>
-      <c r="H148" s="76"/>
+      <c r="H148" s="74"/>
       <c r="I148" s="14"/>
     </row>
     <row r="149" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3735,7 +3754,7 @@
       <c r="E149" s="17"/>
       <c r="F149" s="14"/>
       <c r="G149" s="17"/>
-      <c r="H149" s="76"/>
+      <c r="H149" s="74"/>
       <c r="I149" s="14"/>
     </row>
     <row r="150" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3745,7 +3764,7 @@
       <c r="E150" s="17"/>
       <c r="F150" s="14"/>
       <c r="G150" s="17"/>
-      <c r="H150" s="76"/>
+      <c r="H150" s="74"/>
       <c r="I150" s="14"/>
     </row>
     <row r="151" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3755,7 +3774,7 @@
       <c r="E151" s="17"/>
       <c r="F151" s="14"/>
       <c r="G151" s="17"/>
-      <c r="H151" s="76"/>
+      <c r="H151" s="74"/>
       <c r="I151" s="14"/>
     </row>
     <row r="152" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3765,7 +3784,7 @@
       <c r="E152" s="17"/>
       <c r="F152" s="14"/>
       <c r="G152" s="17"/>
-      <c r="H152" s="76"/>
+      <c r="H152" s="74"/>
       <c r="I152" s="14"/>
     </row>
     <row r="153" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3775,7 +3794,7 @@
       <c r="E153" s="17"/>
       <c r="F153" s="14"/>
       <c r="G153" s="17"/>
-      <c r="H153" s="76"/>
+      <c r="H153" s="74"/>
       <c r="I153" s="14"/>
     </row>
     <row r="154" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3785,7 +3804,7 @@
       <c r="E154" s="17"/>
       <c r="F154" s="14"/>
       <c r="G154" s="17"/>
-      <c r="H154" s="76"/>
+      <c r="H154" s="74"/>
       <c r="I154" s="14"/>
     </row>
     <row r="155" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3795,7 +3814,7 @@
       <c r="E155" s="17"/>
       <c r="F155" s="14"/>
       <c r="G155" s="17"/>
-      <c r="H155" s="76"/>
+      <c r="H155" s="74"/>
       <c r="I155" s="14"/>
     </row>
     <row r="156" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3805,7 +3824,7 @@
       <c r="E156" s="17"/>
       <c r="F156" s="14"/>
       <c r="G156" s="17"/>
-      <c r="H156" s="76"/>
+      <c r="H156" s="74"/>
       <c r="I156" s="14"/>
     </row>
     <row r="157" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3815,7 +3834,7 @@
       <c r="E157" s="17"/>
       <c r="F157" s="14"/>
       <c r="G157" s="17"/>
-      <c r="H157" s="76"/>
+      <c r="H157" s="74"/>
       <c r="I157" s="14"/>
     </row>
     <row r="158" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3825,7 +3844,7 @@
       <c r="E158" s="17"/>
       <c r="F158" s="14"/>
       <c r="G158" s="17"/>
-      <c r="H158" s="76"/>
+      <c r="H158" s="74"/>
       <c r="I158" s="14"/>
     </row>
     <row r="159" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3835,7 +3854,7 @@
       <c r="E159" s="17"/>
       <c r="F159" s="14"/>
       <c r="G159" s="17"/>
-      <c r="H159" s="76"/>
+      <c r="H159" s="74"/>
       <c r="I159" s="14"/>
     </row>
     <row r="160" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3845,7 +3864,7 @@
       <c r="E160" s="17"/>
       <c r="F160" s="14"/>
       <c r="G160" s="17"/>
-      <c r="H160" s="76"/>
+      <c r="H160" s="74"/>
       <c r="I160" s="14"/>
     </row>
     <row r="161" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3855,7 +3874,7 @@
       <c r="E161" s="17"/>
       <c r="F161" s="14"/>
       <c r="G161" s="17"/>
-      <c r="H161" s="76"/>
+      <c r="H161" s="74"/>
       <c r="I161" s="14"/>
     </row>
     <row r="162" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3865,7 +3884,7 @@
       <c r="E162" s="17"/>
       <c r="F162" s="14"/>
       <c r="G162" s="17"/>
-      <c r="H162" s="76"/>
+      <c r="H162" s="74"/>
       <c r="I162" s="14"/>
     </row>
     <row r="163" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3875,7 +3894,7 @@
       <c r="E163" s="17"/>
       <c r="F163" s="14"/>
       <c r="G163" s="17"/>
-      <c r="H163" s="76"/>
+      <c r="H163" s="74"/>
       <c r="I163" s="14"/>
     </row>
     <row r="164" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3885,7 +3904,7 @@
       <c r="E164" s="17"/>
       <c r="F164" s="14"/>
       <c r="G164" s="17"/>
-      <c r="H164" s="76"/>
+      <c r="H164" s="74"/>
       <c r="I164" s="14"/>
     </row>
     <row r="165" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3895,7 +3914,7 @@
       <c r="E165" s="17"/>
       <c r="F165" s="14"/>
       <c r="G165" s="17"/>
-      <c r="H165" s="76"/>
+      <c r="H165" s="74"/>
       <c r="I165" s="14"/>
     </row>
     <row r="166" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3905,7 +3924,7 @@
       <c r="E166" s="17"/>
       <c r="F166" s="14"/>
       <c r="G166" s="17"/>
-      <c r="H166" s="76"/>
+      <c r="H166" s="74"/>
       <c r="I166" s="14"/>
     </row>
     <row r="167" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3915,7 +3934,7 @@
       <c r="E167" s="17"/>
       <c r="F167" s="14"/>
       <c r="G167" s="17"/>
-      <c r="H167" s="76"/>
+      <c r="H167" s="74"/>
       <c r="I167" s="14"/>
     </row>
     <row r="168" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3925,7 +3944,7 @@
       <c r="E168" s="17"/>
       <c r="F168" s="14"/>
       <c r="G168" s="17"/>
-      <c r="H168" s="76"/>
+      <c r="H168" s="74"/>
       <c r="I168" s="14"/>
     </row>
     <row r="169" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3935,7 +3954,7 @@
       <c r="E169" s="17"/>
       <c r="F169" s="14"/>
       <c r="G169" s="17"/>
-      <c r="H169" s="76"/>
+      <c r="H169" s="74"/>
       <c r="I169" s="14"/>
     </row>
     <row r="170" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3945,7 +3964,7 @@
       <c r="E170" s="17"/>
       <c r="F170" s="14"/>
       <c r="G170" s="17"/>
-      <c r="H170" s="76"/>
+      <c r="H170" s="74"/>
       <c r="I170" s="14"/>
     </row>
     <row r="171" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3955,7 +3974,7 @@
       <c r="E171" s="17"/>
       <c r="F171" s="14"/>
       <c r="G171" s="17"/>
-      <c r="H171" s="76"/>
+      <c r="H171" s="74"/>
       <c r="I171" s="14"/>
     </row>
     <row r="172" spans="2:9" ht="21" x14ac:dyDescent="0.35">
@@ -3965,7 +3984,7 @@
       <c r="E172" s="17"/>
       <c r="F172" s="14"/>
       <c r="G172" s="17"/>
-      <c r="H172" s="76"/>
+      <c r="H172" s="74"/>
       <c r="I172" s="14"/>
     </row>
     <row r="173" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3975,7 +3994,7 @@
       <c r="E173" s="17"/>
       <c r="F173" s="14"/>
       <c r="G173" s="17"/>
-      <c r="H173" s="76"/>
+      <c r="H173" s="74"/>
       <c r="I173" s="14"/>
     </row>
     <row r="174" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3985,7 +4004,7 @@
       <c r="E174" s="17"/>
       <c r="F174" s="14"/>
       <c r="G174" s="17"/>
-      <c r="H174" s="76"/>
+      <c r="H174" s="74"/>
       <c r="I174" s="14"/>
     </row>
     <row r="175" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3995,7 +4014,7 @@
       <c r="E175" s="17"/>
       <c r="F175" s="14"/>
       <c r="G175" s="17"/>
-      <c r="H175" s="76"/>
+      <c r="H175" s="74"/>
       <c r="I175" s="14"/>
     </row>
     <row r="176" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4005,7 +4024,7 @@
       <c r="E176" s="17"/>
       <c r="F176" s="14"/>
       <c r="G176" s="17"/>
-      <c r="H176" s="76"/>
+      <c r="H176" s="74"/>
       <c r="I176" s="14"/>
     </row>
     <row r="177" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4015,7 +4034,7 @@
       <c r="E177" s="17"/>
       <c r="F177" s="14"/>
       <c r="G177" s="17"/>
-      <c r="H177" s="76"/>
+      <c r="H177" s="74"/>
       <c r="I177" s="14"/>
     </row>
     <row r="178" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4025,7 +4044,7 @@
       <c r="E178" s="17"/>
       <c r="F178" s="14"/>
       <c r="G178" s="17"/>
-      <c r="H178" s="76"/>
+      <c r="H178" s="74"/>
       <c r="I178" s="14"/>
     </row>
     <row r="179" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4035,7 +4054,7 @@
       <c r="E179" s="17"/>
       <c r="F179" s="14"/>
       <c r="G179" s="17"/>
-      <c r="H179" s="76"/>
+      <c r="H179" s="74"/>
       <c r="I179" s="14"/>
     </row>
     <row r="180" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4045,7 +4064,7 @@
       <c r="E180" s="17"/>
       <c r="F180" s="14"/>
       <c r="G180" s="17"/>
-      <c r="H180" s="76"/>
+      <c r="H180" s="74"/>
       <c r="I180" s="14"/>
     </row>
     <row r="181" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4055,7 +4074,7 @@
       <c r="E181" s="17"/>
       <c r="F181" s="14"/>
       <c r="G181" s="17"/>
-      <c r="H181" s="76"/>
+      <c r="H181" s="74"/>
       <c r="I181" s="14"/>
     </row>
     <row r="182" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4065,7 +4084,7 @@
       <c r="E182" s="17"/>
       <c r="F182" s="14"/>
       <c r="G182" s="17"/>
-      <c r="H182" s="76"/>
+      <c r="H182" s="74"/>
       <c r="I182" s="14"/>
     </row>
     <row r="183" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4075,7 +4094,7 @@
       <c r="E183" s="17"/>
       <c r="F183" s="14"/>
       <c r="G183" s="17"/>
-      <c r="H183" s="76"/>
+      <c r="H183" s="74"/>
       <c r="I183" s="14"/>
     </row>
     <row r="184" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4085,7 +4104,7 @@
       <c r="E184" s="17"/>
       <c r="F184" s="14"/>
       <c r="G184" s="17"/>
-      <c r="H184" s="76"/>
+      <c r="H184" s="74"/>
       <c r="I184" s="14"/>
     </row>
     <row r="185" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4095,7 +4114,7 @@
       <c r="E185" s="17"/>
       <c r="F185" s="14"/>
       <c r="G185" s="17"/>
-      <c r="H185" s="76"/>
+      <c r="H185" s="74"/>
       <c r="I185" s="14"/>
     </row>
     <row r="186" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4105,7 +4124,7 @@
       <c r="E186" s="17"/>
       <c r="F186" s="14"/>
       <c r="G186" s="17"/>
-      <c r="H186" s="76"/>
+      <c r="H186" s="74"/>
       <c r="I186" s="14"/>
     </row>
     <row r="187" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4115,7 +4134,7 @@
       <c r="E187" s="17"/>
       <c r="F187" s="14"/>
       <c r="G187" s="17"/>
-      <c r="H187" s="76"/>
+      <c r="H187" s="74"/>
       <c r="I187" s="14"/>
     </row>
     <row r="188" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4125,7 +4144,7 @@
       <c r="E188" s="17"/>
       <c r="F188" s="14"/>
       <c r="G188" s="17"/>
-      <c r="H188" s="76"/>
+      <c r="H188" s="74"/>
       <c r="I188" s="14"/>
     </row>
     <row r="189" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4135,7 +4154,7 @@
       <c r="E189" s="17"/>
       <c r="F189" s="14"/>
       <c r="G189" s="17"/>
-      <c r="H189" s="76"/>
+      <c r="H189" s="74"/>
       <c r="I189" s="14"/>
     </row>
     <row r="190" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4145,7 +4164,7 @@
       <c r="E190" s="17"/>
       <c r="F190" s="14"/>
       <c r="G190" s="17"/>
-      <c r="H190" s="76"/>
+      <c r="H190" s="74"/>
       <c r="I190" s="14"/>
     </row>
     <row r="191" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4155,7 +4174,7 @@
       <c r="E191" s="17"/>
       <c r="F191" s="14"/>
       <c r="G191" s="17"/>
-      <c r="H191" s="76"/>
+      <c r="H191" s="74"/>
       <c r="I191" s="14"/>
     </row>
     <row r="192" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4165,7 +4184,7 @@
       <c r="E192" s="17"/>
       <c r="F192" s="14"/>
       <c r="G192" s="17"/>
-      <c r="H192" s="76"/>
+      <c r="H192" s="74"/>
       <c r="I192" s="14"/>
     </row>
     <row r="193" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4175,7 +4194,7 @@
       <c r="E193" s="17"/>
       <c r="F193" s="14"/>
       <c r="G193" s="17"/>
-      <c r="H193" s="76"/>
+      <c r="H193" s="74"/>
       <c r="I193" s="14"/>
     </row>
     <row r="194" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4185,7 +4204,7 @@
       <c r="E194" s="17"/>
       <c r="F194" s="14"/>
       <c r="G194" s="17"/>
-      <c r="H194" s="76"/>
+      <c r="H194" s="74"/>
       <c r="I194" s="14"/>
     </row>
     <row r="195" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4195,7 +4214,7 @@
       <c r="E195" s="17"/>
       <c r="F195" s="14"/>
       <c r="G195" s="17"/>
-      <c r="H195" s="76"/>
+      <c r="H195" s="74"/>
       <c r="I195" s="14"/>
     </row>
     <row r="196" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4205,7 +4224,7 @@
       <c r="E196" s="17"/>
       <c r="F196" s="14"/>
       <c r="G196" s="17"/>
-      <c r="H196" s="76"/>
+      <c r="H196" s="74"/>
       <c r="I196" s="14"/>
     </row>
     <row r="197" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4215,7 +4234,7 @@
       <c r="E197" s="17"/>
       <c r="F197" s="14"/>
       <c r="G197" s="17"/>
-      <c r="H197" s="76"/>
+      <c r="H197" s="74"/>
       <c r="I197" s="14"/>
     </row>
     <row r="198" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4225,7 +4244,7 @@
       <c r="E198" s="17"/>
       <c r="F198" s="14"/>
       <c r="G198" s="17"/>
-      <c r="H198" s="76"/>
+      <c r="H198" s="74"/>
       <c r="I198" s="14"/>
     </row>
     <row r="199" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4235,7 +4254,7 @@
       <c r="E199" s="17"/>
       <c r="F199" s="14"/>
       <c r="G199" s="17"/>
-      <c r="H199" s="76"/>
+      <c r="H199" s="74"/>
       <c r="I199" s="14"/>
     </row>
     <row r="200" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4245,7 +4264,7 @@
       <c r="E200" s="17"/>
       <c r="F200" s="14"/>
       <c r="G200" s="17"/>
-      <c r="H200" s="76"/>
+      <c r="H200" s="74"/>
       <c r="I200" s="14"/>
     </row>
     <row r="201" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4255,7 +4274,7 @@
       <c r="E201" s="17"/>
       <c r="F201" s="14"/>
       <c r="G201" s="17"/>
-      <c r="H201" s="76"/>
+      <c r="H201" s="74"/>
       <c r="I201" s="14"/>
     </row>
     <row r="202" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4265,7 +4284,7 @@
       <c r="E202" s="17"/>
       <c r="F202" s="14"/>
       <c r="G202" s="17"/>
-      <c r="H202" s="76"/>
+      <c r="H202" s="74"/>
       <c r="I202" s="14"/>
     </row>
     <row r="203" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4275,7 +4294,7 @@
       <c r="E203" s="17"/>
       <c r="F203" s="14"/>
       <c r="G203" s="17"/>
-      <c r="H203" s="76"/>
+      <c r="H203" s="74"/>
       <c r="I203" s="14"/>
     </row>
     <row r="204" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4285,7 +4304,7 @@
       <c r="E204" s="17"/>
       <c r="F204" s="14"/>
       <c r="G204" s="17"/>
-      <c r="H204" s="76"/>
+      <c r="H204" s="74"/>
       <c r="I204" s="14"/>
     </row>
     <row r="205" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4295,7 +4314,7 @@
       <c r="E205" s="17"/>
       <c r="F205" s="14"/>
       <c r="G205" s="17"/>
-      <c r="H205" s="76"/>
+      <c r="H205" s="74"/>
       <c r="I205" s="14"/>
     </row>
     <row r="206" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4305,7 +4324,7 @@
       <c r="E206" s="17"/>
       <c r="F206" s="14"/>
       <c r="G206" s="17"/>
-      <c r="H206" s="76"/>
+      <c r="H206" s="74"/>
       <c r="I206" s="14"/>
     </row>
     <row r="207" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4315,7 +4334,7 @@
       <c r="E207" s="17"/>
       <c r="F207" s="14"/>
       <c r="G207" s="17"/>
-      <c r="H207" s="76"/>
+      <c r="H207" s="74"/>
       <c r="I207" s="14"/>
     </row>
     <row r="208" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4325,7 +4344,7 @@
       <c r="E208" s="17"/>
       <c r="F208" s="14"/>
       <c r="G208" s="17"/>
-      <c r="H208" s="76"/>
+      <c r="H208" s="74"/>
       <c r="I208" s="14"/>
     </row>
     <row r="209" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4335,7 +4354,7 @@
       <c r="E209" s="17"/>
       <c r="F209" s="14"/>
       <c r="G209" s="17"/>
-      <c r="H209" s="76"/>
+      <c r="H209" s="74"/>
       <c r="I209" s="14"/>
     </row>
     <row r="210" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4345,7 +4364,7 @@
       <c r="E210" s="17"/>
       <c r="F210" s="14"/>
       <c r="G210" s="17"/>
-      <c r="H210" s="76"/>
+      <c r="H210" s="74"/>
       <c r="I210" s="14"/>
     </row>
     <row r="211" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4355,7 +4374,7 @@
       <c r="E211" s="17"/>
       <c r="F211" s="14"/>
       <c r="G211" s="17"/>
-      <c r="H211" s="76"/>
+      <c r="H211" s="74"/>
       <c r="I211" s="14"/>
     </row>
     <row r="212" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4365,7 +4384,7 @@
       <c r="E212" s="17"/>
       <c r="F212" s="14"/>
       <c r="G212" s="17"/>
-      <c r="H212" s="76"/>
+      <c r="H212" s="74"/>
       <c r="I212" s="14"/>
     </row>
     <row r="213" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4375,7 +4394,7 @@
       <c r="E213" s="17"/>
       <c r="F213" s="14"/>
       <c r="G213" s="17"/>
-      <c r="H213" s="76"/>
+      <c r="H213" s="74"/>
       <c r="I213" s="14"/>
     </row>
     <row r="214" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4385,7 +4404,7 @@
       <c r="E214" s="17"/>
       <c r="F214" s="14"/>
       <c r="G214" s="17"/>
-      <c r="H214" s="76"/>
+      <c r="H214" s="74"/>
       <c r="I214" s="14"/>
     </row>
     <row r="215" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4395,7 +4414,7 @@
       <c r="E215" s="17"/>
       <c r="F215" s="14"/>
       <c r="G215" s="17"/>
-      <c r="H215" s="76"/>
+      <c r="H215" s="74"/>
       <c r="I215" s="14"/>
     </row>
     <row r="216" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4405,7 +4424,7 @@
       <c r="E216" s="17"/>
       <c r="F216" s="14"/>
       <c r="G216" s="17"/>
-      <c r="H216" s="76"/>
+      <c r="H216" s="74"/>
       <c r="I216" s="14"/>
     </row>
     <row r="217" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4415,7 +4434,7 @@
       <c r="E217" s="17"/>
       <c r="F217" s="14"/>
       <c r="G217" s="17"/>
-      <c r="H217" s="76"/>
+      <c r="H217" s="74"/>
       <c r="I217" s="14"/>
     </row>
     <row r="218" spans="2:9" x14ac:dyDescent="0.25">
@@ -4425,7 +4444,7 @@
       <c r="E218" s="33"/>
       <c r="F218" s="13"/>
       <c r="G218" s="33"/>
-      <c r="H218" s="83"/>
+      <c r="H218" s="81"/>
       <c r="I218" s="13"/>
     </row>
     <row r="219" spans="2:9" x14ac:dyDescent="0.25">
@@ -4435,7 +4454,7 @@
       <c r="E219" s="33"/>
       <c r="F219" s="13"/>
       <c r="G219" s="33"/>
-      <c r="H219" s="83"/>
+      <c r="H219" s="81"/>
       <c r="I219" s="13"/>
     </row>
     <row r="220" spans="2:9" x14ac:dyDescent="0.25">
@@ -4445,7 +4464,7 @@
       <c r="E220" s="33"/>
       <c r="F220" s="13"/>
       <c r="G220" s="33"/>
-      <c r="H220" s="83"/>
+      <c r="H220" s="81"/>
       <c r="I220" s="13"/>
     </row>
     <row r="221" spans="2:9" x14ac:dyDescent="0.25">
@@ -4455,7 +4474,7 @@
       <c r="E221" s="33"/>
       <c r="F221" s="13"/>
       <c r="G221" s="33"/>
-      <c r="H221" s="83"/>
+      <c r="H221" s="81"/>
       <c r="I221" s="13"/>
     </row>
     <row r="222" spans="2:9" x14ac:dyDescent="0.25">
@@ -4465,7 +4484,7 @@
       <c r="E222" s="33"/>
       <c r="F222" s="13"/>
       <c r="G222" s="33"/>
-      <c r="H222" s="83"/>
+      <c r="H222" s="81"/>
       <c r="I222" s="13"/>
     </row>
     <row r="223" spans="2:9" x14ac:dyDescent="0.25">
@@ -4475,7 +4494,7 @@
       <c r="E223" s="33"/>
       <c r="F223" s="13"/>
       <c r="G223" s="33"/>
-      <c r="H223" s="83"/>
+      <c r="H223" s="81"/>
       <c r="I223" s="13"/>
     </row>
     <row r="224" spans="2:9" x14ac:dyDescent="0.25">
@@ -4485,7 +4504,7 @@
       <c r="E224" s="33"/>
       <c r="F224" s="13"/>
       <c r="G224" s="33"/>
-      <c r="H224" s="83"/>
+      <c r="H224" s="81"/>
       <c r="I224" s="13"/>
     </row>
     <row r="225" spans="2:9" x14ac:dyDescent="0.25">
@@ -4495,7 +4514,7 @@
       <c r="E225" s="33"/>
       <c r="F225" s="13"/>
       <c r="G225" s="33"/>
-      <c r="H225" s="83"/>
+      <c r="H225" s="81"/>
       <c r="I225" s="13"/>
     </row>
     <row r="226" spans="2:9" x14ac:dyDescent="0.25">
@@ -4505,7 +4524,7 @@
       <c r="E226" s="33"/>
       <c r="F226" s="13"/>
       <c r="G226" s="33"/>
-      <c r="H226" s="83"/>
+      <c r="H226" s="81"/>
       <c r="I226" s="13"/>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.25">
@@ -4515,7 +4534,7 @@
       <c r="E227" s="33"/>
       <c r="F227" s="13"/>
       <c r="G227" s="33"/>
-      <c r="H227" s="83"/>
+      <c r="H227" s="81"/>
       <c r="I227" s="13"/>
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.25">
@@ -4525,7 +4544,7 @@
       <c r="E228" s="33"/>
       <c r="F228" s="13"/>
       <c r="G228" s="33"/>
-      <c r="H228" s="83"/>
+      <c r="H228" s="81"/>
       <c r="I228" s="13"/>
     </row>
     <row r="229" spans="2:9" x14ac:dyDescent="0.25">
@@ -4535,7 +4554,7 @@
       <c r="E229" s="33"/>
       <c r="F229" s="13"/>
       <c r="G229" s="33"/>
-      <c r="H229" s="83"/>
+      <c r="H229" s="81"/>
       <c r="I229" s="13"/>
     </row>
     <row r="230" spans="2:9" x14ac:dyDescent="0.25">
@@ -4545,7 +4564,7 @@
       <c r="E230" s="33"/>
       <c r="F230" s="13"/>
       <c r="G230" s="33"/>
-      <c r="H230" s="83"/>
+      <c r="H230" s="81"/>
       <c r="I230" s="13"/>
     </row>
     <row r="231" spans="2:9" x14ac:dyDescent="0.25">
@@ -4555,7 +4574,7 @@
       <c r="E231" s="33"/>
       <c r="F231" s="13"/>
       <c r="G231" s="33"/>
-      <c r="H231" s="83"/>
+      <c r="H231" s="81"/>
       <c r="I231" s="13"/>
     </row>
     <row r="232" spans="2:9" x14ac:dyDescent="0.25">
@@ -4565,7 +4584,7 @@
       <c r="E232" s="33"/>
       <c r="F232" s="13"/>
       <c r="G232" s="33"/>
-      <c r="H232" s="83"/>
+      <c r="H232" s="81"/>
       <c r="I232" s="13"/>
     </row>
     <row r="233" spans="2:9" x14ac:dyDescent="0.25">
@@ -4575,7 +4594,7 @@
       <c r="E233" s="33"/>
       <c r="F233" s="13"/>
       <c r="G233" s="33"/>
-      <c r="H233" s="83"/>
+      <c r="H233" s="81"/>
       <c r="I233" s="13"/>
     </row>
     <row r="234" spans="2:9" x14ac:dyDescent="0.25">
@@ -4585,7 +4604,7 @@
       <c r="E234" s="33"/>
       <c r="F234" s="13"/>
       <c r="G234" s="33"/>
-      <c r="H234" s="83"/>
+      <c r="H234" s="81"/>
       <c r="I234" s="13"/>
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.25">
@@ -4595,7 +4614,7 @@
       <c r="E235" s="33"/>
       <c r="F235" s="13"/>
       <c r="G235" s="33"/>
-      <c r="H235" s="83"/>
+      <c r="H235" s="81"/>
       <c r="I235" s="13"/>
     </row>
     <row r="236" spans="2:9" x14ac:dyDescent="0.25">
@@ -4605,7 +4624,7 @@
       <c r="E236" s="33"/>
       <c r="F236" s="13"/>
       <c r="G236" s="33"/>
-      <c r="H236" s="83"/>
+      <c r="H236" s="81"/>
       <c r="I236" s="13"/>
     </row>
     <row r="237" spans="2:9" x14ac:dyDescent="0.25">
@@ -4615,7 +4634,7 @@
       <c r="E237" s="33"/>
       <c r="F237" s="13"/>
       <c r="G237" s="33"/>
-      <c r="H237" s="83"/>
+      <c r="H237" s="81"/>
       <c r="I237" s="13"/>
     </row>
     <row r="238" spans="2:9" x14ac:dyDescent="0.25">
@@ -4625,7 +4644,7 @@
       <c r="E238" s="33"/>
       <c r="F238" s="13"/>
       <c r="G238" s="33"/>
-      <c r="H238" s="83"/>
+      <c r="H238" s="81"/>
       <c r="I238" s="13"/>
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.25">
@@ -4635,7 +4654,7 @@
       <c r="E239" s="33"/>
       <c r="F239" s="13"/>
       <c r="G239" s="33"/>
-      <c r="H239" s="83"/>
+      <c r="H239" s="81"/>
       <c r="I239" s="13"/>
     </row>
     <row r="240" spans="2:9" x14ac:dyDescent="0.25">
@@ -4645,7 +4664,7 @@
       <c r="E240" s="33"/>
       <c r="F240" s="13"/>
       <c r="G240" s="33"/>
-      <c r="H240" s="83"/>
+      <c r="H240" s="81"/>
       <c r="I240" s="13"/>
     </row>
     <row r="241" spans="2:9" x14ac:dyDescent="0.25">
@@ -4655,7 +4674,7 @@
       <c r="E241" s="33"/>
       <c r="F241" s="13"/>
       <c r="G241" s="33"/>
-      <c r="H241" s="83"/>
+      <c r="H241" s="81"/>
       <c r="I241" s="13"/>
     </row>
     <row r="242" spans="2:9" x14ac:dyDescent="0.25">
@@ -4665,7 +4684,7 @@
       <c r="E242" s="33"/>
       <c r="F242" s="13"/>
       <c r="G242" s="33"/>
-      <c r="H242" s="83"/>
+      <c r="H242" s="81"/>
       <c r="I242" s="13"/>
     </row>
     <row r="243" spans="2:9" x14ac:dyDescent="0.25">
@@ -4675,7 +4694,7 @@
       <c r="E243" s="33"/>
       <c r="F243" s="13"/>
       <c r="G243" s="33"/>
-      <c r="H243" s="83"/>
+      <c r="H243" s="81"/>
       <c r="I243" s="13"/>
     </row>
     <row r="244" spans="2:9" x14ac:dyDescent="0.25">
@@ -4685,7 +4704,7 @@
       <c r="E244" s="33"/>
       <c r="F244" s="13"/>
       <c r="G244" s="33"/>
-      <c r="H244" s="83"/>
+      <c r="H244" s="81"/>
       <c r="I244" s="13"/>
     </row>
     <row r="245" spans="2:9" x14ac:dyDescent="0.25">
@@ -4695,7 +4714,7 @@
       <c r="E245" s="33"/>
       <c r="F245" s="13"/>
       <c r="G245" s="33"/>
-      <c r="H245" s="83"/>
+      <c r="H245" s="81"/>
       <c r="I245" s="13"/>
     </row>
     <row r="246" spans="2:9" x14ac:dyDescent="0.25">
@@ -4705,7 +4724,7 @@
       <c r="E246" s="33"/>
       <c r="F246" s="13"/>
       <c r="G246" s="33"/>
-      <c r="H246" s="83"/>
+      <c r="H246" s="81"/>
       <c r="I246" s="13"/>
     </row>
     <row r="247" spans="2:9" x14ac:dyDescent="0.25">
@@ -4715,7 +4734,7 @@
       <c r="E247" s="33"/>
       <c r="F247" s="13"/>
       <c r="G247" s="33"/>
-      <c r="H247" s="83"/>
+      <c r="H247" s="81"/>
       <c r="I247" s="13"/>
     </row>
     <row r="248" spans="2:9" x14ac:dyDescent="0.25">
@@ -4725,7 +4744,7 @@
       <c r="E248" s="33"/>
       <c r="F248" s="13"/>
       <c r="G248" s="33"/>
-      <c r="H248" s="83"/>
+      <c r="H248" s="81"/>
       <c r="I248" s="13"/>
     </row>
     <row r="249" spans="2:9" x14ac:dyDescent="0.25">
@@ -4735,7 +4754,7 @@
       <c r="E249" s="33"/>
       <c r="F249" s="13"/>
       <c r="G249" s="33"/>
-      <c r="H249" s="83"/>
+      <c r="H249" s="81"/>
       <c r="I249" s="13"/>
     </row>
     <row r="250" spans="2:9" x14ac:dyDescent="0.25">
@@ -4745,7 +4764,7 @@
       <c r="E250" s="33"/>
       <c r="F250" s="13"/>
       <c r="G250" s="33"/>
-      <c r="H250" s="83"/>
+      <c r="H250" s="81"/>
       <c r="I250" s="13"/>
     </row>
     <row r="251" spans="2:9" x14ac:dyDescent="0.25">
@@ -4755,7 +4774,7 @@
       <c r="E251" s="33"/>
       <c r="F251" s="13"/>
       <c r="G251" s="33"/>
-      <c r="H251" s="83"/>
+      <c r="H251" s="81"/>
       <c r="I251" s="13"/>
     </row>
     <row r="252" spans="2:9" x14ac:dyDescent="0.25">
@@ -4765,7 +4784,7 @@
       <c r="E252" s="33"/>
       <c r="F252" s="13"/>
       <c r="G252" s="33"/>
-      <c r="H252" s="83"/>
+      <c r="H252" s="81"/>
       <c r="I252" s="13"/>
     </row>
     <row r="253" spans="2:9" x14ac:dyDescent="0.25">
@@ -4775,7 +4794,7 @@
       <c r="E253" s="33"/>
       <c r="F253" s="13"/>
       <c r="G253" s="33"/>
-      <c r="H253" s="83"/>
+      <c r="H253" s="81"/>
       <c r="I253" s="13"/>
     </row>
     <row r="254" spans="2:9" x14ac:dyDescent="0.25">
@@ -4785,7 +4804,7 @@
       <c r="E254" s="33"/>
       <c r="F254" s="13"/>
       <c r="G254" s="33"/>
-      <c r="H254" s="83"/>
+      <c r="H254" s="81"/>
       <c r="I254" s="13"/>
     </row>
     <row r="255" spans="2:9" x14ac:dyDescent="0.25">
@@ -4795,7 +4814,7 @@
       <c r="E255" s="33"/>
       <c r="F255" s="13"/>
       <c r="G255" s="33"/>
-      <c r="H255" s="83"/>
+      <c r="H255" s="81"/>
       <c r="I255" s="13"/>
     </row>
     <row r="256" spans="2:9" x14ac:dyDescent="0.25">
@@ -4805,7 +4824,7 @@
       <c r="E256" s="13"/>
       <c r="F256" s="13"/>
       <c r="G256" s="33"/>
-      <c r="H256" s="83"/>
+      <c r="H256" s="81"/>
       <c r="I256" s="13"/>
     </row>
     <row r="257" spans="2:9" x14ac:dyDescent="0.25">
@@ -4815,7 +4834,7 @@
       <c r="E257" s="13"/>
       <c r="F257" s="13"/>
       <c r="G257" s="33"/>
-      <c r="H257" s="83"/>
+      <c r="H257" s="81"/>
       <c r="I257" s="13"/>
     </row>
     <row r="258" spans="2:9" x14ac:dyDescent="0.25">
@@ -4825,7 +4844,7 @@
       <c r="E258" s="13"/>
       <c r="F258" s="13"/>
       <c r="G258" s="33"/>
-      <c r="H258" s="83"/>
+      <c r="H258" s="81"/>
       <c r="I258" s="13"/>
     </row>
     <row r="259" spans="2:9" x14ac:dyDescent="0.25">
@@ -4835,7 +4854,7 @@
       <c r="E259" s="13"/>
       <c r="F259" s="13"/>
       <c r="G259" s="33"/>
-      <c r="H259" s="83"/>
+      <c r="H259" s="81"/>
       <c r="I259" s="13"/>
     </row>
     <row r="260" spans="2:9" x14ac:dyDescent="0.25">
@@ -4845,7 +4864,7 @@
       <c r="E260" s="13"/>
       <c r="F260" s="13"/>
       <c r="G260" s="33"/>
-      <c r="H260" s="83"/>
+      <c r="H260" s="81"/>
       <c r="I260" s="13"/>
     </row>
     <row r="261" spans="2:9" x14ac:dyDescent="0.25">
@@ -4855,7 +4874,7 @@
       <c r="E261" s="13"/>
       <c r="F261" s="13"/>
       <c r="G261" s="33"/>
-      <c r="H261" s="83"/>
+      <c r="H261" s="81"/>
       <c r="I261" s="13"/>
     </row>
     <row r="262" spans="2:9" x14ac:dyDescent="0.25">
@@ -4865,7 +4884,7 @@
       <c r="E262" s="13"/>
       <c r="F262" s="13"/>
       <c r="G262" s="33"/>
-      <c r="H262" s="83"/>
+      <c r="H262" s="81"/>
       <c r="I262" s="13"/>
     </row>
     <row r="263" spans="2:9" x14ac:dyDescent="0.25">
@@ -4875,7 +4894,7 @@
       <c r="E263" s="13"/>
       <c r="F263" s="13"/>
       <c r="G263" s="33"/>
-      <c r="H263" s="83"/>
+      <c r="H263" s="81"/>
       <c r="I263" s="13"/>
     </row>
     <row r="264" spans="2:9" x14ac:dyDescent="0.25">
@@ -4885,7 +4904,7 @@
       <c r="E264" s="13"/>
       <c r="F264" s="13"/>
       <c r="G264" s="33"/>
-      <c r="H264" s="83"/>
+      <c r="H264" s="81"/>
       <c r="I264" s="13"/>
     </row>
     <row r="265" spans="2:9" x14ac:dyDescent="0.25">
@@ -4895,7 +4914,7 @@
       <c r="E265" s="13"/>
       <c r="F265" s="13"/>
       <c r="G265" s="33"/>
-      <c r="H265" s="83"/>
+      <c r="H265" s="81"/>
       <c r="I265" s="13"/>
     </row>
     <row r="266" spans="2:9" x14ac:dyDescent="0.25">
@@ -4905,7 +4924,7 @@
       <c r="E266" s="13"/>
       <c r="F266" s="13"/>
       <c r="G266" s="33"/>
-      <c r="H266" s="83"/>
+      <c r="H266" s="81"/>
       <c r="I266" s="13"/>
     </row>
     <row r="267" spans="2:9" x14ac:dyDescent="0.25">
@@ -4915,7 +4934,7 @@
       <c r="E267" s="13"/>
       <c r="F267" s="13"/>
       <c r="G267" s="33"/>
-      <c r="H267" s="83"/>
+      <c r="H267" s="81"/>
       <c r="I267" s="13"/>
     </row>
     <row r="268" spans="2:9" x14ac:dyDescent="0.25">
@@ -4925,7 +4944,7 @@
       <c r="E268" s="13"/>
       <c r="F268" s="13"/>
       <c r="G268" s="33"/>
-      <c r="H268" s="83"/>
+      <c r="H268" s="81"/>
       <c r="I268" s="13"/>
     </row>
     <row r="269" spans="2:9" x14ac:dyDescent="0.25">
@@ -4935,7 +4954,7 @@
       <c r="E269" s="13"/>
       <c r="F269" s="13"/>
       <c r="G269" s="33"/>
-      <c r="H269" s="83"/>
+      <c r="H269" s="81"/>
       <c r="I269" s="13"/>
     </row>
     <row r="270" spans="2:9" x14ac:dyDescent="0.25">
@@ -4945,7 +4964,7 @@
       <c r="E270" s="13"/>
       <c r="F270" s="13"/>
       <c r="G270" s="33"/>
-      <c r="H270" s="83"/>
+      <c r="H270" s="81"/>
       <c r="I270" s="13"/>
     </row>
     <row r="271" spans="2:9" x14ac:dyDescent="0.25">
@@ -4955,7 +4974,7 @@
       <c r="E271" s="13"/>
       <c r="F271" s="13"/>
       <c r="G271" s="33"/>
-      <c r="H271" s="83"/>
+      <c r="H271" s="81"/>
       <c r="I271" s="13"/>
     </row>
     <row r="272" spans="2:9" x14ac:dyDescent="0.25">
@@ -4965,7 +4984,7 @@
       <c r="E272" s="13"/>
       <c r="F272" s="13"/>
       <c r="G272" s="33"/>
-      <c r="H272" s="83"/>
+      <c r="H272" s="81"/>
       <c r="I272" s="13"/>
     </row>
     <row r="273" spans="2:9" x14ac:dyDescent="0.25">
@@ -4975,7 +4994,7 @@
       <c r="E273" s="13"/>
       <c r="F273" s="13"/>
       <c r="G273" s="33"/>
-      <c r="H273" s="83"/>
+      <c r="H273" s="81"/>
       <c r="I273" s="13"/>
     </row>
     <row r="274" spans="2:9" x14ac:dyDescent="0.25">
@@ -4985,7 +5004,7 @@
       <c r="E274" s="13"/>
       <c r="F274" s="13"/>
       <c r="G274" s="33"/>
-      <c r="H274" s="83"/>
+      <c r="H274" s="81"/>
       <c r="I274" s="13"/>
     </row>
     <row r="275" spans="2:9" x14ac:dyDescent="0.25">
@@ -4995,7 +5014,7 @@
       <c r="E275" s="13"/>
       <c r="F275" s="13"/>
       <c r="G275" s="33"/>
-      <c r="H275" s="83"/>
+      <c r="H275" s="81"/>
       <c r="I275" s="13"/>
     </row>
     <row r="276" spans="2:9" x14ac:dyDescent="0.25">
@@ -5005,7 +5024,7 @@
       <c r="E276" s="13"/>
       <c r="F276" s="13"/>
       <c r="G276" s="33"/>
-      <c r="H276" s="83"/>
+      <c r="H276" s="81"/>
       <c r="I276" s="13"/>
     </row>
     <row r="277" spans="2:9" x14ac:dyDescent="0.25">
@@ -5015,7 +5034,7 @@
       <c r="E277" s="13"/>
       <c r="F277" s="13"/>
       <c r="G277" s="33"/>
-      <c r="H277" s="83"/>
+      <c r="H277" s="81"/>
       <c r="I277" s="13"/>
     </row>
     <row r="278" spans="2:9" x14ac:dyDescent="0.25">
@@ -5025,7 +5044,7 @@
       <c r="E278" s="13"/>
       <c r="F278" s="13"/>
       <c r="G278" s="33"/>
-      <c r="H278" s="83"/>
+      <c r="H278" s="81"/>
       <c r="I278" s="13"/>
     </row>
     <row r="279" spans="2:9" x14ac:dyDescent="0.25">
@@ -5035,7 +5054,7 @@
       <c r="E279" s="13"/>
       <c r="F279" s="13"/>
       <c r="G279" s="33"/>
-      <c r="H279" s="83"/>
+      <c r="H279" s="81"/>
       <c r="I279" s="13"/>
     </row>
     <row r="280" spans="2:9" x14ac:dyDescent="0.25">
@@ -5045,7 +5064,7 @@
       <c r="E280" s="13"/>
       <c r="F280" s="13"/>
       <c r="G280" s="33"/>
-      <c r="H280" s="83"/>
+      <c r="H280" s="81"/>
       <c r="I280" s="13"/>
     </row>
     <row r="281" spans="2:9" x14ac:dyDescent="0.25">
@@ -5055,7 +5074,7 @@
       <c r="E281" s="13"/>
       <c r="F281" s="13"/>
       <c r="G281" s="33"/>
-      <c r="H281" s="83"/>
+      <c r="H281" s="81"/>
       <c r="I281" s="13"/>
     </row>
     <row r="282" spans="2:9" x14ac:dyDescent="0.25">
@@ -5065,7 +5084,7 @@
       <c r="E282" s="13"/>
       <c r="F282" s="13"/>
       <c r="G282" s="33"/>
-      <c r="H282" s="83"/>
+      <c r="H282" s="81"/>
       <c r="I282" s="13"/>
     </row>
     <row r="283" spans="2:9" x14ac:dyDescent="0.25">
@@ -5075,7 +5094,7 @@
       <c r="E283" s="13"/>
       <c r="F283" s="13"/>
       <c r="G283" s="33"/>
-      <c r="H283" s="83"/>
+      <c r="H283" s="81"/>
       <c r="I283" s="13"/>
     </row>
     <row r="284" spans="2:9" x14ac:dyDescent="0.25">
@@ -5085,7 +5104,7 @@
       <c r="E284" s="13"/>
       <c r="F284" s="13"/>
       <c r="G284" s="33"/>
-      <c r="H284" s="83"/>
+      <c r="H284" s="81"/>
       <c r="I284" s="13"/>
     </row>
     <row r="285" spans="2:9" x14ac:dyDescent="0.25">
@@ -5095,7 +5114,7 @@
       <c r="E285" s="13"/>
       <c r="F285" s="13"/>
       <c r="G285" s="33"/>
-      <c r="H285" s="83"/>
+      <c r="H285" s="81"/>
       <c r="I285" s="13"/>
     </row>
     <row r="286" spans="2:9" x14ac:dyDescent="0.25">
@@ -5105,7 +5124,7 @@
       <c r="E286" s="13"/>
       <c r="F286" s="13"/>
       <c r="G286" s="33"/>
-      <c r="H286" s="83"/>
+      <c r="H286" s="81"/>
       <c r="I286" s="13"/>
     </row>
     <row r="287" spans="2:9" x14ac:dyDescent="0.25">
@@ -5115,7 +5134,7 @@
       <c r="E287" s="13"/>
       <c r="F287" s="13"/>
       <c r="G287" s="33"/>
-      <c r="H287" s="83"/>
+      <c r="H287" s="81"/>
       <c r="I287" s="13"/>
     </row>
     <row r="288" spans="2:9" x14ac:dyDescent="0.25">
@@ -5125,7 +5144,7 @@
       <c r="E288" s="13"/>
       <c r="F288" s="13"/>
       <c r="G288" s="33"/>
-      <c r="H288" s="83"/>
+      <c r="H288" s="81"/>
       <c r="I288" s="13"/>
     </row>
     <row r="289" spans="2:9" x14ac:dyDescent="0.25">
@@ -5135,7 +5154,7 @@
       <c r="E289" s="13"/>
       <c r="F289" s="13"/>
       <c r="G289" s="33"/>
-      <c r="H289" s="83"/>
+      <c r="H289" s="81"/>
       <c r="I289" s="13"/>
     </row>
     <row r="290" spans="2:9" x14ac:dyDescent="0.25">
@@ -5145,7 +5164,7 @@
       <c r="E290" s="13"/>
       <c r="F290" s="13"/>
       <c r="G290" s="33"/>
-      <c r="H290" s="83"/>
+      <c r="H290" s="81"/>
       <c r="I290" s="13"/>
     </row>
     <row r="291" spans="2:9" x14ac:dyDescent="0.25">
@@ -5155,7 +5174,7 @@
       <c r="E291" s="13"/>
       <c r="F291" s="13"/>
       <c r="G291" s="33"/>
-      <c r="H291" s="83"/>
+      <c r="H291" s="81"/>
       <c r="I291" s="13"/>
     </row>
   </sheetData>

--- a/trunk/1. Project management/AS_PM_MasterPlan.xlsx
+++ b/trunk/1. Project management/AS_PM_MasterPlan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Revision history" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="110">
   <si>
     <t>Document Reviewer Information</t>
   </si>
@@ -200,9 +200,6 @@
     <t>Create sprint backlog</t>
   </si>
   <si>
-    <t xml:space="preserve">design database </t>
-  </si>
-  <si>
     <t xml:space="preserve">create database </t>
   </si>
   <si>
@@ -308,19 +305,7 @@
     <t>identify entities of product</t>
   </si>
   <si>
-    <t>14/1/2014</t>
-  </si>
-  <si>
-    <t>15/1/2014</t>
-  </si>
-  <si>
     <t>17/1/2014</t>
-  </si>
-  <si>
-    <t>18/1/2014</t>
-  </si>
-  <si>
-    <t>19/1/2014</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -342,7 +327,25 @@
     <t>GOING</t>
   </si>
   <si>
-    <t>review sớm hơn</t>
+    <t>update architecture design</t>
+  </si>
+  <si>
+    <t>31/12/2014</t>
+  </si>
+  <si>
+    <t>18/1/1900</t>
+  </si>
+  <si>
+    <t>23/01/2014</t>
+  </si>
+  <si>
+    <t>24/1/2014</t>
+  </si>
+  <si>
+    <t>25/1/2014</t>
+  </si>
+  <si>
+    <t>updaye design phase</t>
   </si>
 </sst>
 </file>
@@ -352,7 +355,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,6 +446,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -500,7 +509,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -935,11 +944,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1185,6 +1207,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="10" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1224,28 +1252,12 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1552,16 +1564,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
   </cols>
@@ -1598,11 +1610,11 @@
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="87"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="89"/>
     </row>
     <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
@@ -1695,12 +1707,22 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
+      <c r="B20" s="12">
+        <v>41529</v>
+      </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="11"/>
+      <c r="D20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="11">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1712,10 +1734,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J291"/>
+  <dimension ref="B1:J291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A48" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1732,16 +1754,16 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="96"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="98"/>
     </row>
     <row r="3" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="46" t="s">
@@ -1760,7 +1782,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H3" s="47" t="s">
         <v>21</v>
@@ -1773,7 +1795,7 @@
       <c r="B4" s="34">
         <v>1</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="90" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="35" t="s">
@@ -1789,17 +1811,17 @@
         <v>41466</v>
       </c>
       <c r="H4" s="71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:9" s="55" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="37">
         <v>2</v>
       </c>
-      <c r="C5" s="89"/>
+      <c r="C5" s="91"/>
       <c r="D5" s="38" t="s">
         <v>26</v>
       </c>
@@ -1807,23 +1829,23 @@
         <v>41466</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="22" t="s">
         <v>73</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="37">
         <v>3</v>
       </c>
-      <c r="C6" s="89"/>
+      <c r="C6" s="91"/>
       <c r="D6" s="38" t="s">
         <v>27</v>
       </c>
@@ -1831,23 +1853,23 @@
         <v>41466</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" s="39"/>
       <c r="H6" s="72" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="82" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="37">
         <v>4</v>
       </c>
-      <c r="C7" s="89"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" s="51">
         <v>41466</v>
@@ -1859,17 +1881,17 @@
         <v>41466</v>
       </c>
       <c r="H7" s="72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="37"/>
-      <c r="C8" s="89"/>
+      <c r="C8" s="91"/>
       <c r="D8" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="51">
         <v>41497</v>
@@ -1881,17 +1903,17 @@
         <v>41497</v>
       </c>
       <c r="H8" s="72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="37">
         <v>5</v>
       </c>
-      <c r="C9" s="89"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="38" t="s">
         <v>28</v>
       </c>
@@ -1899,23 +1921,23 @@
         <v>41466</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H9" s="72" t="s">
         <v>16</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="37">
         <v>6</v>
       </c>
-      <c r="C10" s="89"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="38" t="s">
         <v>29</v>
       </c>
@@ -1923,23 +1945,23 @@
         <v>41466</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="37">
         <v>7</v>
       </c>
-      <c r="C11" s="89"/>
+      <c r="C11" s="91"/>
       <c r="D11" s="38" t="s">
         <v>30</v>
       </c>
@@ -1947,23 +1969,23 @@
         <v>41466</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="37">
         <v>8</v>
       </c>
-      <c r="C12" s="89"/>
+      <c r="C12" s="91"/>
       <c r="D12" s="38" t="s">
         <v>31</v>
       </c>
@@ -1971,23 +1993,23 @@
         <v>41466</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H12" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="22" t="s">
         <v>73</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="37">
         <v>9</v>
       </c>
-      <c r="C13" s="89"/>
+      <c r="C13" s="91"/>
       <c r="D13" s="38" t="s">
         <v>32</v>
       </c>
@@ -1995,193 +2017,193 @@
         <v>41466</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H13" s="72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="37">
         <v>10</v>
       </c>
-      <c r="C14" s="89"/>
+      <c r="C14" s="91"/>
       <c r="D14" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="51">
         <v>41466</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H14" s="72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="37">
         <v>11</v>
       </c>
-      <c r="C15" s="89"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="51">
         <v>41466</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H15" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="22" t="s">
         <v>73</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="40">
         <v>12</v>
       </c>
-      <c r="C16" s="90"/>
+      <c r="C16" s="92"/>
       <c r="D16" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="50">
         <v>41466</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H16" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="22" t="s">
         <v>73</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="20">
         <v>13</v>
       </c>
-      <c r="C17" s="91" t="s">
+      <c r="C17" s="93" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H17" s="74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="23">
         <v>14</v>
       </c>
-      <c r="C18" s="92"/>
+      <c r="C18" s="94"/>
       <c r="D18" s="14" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="17" t="s">
-        <v>77</v>
-      </c>
       <c r="G18" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H18" s="74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="23">
         <v>15</v>
       </c>
-      <c r="C19" s="92"/>
+      <c r="C19" s="94"/>
       <c r="D19" s="14" t="s">
         <v>36</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H19" s="74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B20" s="23">
         <v>16</v>
       </c>
-      <c r="C20" s="92"/>
+      <c r="C20" s="94"/>
       <c r="D20" s="14" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H20" s="74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B21" s="23">
         <v>17</v>
       </c>
-      <c r="C21" s="92"/>
+      <c r="C21" s="94"/>
       <c r="D21" s="14" t="s">
         <v>38</v>
       </c>
@@ -2189,11 +2211,11 @@
         <v>41619</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I21" s="24"/>
     </row>
@@ -2201,7 +2223,7 @@
       <c r="B22" s="23">
         <v>18</v>
       </c>
-      <c r="C22" s="92"/>
+      <c r="C22" s="94"/>
       <c r="D22" s="14" t="s">
         <v>39</v>
       </c>
@@ -2209,11 +2231,11 @@
         <v>41619</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I22" s="24"/>
     </row>
@@ -2221,7 +2243,7 @@
       <c r="B23" s="23">
         <v>19</v>
       </c>
-      <c r="C23" s="92"/>
+      <c r="C23" s="94"/>
       <c r="D23" s="14" t="s">
         <v>41</v>
       </c>
@@ -2229,81 +2251,87 @@
         <v>41345</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I23" s="83" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B24" s="23">
         <v>20</v>
       </c>
-      <c r="C24" s="92"/>
+      <c r="C24" s="94"/>
       <c r="D24" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F24" s="30">
         <v>41376</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="I24" s="24"/>
+        <v>68</v>
+      </c>
+      <c r="I24" s="83" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="25" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="23">
         <v>21</v>
       </c>
-      <c r="C25" s="92"/>
+      <c r="C25" s="94"/>
       <c r="D25" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F25" s="30">
         <v>41376</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="I25" s="24"/>
+        <v>68</v>
+      </c>
+      <c r="I25" s="83" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="26" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="23">
         <v>22</v>
       </c>
-      <c r="C26" s="92"/>
+      <c r="C26" s="94"/>
       <c r="D26" s="14" t="s">
         <v>44</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F26" s="30">
         <v>41376</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="I26" s="24"/>
+        <v>68</v>
+      </c>
+      <c r="I26" s="83" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="27" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B27" s="23">
         <v>23</v>
       </c>
-      <c r="C27" s="92"/>
+      <c r="C27" s="94"/>
       <c r="D27" s="14" t="s">
         <v>45</v>
       </c>
@@ -2315,15 +2343,17 @@
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="I27" s="24"/>
+        <v>68</v>
+      </c>
+      <c r="I27" s="83" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="28" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="23">
         <v>24</v>
       </c>
-      <c r="C28" s="92"/>
+      <c r="C28" s="94"/>
       <c r="D28" s="14" t="s">
         <v>46</v>
       </c>
@@ -2335,15 +2365,17 @@
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="I28" s="24"/>
+        <v>68</v>
+      </c>
+      <c r="I28" s="83" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="29" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="23">
         <v>25</v>
       </c>
-      <c r="C29" s="92"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="14" t="s">
         <v>47</v>
       </c>
@@ -2355,15 +2387,17 @@
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="I29" s="24"/>
+        <v>68</v>
+      </c>
+      <c r="I29" s="83" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="30" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B30" s="23">
         <v>26</v>
       </c>
-      <c r="C30" s="92"/>
+      <c r="C30" s="94"/>
       <c r="D30" s="14" t="s">
         <v>48</v>
       </c>
@@ -2375,15 +2409,17 @@
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="I30" s="24"/>
+        <v>68</v>
+      </c>
+      <c r="I30" s="83" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="31" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B31" s="23">
         <v>27</v>
       </c>
-      <c r="C31" s="92"/>
+      <c r="C31" s="94"/>
       <c r="D31" s="14" t="s">
         <v>42</v>
       </c>
@@ -2395,15 +2431,17 @@
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="I31" s="24"/>
+        <v>68</v>
+      </c>
+      <c r="I31" s="83" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="32" spans="2:9" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23">
         <v>28</v>
       </c>
-      <c r="C32" s="92"/>
+      <c r="C32" s="94"/>
       <c r="D32" s="52" t="s">
         <v>49</v>
       </c>
@@ -2411,15 +2449,17 @@
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
       <c r="H32" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="I32" s="24"/>
-    </row>
-    <row r="33" spans="1:10" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="I32" s="83" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33" s="23">
         <v>29</v>
       </c>
-      <c r="C33" s="92"/>
+      <c r="C33" s="94"/>
       <c r="D33" s="52" t="s">
         <v>50</v>
       </c>
@@ -2427,15 +2467,17 @@
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
       <c r="H33" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="I33" s="24"/>
-    </row>
-    <row r="34" spans="1:10" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="I33" s="83" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="B34" s="23">
         <v>30</v>
       </c>
-      <c r="C34" s="92"/>
+      <c r="C34" s="94"/>
       <c r="D34" s="52" t="s">
         <v>51</v>
       </c>
@@ -2443,15 +2485,17 @@
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="I34" s="24"/>
-    </row>
-    <row r="35" spans="1:10" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="I34" s="83" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" s="23">
         <v>31</v>
       </c>
-      <c r="C35" s="92"/>
+      <c r="C35" s="94"/>
       <c r="D35" s="52" t="s">
         <v>52</v>
       </c>
@@ -2459,84 +2503,88 @@
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
       <c r="H35" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="I35" s="24"/>
-    </row>
-    <row r="36" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="I35" s="83" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="25">
         <v>32</v>
       </c>
-      <c r="C36" s="93"/>
+      <c r="C36" s="95"/>
       <c r="D36" s="26" t="s">
         <v>53</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G36" s="32"/>
       <c r="H36" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="I36" s="27"/>
-    </row>
-    <row r="37" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="I36" s="83" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="84">
         <v>33</v>
       </c>
-      <c r="C37" s="88" t="s">
+      <c r="C37" s="90" t="s">
         <v>54</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E37" s="69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F37" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="H37" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="G37" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="H37" s="71" t="s">
-        <v>78</v>
-      </c>
       <c r="I37" s="43"/>
     </row>
-    <row r="38" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="23">
         <v>34</v>
       </c>
-      <c r="C38" s="89"/>
+      <c r="C38" s="91"/>
       <c r="D38" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E38" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F38" s="67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G38" s="67"/>
       <c r="H38" s="75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I38" s="68"/>
     </row>
-    <row r="39" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B39" s="23">
         <v>35</v>
       </c>
-      <c r="C39" s="89"/>
+      <c r="C39" s="91"/>
       <c r="D39" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="51">
-        <v>41640</v>
+      <c r="E39" s="51" t="s">
+        <v>104</v>
       </c>
       <c r="F39" s="51">
         <v>41365</v>
@@ -2545,16 +2593,16 @@
       <c r="H39" s="72"/>
       <c r="I39" s="44"/>
     </row>
-    <row r="40" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B40" s="23">
         <v>36</v>
       </c>
-      <c r="C40" s="89"/>
+      <c r="C40" s="91"/>
       <c r="D40" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="51">
-        <v>41640</v>
+      <c r="E40" s="51" t="s">
+        <v>104</v>
       </c>
       <c r="F40" s="51">
         <v>41365</v>
@@ -2563,16 +2611,16 @@
       <c r="H40" s="72"/>
       <c r="I40" s="44"/>
     </row>
-    <row r="41" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B41" s="23">
         <v>37</v>
       </c>
-      <c r="C41" s="89"/>
+      <c r="C41" s="91"/>
       <c r="D41" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="51">
-        <v>41640</v>
+      <c r="E41" s="51" t="s">
+        <v>104</v>
       </c>
       <c r="F41" s="51">
         <v>41365</v>
@@ -2581,138 +2629,130 @@
       <c r="H41" s="72"/>
       <c r="I41" s="44"/>
     </row>
-    <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="23">
         <v>38</v>
       </c>
-      <c r="C42" s="89"/>
+      <c r="C42" s="91"/>
       <c r="D42" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E42" s="51">
         <v>41760</v>
       </c>
       <c r="F42" s="51">
-        <v>41518</v>
+        <v>41426</v>
       </c>
       <c r="G42" s="39"/>
       <c r="H42" s="72"/>
       <c r="I42" s="44"/>
     </row>
-    <row r="43" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="23">
         <v>39</v>
       </c>
-      <c r="C43" s="89"/>
+      <c r="C43" s="91"/>
       <c r="D43" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E43" s="51">
         <v>41760</v>
       </c>
       <c r="F43" s="51">
-        <v>41518</v>
+        <v>41426</v>
       </c>
       <c r="G43" s="39"/>
       <c r="H43" s="72"/>
       <c r="I43" s="44"/>
     </row>
-    <row r="44" spans="1:10" s="105" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="99">
-        <v>40</v>
-      </c>
-      <c r="C44" s="97"/>
-      <c r="D44" s="100" t="s">
-        <v>61</v>
-      </c>
-      <c r="E44" s="101">
+    <row r="44" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="23">
+        <v>41</v>
+      </c>
+      <c r="C44" s="99"/>
+      <c r="D44" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="51">
+        <v>41821</v>
+      </c>
+      <c r="F44" s="51">
+        <v>41883</v>
+      </c>
+      <c r="G44" s="39"/>
+      <c r="H44" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="I44" s="56"/>
+      <c r="J44" s="57"/>
+    </row>
+    <row r="45" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="23"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="85">
         <v>41913</v>
       </c>
-      <c r="F44" s="101">
-        <v>41944</v>
-      </c>
-      <c r="G44" s="102"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="104"/>
-    </row>
-    <row r="45" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="23">
-        <v>41</v>
-      </c>
-      <c r="C45" s="97"/>
-      <c r="D45" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" s="51">
-        <v>41974</v>
-      </c>
       <c r="F45" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G45" s="39"/>
-      <c r="H45" s="75" t="s">
-        <v>69</v>
-      </c>
+      <c r="H45" s="75"/>
       <c r="I45" s="56"/>
       <c r="J45" s="57"/>
     </row>
-    <row r="46" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>108</v>
-      </c>
-      <c r="B46" s="23">
-        <v>42</v>
-      </c>
-      <c r="C46" s="97"/>
-      <c r="D46" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" s="39" t="s">
-        <v>98</v>
+    <row r="46" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="23"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="85" t="s">
+        <v>105</v>
       </c>
       <c r="F46" s="39" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G46" s="39"/>
-      <c r="H46" s="75" t="s">
-        <v>69</v>
-      </c>
+      <c r="H46" s="75"/>
       <c r="I46" s="56"/>
       <c r="J46" s="57"/>
     </row>
-    <row r="47" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="25">
         <v>43</v>
       </c>
-      <c r="C47" s="98"/>
+      <c r="C47" s="101"/>
       <c r="D47" s="38" t="s">
         <v>60</v>
       </c>
       <c r="E47" s="54" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F47" s="54" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G47" s="54"/>
       <c r="H47" s="73" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I47" s="58"/>
       <c r="J47" s="57"/>
     </row>
-    <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="84">
         <v>44</v>
       </c>
-      <c r="C48" s="91" t="s">
-        <v>102</v>
+      <c r="C48" s="93" t="s">
+        <v>97</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F48" s="31"/>
       <c r="G48" s="31"/>
@@ -2723,9 +2763,9 @@
       <c r="B49" s="23">
         <v>45</v>
       </c>
-      <c r="C49" s="92"/>
+      <c r="C49" s="94"/>
       <c r="D49" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
@@ -2737,9 +2777,9 @@
       <c r="B50" s="23">
         <v>46</v>
       </c>
-      <c r="C50" s="92"/>
+      <c r="C50" s="94"/>
       <c r="D50" s="14" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
@@ -2751,9 +2791,9 @@
       <c r="B51" s="23">
         <v>47</v>
       </c>
-      <c r="C51" s="92"/>
+      <c r="C51" s="94"/>
       <c r="D51" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
@@ -2765,9 +2805,9 @@
       <c r="B52" s="23">
         <v>48</v>
       </c>
-      <c r="C52" s="92"/>
+      <c r="C52" s="94"/>
       <c r="D52" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
@@ -2779,9 +2819,9 @@
       <c r="B53" s="23">
         <v>49</v>
       </c>
-      <c r="C53" s="92"/>
+      <c r="C53" s="94"/>
       <c r="D53" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E53" s="63"/>
       <c r="F53" s="63"/>
@@ -2793,9 +2833,9 @@
       <c r="B54" s="23">
         <v>50</v>
       </c>
-      <c r="C54" s="92"/>
+      <c r="C54" s="94"/>
       <c r="D54" s="62" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E54" s="65"/>
       <c r="F54" s="17"/>
@@ -2807,9 +2847,9 @@
       <c r="B55" s="23">
         <v>51</v>
       </c>
-      <c r="C55" s="93"/>
+      <c r="C55" s="95"/>
       <c r="D55" s="26" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E55" s="59"/>
       <c r="F55" s="59"/>
@@ -2819,7 +2859,7 @@
     </row>
     <row r="56" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B56" s="34"/>
-      <c r="C56" s="88"/>
+      <c r="C56" s="90"/>
       <c r="D56" s="35"/>
       <c r="E56" s="36"/>
       <c r="F56" s="36"/>
@@ -2829,7 +2869,7 @@
     </row>
     <row r="57" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="37"/>
-      <c r="C57" s="89"/>
+      <c r="C57" s="91"/>
       <c r="D57" s="38"/>
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
@@ -2839,7 +2879,7 @@
     </row>
     <row r="58" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B58" s="37"/>
-      <c r="C58" s="89"/>
+      <c r="C58" s="91"/>
       <c r="D58" s="38"/>
       <c r="E58" s="39"/>
       <c r="F58" s="39"/>
@@ -2849,7 +2889,7 @@
     </row>
     <row r="59" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B59" s="37"/>
-      <c r="C59" s="89"/>
+      <c r="C59" s="91"/>
       <c r="D59" s="38"/>
       <c r="E59" s="39"/>
       <c r="F59" s="39"/>
@@ -2859,7 +2899,7 @@
     </row>
     <row r="60" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B60" s="37"/>
-      <c r="C60" s="89"/>
+      <c r="C60" s="91"/>
       <c r="D60" s="38"/>
       <c r="E60" s="39"/>
       <c r="F60" s="39"/>
@@ -2869,7 +2909,7 @@
     </row>
     <row r="61" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B61" s="37"/>
-      <c r="C61" s="89"/>
+      <c r="C61" s="91"/>
       <c r="D61" s="38"/>
       <c r="E61" s="39"/>
       <c r="F61" s="39"/>
@@ -2879,7 +2919,7 @@
     </row>
     <row r="62" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B62" s="37"/>
-      <c r="C62" s="89"/>
+      <c r="C62" s="91"/>
       <c r="D62" s="38"/>
       <c r="E62" s="39"/>
       <c r="F62" s="39"/>
@@ -2889,7 +2929,7 @@
     </row>
     <row r="63" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63" s="40"/>
-      <c r="C63" s="90"/>
+      <c r="C63" s="92"/>
       <c r="D63" s="41"/>
       <c r="E63" s="42"/>
       <c r="F63" s="42"/>
@@ -2899,7 +2939,7 @@
     </row>
     <row r="64" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B64" s="20"/>
-      <c r="C64" s="91"/>
+      <c r="C64" s="93"/>
       <c r="D64" s="21"/>
       <c r="E64" s="31"/>
       <c r="F64" s="31"/>
@@ -2909,7 +2949,7 @@
     </row>
     <row r="65" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B65" s="23"/>
-      <c r="C65" s="92"/>
+      <c r="C65" s="94"/>
       <c r="D65" s="14"/>
       <c r="E65" s="17"/>
       <c r="F65" s="17"/>
@@ -2919,7 +2959,7 @@
     </row>
     <row r="66" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B66" s="23"/>
-      <c r="C66" s="92"/>
+      <c r="C66" s="94"/>
       <c r="D66" s="14"/>
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
@@ -2929,7 +2969,7 @@
     </row>
     <row r="67" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B67" s="23"/>
-      <c r="C67" s="92"/>
+      <c r="C67" s="94"/>
       <c r="D67" s="14"/>
       <c r="E67" s="17"/>
       <c r="F67" s="17"/>
@@ -2939,7 +2979,7 @@
     </row>
     <row r="68" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B68" s="23"/>
-      <c r="C68" s="92"/>
+      <c r="C68" s="94"/>
       <c r="D68" s="14"/>
       <c r="E68" s="17"/>
       <c r="F68" s="17"/>
@@ -2949,7 +2989,7 @@
     </row>
     <row r="69" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B69" s="23"/>
-      <c r="C69" s="92"/>
+      <c r="C69" s="94"/>
       <c r="D69" s="14"/>
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
@@ -2959,7 +2999,7 @@
     </row>
     <row r="70" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B70" s="23"/>
-      <c r="C70" s="92"/>
+      <c r="C70" s="94"/>
       <c r="D70" s="14"/>
       <c r="E70" s="17"/>
       <c r="F70" s="17"/>
@@ -2969,7 +3009,7 @@
     </row>
     <row r="71" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B71" s="25"/>
-      <c r="C71" s="93"/>
+      <c r="C71" s="95"/>
       <c r="D71" s="26"/>
       <c r="E71" s="32"/>
       <c r="F71" s="32"/>
@@ -2979,7 +3019,7 @@
     </row>
     <row r="72" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B72" s="34"/>
-      <c r="C72" s="88"/>
+      <c r="C72" s="90"/>
       <c r="D72" s="35"/>
       <c r="E72" s="36"/>
       <c r="F72" s="36"/>
@@ -2989,7 +3029,7 @@
     </row>
     <row r="73" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B73" s="37"/>
-      <c r="C73" s="89"/>
+      <c r="C73" s="91"/>
       <c r="D73" s="38"/>
       <c r="E73" s="39"/>
       <c r="F73" s="39"/>
@@ -2999,7 +3039,7 @@
     </row>
     <row r="74" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B74" s="37"/>
-      <c r="C74" s="89"/>
+      <c r="C74" s="91"/>
       <c r="D74" s="38"/>
       <c r="E74" s="39"/>
       <c r="F74" s="39"/>
@@ -3009,7 +3049,7 @@
     </row>
     <row r="75" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B75" s="37"/>
-      <c r="C75" s="89"/>
+      <c r="C75" s="91"/>
       <c r="D75" s="38"/>
       <c r="E75" s="39"/>
       <c r="F75" s="39"/>
@@ -3019,7 +3059,7 @@
     </row>
     <row r="76" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B76" s="37"/>
-      <c r="C76" s="89"/>
+      <c r="C76" s="91"/>
       <c r="D76" s="38"/>
       <c r="E76" s="39"/>
       <c r="F76" s="39"/>
@@ -3029,7 +3069,7 @@
     </row>
     <row r="77" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B77" s="37"/>
-      <c r="C77" s="89"/>
+      <c r="C77" s="91"/>
       <c r="D77" s="38"/>
       <c r="E77" s="39"/>
       <c r="F77" s="39"/>
@@ -3039,7 +3079,7 @@
     </row>
     <row r="78" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B78" s="37"/>
-      <c r="C78" s="89"/>
+      <c r="C78" s="91"/>
       <c r="D78" s="38"/>
       <c r="E78" s="39"/>
       <c r="F78" s="39"/>
@@ -3049,7 +3089,7 @@
     </row>
     <row r="79" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B79" s="40"/>
-      <c r="C79" s="90"/>
+      <c r="C79" s="92"/>
       <c r="D79" s="41"/>
       <c r="E79" s="42"/>
       <c r="F79" s="42"/>

--- a/trunk/1. Project management/AS_PM_MasterPlan.xlsx
+++ b/trunk/1. Project management/AS_PM_MasterPlan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revision history" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="110">
   <si>
     <t>Document Reviewer Information</t>
   </si>
@@ -264,9 +264,6 @@
   </si>
   <si>
     <t>30/12/2013</t>
-  </si>
-  <si>
-    <t>20/01/2013</t>
   </si>
   <si>
     <t>31/12/2013</t>
@@ -346,6 +343,9 @@
   </si>
   <si>
     <t>updaye design phase</t>
+  </si>
+  <si>
+    <t>25/01/2013</t>
   </si>
 </sst>
 </file>
@@ -1564,7 +1564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -1715,7 +1715,7 @@
         <v>15</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>16</v>
@@ -1736,8 +1736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J291"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1860,7 +1860,7 @@
         <v>16</v>
       </c>
       <c r="I6" s="82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1924,7 +1924,7 @@
         <v>80</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H9" s="72" t="s">
         <v>16</v>
@@ -1948,7 +1948,7 @@
         <v>80</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H10" s="72" t="s">
         <v>69</v>
@@ -1972,7 +1972,7 @@
         <v>80</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H11" s="72" t="s">
         <v>70</v>
@@ -1996,7 +1996,7 @@
         <v>80</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H12" s="72" t="s">
         <v>72</v>
@@ -2020,7 +2020,7 @@
         <v>80</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H13" s="72" t="s">
         <v>77</v>
@@ -2044,7 +2044,7 @@
         <v>80</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H14" s="72" t="s">
         <v>71</v>
@@ -2068,7 +2068,7 @@
         <v>80</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H15" s="72" t="s">
         <v>72</v>
@@ -2092,7 +2092,7 @@
         <v>80</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H16" s="73" t="s">
         <v>72</v>
@@ -2118,7 +2118,7 @@
         <v>76</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="74" t="s">
         <v>71</v>
@@ -2199,7 +2199,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="23">
         <v>17</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>41619</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="74" t="s">
@@ -2231,15 +2231,19 @@
         <v>41619</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22" s="17"/>
+        <v>93</v>
+      </c>
+      <c r="G22" s="30">
+        <v>41529</v>
+      </c>
       <c r="H22" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="I22" s="24"/>
-    </row>
-    <row r="23" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I22" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="23">
         <v>19</v>
       </c>
@@ -2251,23 +2255,25 @@
         <v>41345</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="17"/>
+        <v>88</v>
+      </c>
+      <c r="G23" s="30">
+        <v>41529</v>
+      </c>
       <c r="H23" s="74" t="s">
         <v>68</v>
       </c>
       <c r="I23" s="83" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="23">
         <v>20</v>
       </c>
       <c r="C24" s="94"/>
       <c r="D24" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>74</v>
@@ -2275,15 +2281,17 @@
       <c r="F24" s="30">
         <v>41376</v>
       </c>
-      <c r="G24" s="17"/>
+      <c r="G24" s="30">
+        <v>41529</v>
+      </c>
       <c r="H24" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="I24" s="83" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I24" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="23">
         <v>21</v>
       </c>
@@ -2297,15 +2305,17 @@
       <c r="F25" s="30">
         <v>41376</v>
       </c>
-      <c r="G25" s="17"/>
+      <c r="G25" s="30">
+        <v>41529</v>
+      </c>
       <c r="H25" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="I25" s="83" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I25" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="23">
         <v>22</v>
       </c>
@@ -2319,15 +2329,17 @@
       <c r="F26" s="30">
         <v>41376</v>
       </c>
-      <c r="G26" s="17"/>
+      <c r="G26" s="30">
+        <v>41529</v>
+      </c>
       <c r="H26" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="I26" s="83" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I26" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="23">
         <v>23</v>
       </c>
@@ -2341,15 +2353,17 @@
       <c r="F27" s="30">
         <v>41590</v>
       </c>
-      <c r="G27" s="17"/>
+      <c r="G27" s="30">
+        <v>41529</v>
+      </c>
       <c r="H27" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="I27" s="83" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I27" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="23">
         <v>24</v>
       </c>
@@ -2363,15 +2377,17 @@
       <c r="F28" s="30">
         <v>41590</v>
       </c>
-      <c r="G28" s="17"/>
+      <c r="G28" s="30">
+        <v>41529</v>
+      </c>
       <c r="H28" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="I28" s="83" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I28" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="23">
         <v>25</v>
       </c>
@@ -2385,12 +2401,14 @@
       <c r="F29" s="30">
         <v>41590</v>
       </c>
-      <c r="G29" s="17"/>
+      <c r="G29" s="30">
+        <v>41529</v>
+      </c>
       <c r="H29" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="I29" s="83" t="s">
-        <v>102</v>
+      <c r="I29" s="22" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2407,12 +2425,14 @@
       <c r="F30" s="30">
         <v>41590</v>
       </c>
-      <c r="G30" s="17"/>
+      <c r="G30" s="30">
+        <v>41529</v>
+      </c>
       <c r="H30" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="I30" s="83" t="s">
-        <v>102</v>
+      <c r="I30" s="22" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2434,7 +2454,7 @@
         <v>68</v>
       </c>
       <c r="I31" s="83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
@@ -2452,7 +2472,7 @@
         <v>68</v>
       </c>
       <c r="I32" s="83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
@@ -2470,7 +2490,7 @@
         <v>68</v>
       </c>
       <c r="I33" s="83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
@@ -2488,7 +2508,7 @@
         <v>68</v>
       </c>
       <c r="I34" s="83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
@@ -2506,7 +2526,7 @@
         <v>68</v>
       </c>
       <c r="I35" s="83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2528,7 +2548,7 @@
         <v>68</v>
       </c>
       <c r="I36" s="83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2539,7 +2559,7 @@
         <v>54</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E37" s="69" t="s">
         <v>81</v>
@@ -2548,7 +2568,7 @@
         <v>76</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H37" s="71" t="s">
         <v>77</v>
@@ -2561,13 +2581,13 @@
       </c>
       <c r="C38" s="91"/>
       <c r="D38" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E38" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F38" s="67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G38" s="67"/>
       <c r="H38" s="75" t="s">
@@ -2584,7 +2604,7 @@
         <v>57</v>
       </c>
       <c r="E39" s="51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F39" s="51">
         <v>41365</v>
@@ -2602,7 +2622,7 @@
         <v>58</v>
       </c>
       <c r="E40" s="51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F40" s="51">
         <v>41365</v>
@@ -2620,7 +2640,7 @@
         <v>59</v>
       </c>
       <c r="E41" s="51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F41" s="51">
         <v>41365</v>
@@ -2635,7 +2655,7 @@
       </c>
       <c r="C42" s="91"/>
       <c r="D42" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E42" s="51">
         <v>41760</v>
@@ -2653,7 +2673,7 @@
       </c>
       <c r="C43" s="91"/>
       <c r="D43" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E43" s="51">
         <v>41760</v>
@@ -2696,7 +2716,7 @@
         <v>41913</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G45" s="39"/>
       <c r="H45" s="75"/>
@@ -2707,13 +2727,13 @@
       <c r="B46" s="23"/>
       <c r="C46" s="100"/>
       <c r="D46" s="86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E46" s="85" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" s="39" t="s">
         <v>105</v>
-      </c>
-      <c r="F46" s="39" t="s">
-        <v>106</v>
       </c>
       <c r="G46" s="39"/>
       <c r="H46" s="75"/>
@@ -2729,10 +2749,10 @@
         <v>60</v>
       </c>
       <c r="E47" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" s="54" t="s">
         <v>107</v>
-      </c>
-      <c r="F47" s="54" t="s">
-        <v>108</v>
       </c>
       <c r="G47" s="54"/>
       <c r="H47" s="73" t="s">
@@ -2746,13 +2766,13 @@
         <v>44</v>
       </c>
       <c r="C48" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="21" t="s">
-        <v>98</v>
-      </c>
       <c r="E48" s="31" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="F48" s="31"/>
       <c r="G48" s="31"/>
@@ -2779,7 +2799,7 @@
       </c>
       <c r="C50" s="94"/>
       <c r="D50" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
@@ -2807,7 +2827,7 @@
       </c>
       <c r="C52" s="94"/>
       <c r="D52" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
@@ -2835,7 +2855,7 @@
       </c>
       <c r="C54" s="94"/>
       <c r="D54" s="62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E54" s="65"/>
       <c r="F54" s="17"/>
@@ -2849,7 +2869,7 @@
       </c>
       <c r="C55" s="95"/>
       <c r="D55" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E55" s="59"/>
       <c r="F55" s="59"/>
